--- a/tilburg data.xlsx
+++ b/tilburg data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chjh\Dropbox\projects\2014rpp\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\reproducibility project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Variable Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7969" uniqueCount="2863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7969" uniqueCount="2866">
   <si>
     <t>Variable</t>
   </si>
@@ -8611,6 +8611,15 @@
   </si>
   <si>
     <t>within subjects ANOVA</t>
+  </si>
+  <si>
+    <t>T_sign_O</t>
+  </si>
+  <si>
+    <t>T_sign_R</t>
+  </si>
+  <si>
+    <t>T_O_larger</t>
   </si>
 </sst>
 </file>
@@ -8620,7 +8629,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8720,8 +8729,25 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8760,20 +8786,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
   </fills>
@@ -8814,7 +8864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9072,15 +9122,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9149,12 +9190,8 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9179,7 +9216,7 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -9195,14 +9232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9210,6 +9240,65 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9538,20 +9627,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DY170"/>
+  <dimension ref="A1:EC170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DN2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DT11" sqref="DT11"/>
+      <selection pane="bottomRight" activeCell="EA2" sqref="EA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="11" width="28.140625" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
@@ -9586,54 +9675,24 @@
     <col min="51" max="51" width="19.5703125" customWidth="1"/>
     <col min="53" max="53" width="20.28515625" customWidth="1"/>
     <col min="54" max="54" width="23.85546875" customWidth="1"/>
-    <col min="56" max="57" width="33" customWidth="1"/>
-    <col min="58" max="58" width="40.7109375" customWidth="1"/>
-    <col min="60" max="60" width="17.85546875" customWidth="1"/>
-    <col min="61" max="61" width="22.140625" customWidth="1"/>
-    <col min="64" max="64" width="29" customWidth="1"/>
-    <col min="65" max="65" width="22" customWidth="1"/>
-    <col min="66" max="66" width="17" customWidth="1"/>
-    <col min="67" max="67" width="28.5703125" customWidth="1"/>
-    <col min="68" max="68" width="29.28515625" customWidth="1"/>
-    <col min="69" max="69" width="18.85546875" customWidth="1"/>
-    <col min="74" max="74" width="19.42578125" customWidth="1"/>
-    <col min="75" max="75" width="19.140625" customWidth="1"/>
-    <col min="76" max="76" width="24.140625" customWidth="1"/>
-    <col min="79" max="79" width="20.5703125" customWidth="1"/>
-    <col min="81" max="82" width="28.85546875" customWidth="1"/>
-    <col min="83" max="88" width="24.7109375" customWidth="1"/>
-    <col min="89" max="94" width="24.5703125" customWidth="1"/>
-    <col min="95" max="96" width="24.28515625" customWidth="1"/>
-    <col min="97" max="97" width="28.7109375" customWidth="1"/>
-    <col min="98" max="102" width="28.85546875" customWidth="1"/>
-    <col min="103" max="104" width="20.7109375" customWidth="1"/>
-    <col min="105" max="105" width="20.85546875" customWidth="1"/>
-    <col min="106" max="106" width="13" customWidth="1"/>
-    <col min="107" max="107" width="12.42578125" customWidth="1"/>
-    <col min="108" max="108" width="18.85546875" customWidth="1"/>
-    <col min="109" max="109" width="19.85546875" customWidth="1"/>
-    <col min="110" max="110" width="14.5703125" customWidth="1"/>
-    <col min="111" max="111" width="20.140625" customWidth="1"/>
-    <col min="112" max="112" width="18.7109375" customWidth="1"/>
-    <col min="113" max="113" width="16.7109375" customWidth="1"/>
-    <col min="114" max="114" width="13.7109375" customWidth="1"/>
-    <col min="115" max="115" width="19.42578125" style="151" customWidth="1"/>
-    <col min="116" max="116" width="19.42578125" customWidth="1"/>
-    <col min="117" max="117" width="22.7109375" customWidth="1"/>
-    <col min="118" max="118" width="11.5703125" customWidth="1"/>
-    <col min="119" max="119" width="10.28515625" customWidth="1"/>
-    <col min="120" max="120" width="16.28515625" customWidth="1"/>
-    <col min="121" max="121" width="20.140625" customWidth="1"/>
-    <col min="122" max="122" width="13.7109375" customWidth="1"/>
-    <col min="123" max="123" width="17.85546875" customWidth="1"/>
-    <col min="124" max="124" width="16.7109375" customWidth="1"/>
-    <col min="125" max="126" width="13.7109375" customWidth="1"/>
-    <col min="127" max="127" width="24.7109375" customWidth="1"/>
-    <col min="128" max="128" width="33" customWidth="1"/>
-    <col min="129" max="129" width="19.42578125" customWidth="1"/>
+    <col min="55" max="68" width="12.7109375" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" customWidth="1"/>
+    <col min="70" max="77" width="12.7109375" customWidth="1"/>
+    <col min="78" max="78" width="15.5703125" customWidth="1"/>
+    <col min="79" max="114" width="12.7109375" customWidth="1"/>
+    <col min="115" max="115" width="0.85546875" style="146" customWidth="1"/>
+    <col min="116" max="118" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="119" max="119" width="1.28515625" hidden="1" customWidth="1"/>
+    <col min="120" max="120" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="122" max="125" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="126" max="126" width="12.7109375" customWidth="1"/>
+    <col min="127" max="130" width="8.7109375" customWidth="1"/>
+    <col min="131" max="132" width="8.7109375" style="165" customWidth="1"/>
+    <col min="133" max="133" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -10021,8 +10080,17 @@
       <c r="DY1" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA1" s="164" t="s">
+        <v>2863</v>
+      </c>
+      <c r="EB1" s="164" t="s">
+        <v>2864</v>
+      </c>
+      <c r="EC1" s="164" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -10352,10 +10420,10 @@
       <c r="DK2" s="95">
         <v>29</v>
       </c>
-      <c r="DL2" s="129" t="s">
+      <c r="DL2" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM2" s="129" t="s">
+      <c r="DM2" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN2" s="95">
@@ -10367,7 +10435,7 @@
       <c r="DP2" s="95">
         <v>0.63</v>
       </c>
-      <c r="DQ2" s="129" t="s">
+      <c r="DQ2" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR2" s="95">
@@ -10383,15 +10451,27 @@
       <c r="DV2" s="90">
         <v>0.14834045300000001</v>
       </c>
-      <c r="DW2" s="156"/>
+      <c r="DW2" s="148"/>
       <c r="DX2" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY2" s="29" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="3" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA2" s="165">
+        <f>IF(DH2 &lt; 0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="EB2" s="165">
+        <f>IF(DT2 &lt; 0.05,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <f>IF(DJ2&gt;DV2,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -10727,10 +10807,10 @@
       <c r="DK3" s="95">
         <v>24</v>
       </c>
-      <c r="DL3" s="129" t="s">
+      <c r="DL3" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM3" s="129" t="s">
+      <c r="DM3" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN3" s="95">
@@ -10742,7 +10822,7 @@
       <c r="DP3" s="95">
         <v>1.28</v>
       </c>
-      <c r="DQ3" s="129" t="s">
+      <c r="DQ3" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR3" s="95">
@@ -10758,15 +10838,27 @@
       <c r="DV3" s="90">
         <v>0.229604631</v>
       </c>
-      <c r="DW3" s="156"/>
+      <c r="DW3" s="148"/>
       <c r="DX3" s="29" t="s">
         <v>340</v>
       </c>
       <c r="DY3" s="29" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="4" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA3" s="165">
+        <f t="shared" ref="EA3:EA66" si="0">IF(DH3 &lt; 0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="EB3" s="165">
+        <f t="shared" ref="EA3:EB66" si="1">IF(DT3 &lt; 0.05,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EC3" s="147">
+        <f t="shared" ref="EC3:EC66" si="2">IF(DJ3&gt;DV3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -11102,25 +11194,25 @@
       <c r="DK4" s="95">
         <v>32</v>
       </c>
-      <c r="DL4" s="129" t="s">
+      <c r="DL4" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM4" s="129" t="s">
+      <c r="DM4" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DN4" s="129">
-        <v>1</v>
-      </c>
-      <c r="DO4" s="129">
+      <c r="DN4" s="125">
+        <v>1</v>
+      </c>
+      <c r="DO4" s="125">
         <v>31</v>
       </c>
-      <c r="DP4" s="129">
+      <c r="DP4" s="125">
         <v>1.506</v>
       </c>
-      <c r="DQ4" s="129" t="s">
+      <c r="DQ4" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DR4" s="129">
+      <c r="DR4" s="125">
         <v>0.22900000000000001</v>
       </c>
       <c r="DS4" s="90">
@@ -11130,18 +11222,31 @@
         <v>0.22898882700000001</v>
       </c>
       <c r="DU4" s="90"/>
-      <c r="DV4" s="90">
-        <v>0.21524383499999999</v>
-      </c>
-      <c r="DW4" s="156"/>
+      <c r="DV4" s="153">
+        <f>-0.215243835</f>
+        <v>-0.21524383499999999</v>
+      </c>
+      <c r="DW4" s="148"/>
       <c r="DX4" s="15" t="s">
         <v>368</v>
       </c>
       <c r="DY4" s="29" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="5" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA4" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB4" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC4" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -11471,10 +11576,10 @@
       <c r="DK5" s="95">
         <v>270</v>
       </c>
-      <c r="DL5" s="129" t="s">
+      <c r="DL5" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM5" s="129" t="s">
+      <c r="DM5" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN5" s="95">
@@ -11486,7 +11591,7 @@
       <c r="DP5" s="95">
         <v>0.01</v>
       </c>
-      <c r="DQ5" s="129" t="s">
+      <c r="DQ5" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR5" s="95">
@@ -11499,18 +11604,31 @@
         <v>0.92041908900000002</v>
       </c>
       <c r="DU5" s="90"/>
-      <c r="DV5" s="90">
-        <v>6.1083580000000004E-3</v>
-      </c>
-      <c r="DW5" s="156"/>
+      <c r="DV5" s="153">
+        <f>-0.006108358</f>
+        <v>-6.1083580000000004E-3</v>
+      </c>
+      <c r="DW5" s="148"/>
       <c r="DX5" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY5" s="29" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="6" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA5" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB5" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC5" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -11668,7 +11786,7 @@
       </c>
       <c r="BB6" s="30"/>
       <c r="BC6" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD6" s="32" t="s">
         <v>233</v>
@@ -11842,10 +11960,10 @@
       <c r="DK6" s="95">
         <v>48</v>
       </c>
-      <c r="DL6" s="129" t="s">
+      <c r="DL6" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM6" s="129" t="s">
+      <c r="DM6" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN6" s="95">
@@ -11857,7 +11975,7 @@
       <c r="DP6" s="95">
         <v>0.87</v>
       </c>
-      <c r="DQ6" s="129" t="s">
+      <c r="DQ6" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR6" s="95">
@@ -11873,15 +11991,27 @@
       <c r="DV6" s="90">
         <v>0.13481180200000001</v>
       </c>
-      <c r="DW6" s="156"/>
+      <c r="DW6" s="148"/>
       <c r="DX6" s="29" t="s">
         <v>435</v>
       </c>
       <c r="DY6" s="29" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="7" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA6" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB6" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC6" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -12215,10 +12345,10 @@
       <c r="DK7" s="95">
         <v>32</v>
       </c>
-      <c r="DL7" s="129" t="s">
+      <c r="DL7" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM7" s="129" t="s">
+      <c r="DM7" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN7" s="95">
@@ -12230,7 +12360,7 @@
       <c r="DP7" s="95">
         <v>2.4</v>
       </c>
-      <c r="DQ7" s="129" t="s">
+      <c r="DQ7" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR7" s="95">
@@ -12246,15 +12376,27 @@
       <c r="DV7" s="90">
         <v>0.395843475</v>
       </c>
-      <c r="DW7" s="156"/>
+      <c r="DW7" s="148"/>
       <c r="DX7" s="29" t="s">
         <v>452</v>
       </c>
       <c r="DY7" s="29" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA7" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB7" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC7" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -12590,10 +12732,10 @@
       <c r="DK8" s="95">
         <v>15</v>
       </c>
-      <c r="DL8" s="129" t="s">
+      <c r="DL8" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM8" s="129" t="s">
+      <c r="DM8" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN8" s="95">
@@ -12605,7 +12747,7 @@
       <c r="DP8" s="95">
         <v>0.496</v>
       </c>
-      <c r="DQ8" s="129" t="s">
+      <c r="DQ8" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR8" s="59">
@@ -12621,15 +12763,27 @@
       <c r="DV8" s="90">
         <v>0.13141198100000001</v>
       </c>
-      <c r="DW8" s="156"/>
+      <c r="DW8" s="148"/>
       <c r="DX8" s="29" t="s">
         <v>452</v>
       </c>
       <c r="DY8" s="29" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="9" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA8" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB8" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC8" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -12961,7 +13115,7 @@
       <c r="DK9" s="95">
         <v>33</v>
       </c>
-      <c r="DL9" s="129" t="s">
+      <c r="DL9" s="125" t="s">
         <v>284</v>
       </c>
       <c r="DM9" s="64" t="s">
@@ -12982,23 +13136,38 @@
       <c r="DR9" s="64">
         <v>0.54</v>
       </c>
-      <c r="DS9" s="155">
+      <c r="DS9" s="148">
         <v>0.539998592</v>
       </c>
-      <c r="DT9" s="90"/>
+      <c r="DT9" s="148">
+        <v>0.539998592</v>
+      </c>
       <c r="DU9" s="90"/>
-      <c r="DV9" s="155">
-        <v>0.110614348</v>
-      </c>
-      <c r="DW9" s="156"/>
+      <c r="DV9" s="153">
+        <f>-0.110614348</f>
+        <v>-0.110614348</v>
+      </c>
+      <c r="DW9" s="148"/>
       <c r="DX9" s="15" t="s">
         <v>513</v>
       </c>
       <c r="DY9" s="15" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="10" spans="1:129" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA9" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB9" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC9" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:133" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54">
         <v>9</v>
       </c>
@@ -13272,7 +13441,7 @@
         <v>0.30224251375827998</v>
       </c>
       <c r="DK10" s="95"/>
-      <c r="DL10" s="129"/>
+      <c r="DL10" s="125"/>
       <c r="DM10" s="64"/>
       <c r="DN10" s="64"/>
       <c r="DO10" s="64"/>
@@ -13283,11 +13452,12 @@
       <c r="DT10" s="90"/>
       <c r="DU10" s="90"/>
       <c r="DV10" s="90"/>
-      <c r="DW10" s="156"/>
+      <c r="DW10" s="148"/>
       <c r="DX10" s="20"/>
       <c r="DY10" s="20"/>
-    </row>
-    <row r="11" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC10" s="147"/>
+    </row>
+    <row r="11" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -13621,10 +13791,10 @@
       <c r="DK11" s="95">
         <v>32</v>
       </c>
-      <c r="DL11" s="129" t="s">
+      <c r="DL11" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM11" s="129" t="s">
+      <c r="DM11" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN11" s="95">
@@ -13636,31 +13806,43 @@
       <c r="DP11" s="95">
         <v>45.27</v>
       </c>
-      <c r="DQ11" s="129" t="s">
+      <c r="DQ11" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR11" s="95">
         <v>1E-3</v>
       </c>
-      <c r="DS11" s="107">
+      <c r="DS11" s="104">
         <v>2.2100000000000001E-7</v>
       </c>
-      <c r="DT11" s="107">
+      <c r="DT11" s="104">
         <v>2.2100000000000001E-7</v>
       </c>
       <c r="DU11" s="90"/>
       <c r="DV11" s="90">
         <v>0.78072580700000005</v>
       </c>
-      <c r="DW11" s="156"/>
+      <c r="DW11" s="148"/>
       <c r="DX11" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY11" s="29" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="12" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA11" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB11" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC11" s="147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -13990,10 +14172,10 @@
       <c r="DK12" s="95">
         <v>30</v>
       </c>
-      <c r="DL12" s="129" t="s">
+      <c r="DL12" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM12" s="129" t="s">
+      <c r="DM12" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN12" s="95">
@@ -14005,7 +14187,7 @@
       <c r="DP12" s="95">
         <v>8.0640000000000001</v>
       </c>
-      <c r="DQ12" s="129" t="s">
+      <c r="DQ12" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR12" s="95">
@@ -14021,15 +14203,27 @@
       <c r="DV12" s="90">
         <v>0.46644357600000003</v>
       </c>
-      <c r="DW12" s="156"/>
+      <c r="DW12" s="148"/>
       <c r="DX12" s="29" t="s">
         <v>574</v>
       </c>
       <c r="DY12" s="29" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="13" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA12" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB12" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC12" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -14359,10 +14553,10 @@
       <c r="DK13" s="95">
         <v>118</v>
       </c>
-      <c r="DL13" s="129" t="s">
+      <c r="DL13" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM13" s="129" t="s">
+      <c r="DM13" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN13" s="95">
@@ -14374,7 +14568,7 @@
       <c r="DP13" s="95">
         <v>1.63</v>
       </c>
-      <c r="DQ13" s="129" t="s">
+      <c r="DQ13" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR13" s="95">
@@ -14390,15 +14584,27 @@
       <c r="DV13" s="90">
         <v>8.3237640000000002E-2</v>
       </c>
-      <c r="DW13" s="156"/>
+      <c r="DW13" s="148"/>
       <c r="DX13" s="29" t="s">
         <v>397</v>
       </c>
       <c r="DY13" s="29" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="14" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA13" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB13" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC13" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -14728,10 +14934,10 @@
       <c r="DK14" s="95">
         <v>36</v>
       </c>
-      <c r="DL14" s="129" t="s">
+      <c r="DL14" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM14" s="129" t="s">
+      <c r="DM14" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN14" s="95">
@@ -14743,31 +14949,43 @@
       <c r="DP14" s="95">
         <v>41.603000000000002</v>
       </c>
-      <c r="DQ14" s="129" t="s">
+      <c r="DQ14" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR14" s="95">
         <v>1E-4</v>
       </c>
-      <c r="DS14" s="107">
+      <c r="DS14" s="104">
         <v>1.5799999999999999E-12</v>
       </c>
-      <c r="DT14" s="107">
+      <c r="DT14" s="104">
         <v>1.5799999999999999E-12</v>
       </c>
       <c r="DU14" s="90"/>
       <c r="DV14" s="90">
         <v>0.52453903400000002</v>
       </c>
-      <c r="DW14" s="156"/>
+      <c r="DW14" s="148"/>
       <c r="DX14" s="29" t="s">
         <v>596</v>
       </c>
       <c r="DY14" s="29" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="15" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA14" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB14" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC14" s="147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -15015,7 +15233,7 @@
         <v>0.53956013497098498</v>
       </c>
       <c r="DK15" s="95"/>
-      <c r="DL15" s="129"/>
+      <c r="DL15" s="125"/>
       <c r="DM15" s="64"/>
       <c r="DN15" s="64"/>
       <c r="DO15" s="64"/>
@@ -15026,11 +15244,12 @@
       <c r="DT15" s="90"/>
       <c r="DU15" s="90"/>
       <c r="DV15" s="90"/>
-      <c r="DW15" s="156"/>
+      <c r="DW15" s="148"/>
       <c r="DX15" s="20"/>
       <c r="DY15" s="20"/>
-    </row>
-    <row r="16" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC15" s="147"/>
+    </row>
+    <row r="16" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -15350,14 +15569,15 @@
       <c r="DE16" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="DF16" s="42">
+      <c r="DF16" s="158">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="DG16" s="20">
         <v>5.6747408999999999E-2</v>
       </c>
-      <c r="DH16" s="20">
-        <v>5.6747408999999999E-2</v>
+      <c r="DH16" s="157">
+        <f>0.056747409/2</f>
+        <v>2.8373704499999999E-2</v>
       </c>
       <c r="DI16" s="20"/>
       <c r="DJ16" s="20">
@@ -15366,10 +15586,10 @@
       <c r="DK16" s="95">
         <v>242</v>
       </c>
-      <c r="DL16" s="129" t="s">
+      <c r="DL16" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM16" s="129" t="s">
+      <c r="DM16" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN16" s="95">
@@ -15381,31 +15601,44 @@
       <c r="DP16" s="95">
         <v>3.9550000000000001</v>
       </c>
-      <c r="DQ16" s="129" t="s">
+      <c r="DQ16" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DR16" s="95">
+      <c r="DR16" s="154">
         <v>1E-4</v>
       </c>
-      <c r="DS16" s="107">
+      <c r="DS16" s="156">
         <v>1.01E-4</v>
       </c>
-      <c r="DT16" s="107">
-        <v>1.01E-4</v>
+      <c r="DT16" s="155">
+        <f>0.000101/2</f>
+        <v>5.0500000000000001E-5</v>
       </c>
       <c r="DU16" s="90"/>
       <c r="DV16" s="90">
         <v>0.24687812000000001</v>
       </c>
-      <c r="DW16" s="156"/>
+      <c r="DW16" s="148"/>
       <c r="DX16" s="29" t="s">
         <v>452</v>
       </c>
       <c r="DY16" s="29" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="17" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA16" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB16" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC16" s="147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -15582,7 +15815,7 @@
         <v>0.243770440187349</v>
       </c>
       <c r="DK17" s="95"/>
-      <c r="DL17" s="129"/>
+      <c r="DL17" s="125"/>
       <c r="DM17" s="64"/>
       <c r="DN17" s="64"/>
       <c r="DO17" s="64"/>
@@ -15593,11 +15826,12 @@
       <c r="DT17" s="90"/>
       <c r="DU17" s="90"/>
       <c r="DV17" s="90"/>
-      <c r="DW17" s="156"/>
+      <c r="DW17" s="148"/>
       <c r="DX17" s="44"/>
       <c r="DY17" s="44"/>
-    </row>
-    <row r="18" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC17" s="147"/>
+    </row>
+    <row r="18" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -15927,10 +16161,10 @@
       <c r="DK18" s="95">
         <v>47</v>
       </c>
-      <c r="DL18" s="129" t="s">
+      <c r="DL18" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM18" s="129" t="s">
+      <c r="DM18" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN18" s="95">
@@ -15942,31 +16176,43 @@
       <c r="DP18" s="95">
         <v>19.48</v>
       </c>
-      <c r="DQ18" s="129" t="s">
+      <c r="DQ18" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR18" s="95">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="DS18" s="107">
+      <c r="DS18" s="104">
         <v>1.37E-6</v>
       </c>
-      <c r="DT18" s="107">
+      <c r="DT18" s="104">
         <v>1.37E-6</v>
       </c>
       <c r="DU18" s="90"/>
       <c r="DV18" s="90">
         <v>0.43451030600000001</v>
       </c>
-      <c r="DW18" s="156"/>
+      <c r="DW18" s="148"/>
       <c r="DX18" s="29" t="s">
         <v>340</v>
       </c>
       <c r="DY18" s="29" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="19" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA18" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB18" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC18" s="147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -16130,7 +16376,7 @@
         <v>8.8722956578382202E-3</v>
       </c>
       <c r="DK19" s="95"/>
-      <c r="DL19" s="129"/>
+      <c r="DL19" s="125"/>
       <c r="DM19" s="64"/>
       <c r="DN19" s="64"/>
       <c r="DO19" s="64"/>
@@ -16141,11 +16387,12 @@
       <c r="DT19" s="90"/>
       <c r="DU19" s="90"/>
       <c r="DV19" s="90"/>
-      <c r="DW19" s="156"/>
+      <c r="DW19" s="148"/>
       <c r="DX19" s="44"/>
       <c r="DY19" s="44"/>
-    </row>
-    <row r="20" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC19" s="147"/>
+    </row>
+    <row r="20" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -16479,10 +16726,10 @@
       <c r="DK20" s="95">
         <v>21</v>
       </c>
-      <c r="DL20" s="129" t="s">
+      <c r="DL20" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM20" s="129" t="s">
+      <c r="DM20" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN20" s="95">
@@ -16494,7 +16741,7 @@
       <c r="DP20" s="95">
         <v>3.661</v>
       </c>
-      <c r="DQ20" s="129" t="s">
+      <c r="DQ20" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR20" s="95">
@@ -16510,15 +16757,27 @@
       <c r="DV20" s="90">
         <v>0.40193916800000001</v>
       </c>
-      <c r="DW20" s="156"/>
+      <c r="DW20" s="148"/>
       <c r="DX20" s="29" t="s">
         <v>710</v>
       </c>
       <c r="DY20" s="29" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="21" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA20" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB20" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC20" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -16850,10 +17109,10 @@
       <c r="DK21" s="95">
         <v>108</v>
       </c>
-      <c r="DL21" s="129" t="s">
+      <c r="DL21" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM21" s="129" t="s">
+      <c r="DM21" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN21" s="95">
@@ -16865,7 +17124,7 @@
       <c r="DP21" s="95">
         <v>0.04</v>
       </c>
-      <c r="DQ21" s="129" t="s">
+      <c r="DQ21" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR21" s="95">
@@ -16881,15 +17140,27 @@
       <c r="DV21" s="90">
         <v>1.9422053000000002E-2</v>
       </c>
-      <c r="DW21" s="156"/>
+      <c r="DW21" s="148"/>
       <c r="DX21" s="29" t="s">
         <v>397</v>
       </c>
       <c r="DY21" s="29" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="22" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA21" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB21" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC21" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -17052,7 +17323,7 @@
         <v>512</v>
       </c>
       <c r="DK22" s="95"/>
-      <c r="DL22" s="129"/>
+      <c r="DL22" s="125"/>
       <c r="DM22" s="64"/>
       <c r="DN22" s="64"/>
       <c r="DO22" s="64"/>
@@ -17063,11 +17334,12 @@
       <c r="DT22" s="90"/>
       <c r="DU22" s="90"/>
       <c r="DV22" s="90"/>
-      <c r="DW22" s="156"/>
+      <c r="DW22" s="148"/>
       <c r="DX22" s="44"/>
       <c r="DY22" s="44"/>
-    </row>
-    <row r="23" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC22" s="147"/>
+    </row>
+    <row r="23" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -17399,10 +17671,10 @@
       <c r="DK23" s="95">
         <v>32</v>
       </c>
-      <c r="DL23" s="129" t="s">
+      <c r="DL23" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM23" s="129" t="s">
+      <c r="DM23" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN23" s="95">
@@ -17414,7 +17686,7 @@
       <c r="DP23" s="95">
         <v>0.38</v>
       </c>
-      <c r="DQ23" s="129" t="s">
+      <c r="DQ23" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR23" s="95">
@@ -17430,15 +17702,27 @@
       <c r="DV23" s="90">
         <v>6.4661344999999995E-2</v>
       </c>
-      <c r="DW23" s="156"/>
+      <c r="DW23" s="148"/>
       <c r="DX23" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY23" s="29" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="24" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA23" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB23" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC23" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -17569,22 +17853,23 @@
         <v>512</v>
       </c>
       <c r="DK24" s="95"/>
-      <c r="DL24" s="129"/>
-      <c r="DM24" s="129"/>
-      <c r="DN24" s="129"/>
-      <c r="DO24" s="129"/>
-      <c r="DP24" s="129"/>
-      <c r="DQ24" s="129"/>
-      <c r="DR24" s="129"/>
+      <c r="DL24" s="125"/>
+      <c r="DM24" s="125"/>
+      <c r="DN24" s="125"/>
+      <c r="DO24" s="125"/>
+      <c r="DP24" s="125"/>
+      <c r="DQ24" s="125"/>
+      <c r="DR24" s="125"/>
       <c r="DS24" s="90"/>
       <c r="DT24" s="90"/>
       <c r="DU24" s="90"/>
       <c r="DV24" s="90"/>
-      <c r="DW24" s="156"/>
+      <c r="DW24" s="148"/>
       <c r="DX24" s="44"/>
       <c r="DY24" s="44"/>
-    </row>
-    <row r="25" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC24" s="147"/>
+    </row>
+    <row r="25" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -17920,10 +18205,10 @@
       <c r="DK25" s="95">
         <v>49</v>
       </c>
-      <c r="DL25" s="129" t="s">
+      <c r="DL25" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM25" s="129" t="s">
+      <c r="DM25" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN25" s="95">
@@ -17935,7 +18220,7 @@
       <c r="DP25" s="95">
         <v>4.22</v>
       </c>
-      <c r="DQ25" s="129" t="s">
+      <c r="DQ25" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR25" s="95">
@@ -17951,15 +18236,27 @@
       <c r="DV25" s="90">
         <v>0.28427442600000002</v>
       </c>
-      <c r="DW25" s="156"/>
+      <c r="DW25" s="148"/>
       <c r="DX25" s="29" t="s">
         <v>780</v>
       </c>
       <c r="DY25" s="29" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="26" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA25" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB25" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC25" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -18285,7 +18582,7 @@
       <c r="DK26" s="95">
         <v>64</v>
       </c>
-      <c r="DL26" s="129" t="s">
+      <c r="DL26" s="125" t="s">
         <v>464</v>
       </c>
       <c r="DM26" s="64" t="s">
@@ -18306,21 +18603,35 @@
       <c r="DR26" s="64">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="DS26" s="155">
+      <c r="DS26" s="148">
         <v>2.1082967000000001E-2</v>
       </c>
-      <c r="DT26" s="90"/>
+      <c r="DT26" s="148">
+        <v>2.1082967000000001E-2</v>
+      </c>
       <c r="DU26" s="90"/>
-      <c r="DV26" s="155">
+      <c r="DV26" s="148">
         <v>0.29725496699999998</v>
       </c>
-      <c r="DW26" s="156"/>
+      <c r="DW26" s="148"/>
       <c r="DX26" s="15" t="s">
         <v>291</v>
       </c>
       <c r="DY26" s="86"/>
-    </row>
-    <row r="27" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA26" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB26" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC26" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -18653,10 +18964,10 @@
       <c r="DK27" s="95">
         <v>20</v>
       </c>
-      <c r="DL27" s="129" t="s">
+      <c r="DL27" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM27" s="129" t="s">
+      <c r="DM27" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN27" s="95">
@@ -18668,31 +18979,43 @@
       <c r="DP27" s="95">
         <v>1.95</v>
       </c>
-      <c r="DQ27" s="129" t="s">
+      <c r="DQ27" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR27" s="95">
         <v>0.17</v>
       </c>
-      <c r="DS27" s="149">
+      <c r="DS27" s="144">
         <v>0.165946909</v>
       </c>
       <c r="DT27" s="90">
         <v>0.165946909</v>
       </c>
-      <c r="DU27" s="150"/>
-      <c r="DV27" s="149">
+      <c r="DU27" s="145"/>
+      <c r="DV27" s="144">
         <v>0.14406846000000001</v>
       </c>
-      <c r="DW27" s="157"/>
+      <c r="DW27" s="149"/>
       <c r="DX27" s="29" t="s">
         <v>822</v>
       </c>
       <c r="DY27" s="29" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="28" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA27" s="165">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="EB27" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC27" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -19022,10 +19345,10 @@
       <c r="DK28" s="95">
         <v>71</v>
       </c>
-      <c r="DL28" s="129" t="s">
+      <c r="DL28" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM28" s="129" t="s">
+      <c r="DM28" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN28" s="95">
@@ -19037,7 +19360,7 @@
       <c r="DP28" s="95">
         <v>11.782999999999999</v>
       </c>
-      <c r="DQ28" s="129" t="s">
+      <c r="DQ28" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR28" s="95">
@@ -19053,15 +19376,27 @@
       <c r="DV28" s="90">
         <v>0.37957396799999998</v>
       </c>
-      <c r="DW28" s="156"/>
+      <c r="DW28" s="148"/>
       <c r="DX28" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY28" s="29" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="29" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA28" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB28" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC28" s="147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -19395,10 +19730,10 @@
       <c r="DK29" s="95">
         <v>91</v>
       </c>
-      <c r="DL29" s="129" t="s">
+      <c r="DL29" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM29" s="129" t="s">
+      <c r="DM29" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN29" s="95">
@@ -19410,7 +19745,7 @@
       <c r="DP29" s="95">
         <v>0.97</v>
       </c>
-      <c r="DQ29" s="129" t="s">
+      <c r="DQ29" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR29" s="95">
@@ -19426,15 +19761,26 @@
       <c r="DV29" s="90">
         <v>0.10326110500000001</v>
       </c>
-      <c r="DW29" s="156"/>
+      <c r="DW29" s="148"/>
       <c r="DX29" s="29" t="s">
         <v>574</v>
       </c>
       <c r="DY29" s="29" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="30" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA29" s="167">
+        <v>1</v>
+      </c>
+      <c r="EB29" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC29" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -19766,10 +20112,10 @@
       <c r="DK30" s="95">
         <v>15</v>
       </c>
-      <c r="DL30" s="129" t="s">
+      <c r="DL30" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM30" s="129" t="s">
+      <c r="DM30" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN30" s="95">
@@ -19781,7 +20127,7 @@
       <c r="DP30" s="95">
         <v>3.7080000000000002</v>
       </c>
-      <c r="DQ30" s="129" t="s">
+      <c r="DQ30" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR30" s="95">
@@ -19797,15 +20143,27 @@
       <c r="DV30" s="90">
         <v>0.70390490400000005</v>
       </c>
-      <c r="DW30" s="156"/>
+      <c r="DW30" s="148"/>
       <c r="DX30" s="29" t="s">
         <v>452</v>
       </c>
       <c r="DY30" s="29" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="31" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA30" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB30" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC30" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -19970,7 +20328,7 @@
         <v>0.62290039007921005</v>
       </c>
       <c r="DK31" s="95"/>
-      <c r="DL31" s="129"/>
+      <c r="DL31" s="125"/>
       <c r="DM31" s="64"/>
       <c r="DN31" s="64"/>
       <c r="DO31" s="64"/>
@@ -19981,11 +20339,12 @@
       <c r="DT31" s="90"/>
       <c r="DU31" s="90"/>
       <c r="DV31" s="90"/>
-      <c r="DW31" s="156"/>
+      <c r="DW31" s="148"/>
       <c r="DX31" s="44"/>
       <c r="DY31" s="44"/>
-    </row>
-    <row r="32" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC31" s="147"/>
+    </row>
+    <row r="32" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -20209,7 +20568,7 @@
         <v>0.78572778898057904</v>
       </c>
       <c r="DK32" s="95"/>
-      <c r="DL32" s="129"/>
+      <c r="DL32" s="125"/>
       <c r="DM32" s="64"/>
       <c r="DN32" s="64"/>
       <c r="DO32" s="64"/>
@@ -20220,11 +20579,12 @@
       <c r="DT32" s="90"/>
       <c r="DU32" s="90"/>
       <c r="DV32" s="90"/>
-      <c r="DW32" s="156"/>
+      <c r="DW32" s="148"/>
       <c r="DX32" s="20"/>
       <c r="DY32" s="20"/>
-    </row>
-    <row r="33" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC32" s="147"/>
+    </row>
+    <row r="33" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -20556,10 +20916,10 @@
       <c r="DK33" s="95">
         <v>38</v>
       </c>
-      <c r="DL33" s="129" t="s">
+      <c r="DL33" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM33" s="129" t="s">
+      <c r="DM33" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN33" s="95">
@@ -20571,7 +20931,7 @@
       <c r="DP33" s="95">
         <v>11.12</v>
       </c>
-      <c r="DQ33" s="129" t="s">
+      <c r="DQ33" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR33" s="95">
@@ -20587,15 +20947,27 @@
       <c r="DV33" s="90">
         <v>0.48071711499999997</v>
       </c>
-      <c r="DW33" s="156"/>
+      <c r="DW33" s="148"/>
       <c r="DX33" s="29" t="s">
         <v>927</v>
       </c>
       <c r="DY33" s="29" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="34" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA33" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB33" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC33" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -20929,10 +21301,10 @@
       <c r="DK34" s="95">
         <v>40</v>
       </c>
-      <c r="DL34" s="129" t="s">
+      <c r="DL34" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM34" s="129" t="s">
+      <c r="DM34" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN34" s="95">
@@ -20944,7 +21316,7 @@
       <c r="DP34" s="95">
         <v>2.08</v>
       </c>
-      <c r="DQ34" s="129" t="s">
+      <c r="DQ34" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR34" s="95">
@@ -20960,15 +21332,27 @@
       <c r="DV34" s="90">
         <v>0.31599996400000002</v>
       </c>
-      <c r="DW34" s="156"/>
+      <c r="DW34" s="148"/>
       <c r="DX34" s="29" t="s">
         <v>491</v>
       </c>
       <c r="DY34" s="29" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="35" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA34" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB34" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC34" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -21120,7 +21504,7 @@
         <v>512</v>
       </c>
       <c r="DK35" s="95"/>
-      <c r="DL35" s="129"/>
+      <c r="DL35" s="125"/>
       <c r="DM35" s="64"/>
       <c r="DN35" s="64"/>
       <c r="DO35" s="64"/>
@@ -21131,11 +21515,12 @@
       <c r="DT35" s="90"/>
       <c r="DU35" s="90"/>
       <c r="DV35" s="90"/>
-      <c r="DW35" s="156"/>
+      <c r="DW35" s="148"/>
       <c r="DX35" s="44"/>
       <c r="DY35" s="44"/>
-    </row>
-    <row r="36" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC35" s="147"/>
+    </row>
+    <row r="36" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -21368,10 +21753,10 @@
       <c r="CL36" s="39">
         <v>4723</v>
       </c>
-      <c r="CM36" s="152" t="s">
+      <c r="CM36" s="151" t="s">
         <v>549</v>
       </c>
-      <c r="CN36" s="153"/>
+      <c r="CN36" s="152"/>
       <c r="CO36" s="67"/>
       <c r="CP36" s="67"/>
       <c r="CQ36" s="67"/>
@@ -21425,7 +21810,7 @@
         <v>9.1499704587989797E-2</v>
       </c>
       <c r="DK36" s="95"/>
-      <c r="DL36" s="129"/>
+      <c r="DL36" s="125"/>
       <c r="DM36" s="64"/>
       <c r="DN36" s="64"/>
       <c r="DO36" s="64"/>
@@ -21436,11 +21821,12 @@
       <c r="DT36" s="90"/>
       <c r="DU36" s="90"/>
       <c r="DV36" s="90"/>
-      <c r="DW36" s="156"/>
+      <c r="DW36" s="148"/>
       <c r="DX36" s="20"/>
       <c r="DY36" s="20"/>
-    </row>
-    <row r="37" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC36" s="147"/>
+    </row>
+    <row r="37" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -21770,10 +22156,10 @@
       <c r="DK37" s="95">
         <v>24</v>
       </c>
-      <c r="DL37" s="129" t="s">
+      <c r="DL37" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM37" s="129" t="s">
+      <c r="DM37" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN37" s="95">
@@ -21785,7 +22171,7 @@
       <c r="DP37" s="95">
         <v>17.350000000000001</v>
       </c>
-      <c r="DQ37" s="129" t="s">
+      <c r="DQ37" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR37" s="95">
@@ -21801,15 +22187,27 @@
       <c r="DV37" s="90">
         <v>0.68156053699999997</v>
       </c>
-      <c r="DW37" s="156"/>
+      <c r="DW37" s="148"/>
       <c r="DX37" s="29" t="s">
         <v>397</v>
       </c>
       <c r="DY37" s="29" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="38" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA37" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB37" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC37" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -22139,10 +22537,10 @@
       <c r="DK38" s="95">
         <v>18</v>
       </c>
-      <c r="DL38" s="129" t="s">
+      <c r="DL38" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM38" s="129" t="s">
+      <c r="DM38" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN38" s="95">
@@ -22154,7 +22552,7 @@
       <c r="DP38" s="95">
         <v>2.37</v>
       </c>
-      <c r="DQ38" s="129" t="s">
+      <c r="DQ38" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR38" s="95">
@@ -22170,15 +22568,26 @@
       <c r="DV38" s="90">
         <v>0.34979158900000001</v>
       </c>
-      <c r="DW38" s="156"/>
+      <c r="DW38" s="148"/>
       <c r="DX38" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY38" s="29" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="39" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA38" s="167">
+        <v>1</v>
+      </c>
+      <c r="EB38" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC38" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -22332,7 +22741,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="DK39" s="95"/>
-      <c r="DL39" s="129"/>
+      <c r="DL39" s="125"/>
       <c r="DM39" s="64"/>
       <c r="DN39" s="64"/>
       <c r="DO39" s="64"/>
@@ -22343,11 +22752,12 @@
       <c r="DT39" s="90"/>
       <c r="DU39" s="90"/>
       <c r="DV39" s="90"/>
-      <c r="DW39" s="156"/>
+      <c r="DW39" s="148"/>
       <c r="DX39" s="44"/>
       <c r="DY39" s="44"/>
-    </row>
-    <row r="40" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC39" s="147"/>
+    </row>
+    <row r="40" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -22675,10 +23085,10 @@
       <c r="DK40" s="95">
         <v>153</v>
       </c>
-      <c r="DL40" s="129" t="s">
+      <c r="DL40" s="125" t="s">
         <v>1034</v>
       </c>
-      <c r="DM40" s="129" t="s">
+      <c r="DM40" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN40" s="64"/>
@@ -22686,7 +23096,7 @@
       <c r="DP40" s="95">
         <v>1.25</v>
       </c>
-      <c r="DQ40" s="129" t="s">
+      <c r="DQ40" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR40" s="95">
@@ -22702,15 +23112,27 @@
       <c r="DV40" s="90">
         <v>0.10170916100000001</v>
       </c>
-      <c r="DW40" s="156"/>
+      <c r="DW40" s="148"/>
       <c r="DX40" s="29" t="s">
         <v>1027</v>
       </c>
       <c r="DY40" s="29" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="41" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA40" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB40" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC40" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -22877,7 +23299,7 @@
         <v>0.124140883290355</v>
       </c>
       <c r="DK41" s="95"/>
-      <c r="DL41" s="129"/>
+      <c r="DL41" s="125"/>
       <c r="DM41" s="64"/>
       <c r="DN41" s="64"/>
       <c r="DO41" s="64"/>
@@ -22888,11 +23310,12 @@
       <c r="DT41" s="90"/>
       <c r="DU41" s="90"/>
       <c r="DV41" s="90"/>
-      <c r="DW41" s="156"/>
+      <c r="DW41" s="148"/>
       <c r="DX41" s="44"/>
       <c r="DY41" s="44"/>
-    </row>
-    <row r="42" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC41" s="147"/>
+    </row>
+    <row r="42" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -23158,7 +23581,7 @@
         <v>0.23955878489889401</v>
       </c>
       <c r="DK42" s="95"/>
-      <c r="DL42" s="129"/>
+      <c r="DL42" s="125"/>
       <c r="DM42" s="64"/>
       <c r="DN42" s="64"/>
       <c r="DO42" s="64"/>
@@ -23169,11 +23592,12 @@
       <c r="DT42" s="90"/>
       <c r="DU42" s="90"/>
       <c r="DV42" s="90"/>
-      <c r="DW42" s="156"/>
+      <c r="DW42" s="148"/>
       <c r="DX42" s="20"/>
       <c r="DY42" s="20"/>
-    </row>
-    <row r="43" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC42" s="147"/>
+    </row>
+    <row r="43" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -23332,7 +23756,7 @@
         <v>512</v>
       </c>
       <c r="DK43" s="95"/>
-      <c r="DL43" s="129"/>
+      <c r="DL43" s="125"/>
       <c r="DM43" s="64"/>
       <c r="DN43" s="64"/>
       <c r="DO43" s="64"/>
@@ -23343,11 +23767,12 @@
       <c r="DT43" s="90"/>
       <c r="DU43" s="90"/>
       <c r="DV43" s="90"/>
-      <c r="DW43" s="156"/>
+      <c r="DW43" s="148"/>
       <c r="DX43" s="44"/>
       <c r="DY43" s="44"/>
-    </row>
-    <row r="44" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC43" s="147"/>
+    </row>
+    <row r="44" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -23681,10 +24106,10 @@
       <c r="DK44" s="95">
         <v>75</v>
       </c>
-      <c r="DL44" s="129" t="s">
+      <c r="DL44" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM44" s="129" t="s">
+      <c r="DM44" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN44" s="95">
@@ -23696,7 +24121,7 @@
       <c r="DP44" s="95">
         <v>1.97</v>
       </c>
-      <c r="DQ44" s="129" t="s">
+      <c r="DQ44" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR44" s="95">
@@ -23712,15 +24137,27 @@
       <c r="DV44" s="90">
         <v>0.161063754</v>
       </c>
-      <c r="DW44" s="156"/>
+      <c r="DW44" s="148"/>
       <c r="DX44" s="29" t="s">
         <v>1083</v>
       </c>
       <c r="DY44" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="45" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA44" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB44" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC44" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -24054,10 +24491,10 @@
       <c r="DK45" s="95">
         <v>180</v>
       </c>
-      <c r="DL45" s="129" t="s">
+      <c r="DL45" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM45" s="129" t="s">
+      <c r="DM45" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN45" s="95">
@@ -24069,7 +24506,7 @@
       <c r="DP45" s="95">
         <v>2.016</v>
       </c>
-      <c r="DQ45" s="129" t="s">
+      <c r="DQ45" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR45" s="95">
@@ -24085,15 +24522,27 @@
       <c r="DV45" s="90">
         <v>0.15023695500000001</v>
       </c>
-      <c r="DW45" s="156"/>
+      <c r="DW45" s="148"/>
       <c r="DX45" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="DY45" s="29" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="46" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA45" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB45" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC45" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -24259,7 +24708,7 @@
         <v>512</v>
       </c>
       <c r="DK46" s="95"/>
-      <c r="DL46" s="129"/>
+      <c r="DL46" s="125"/>
       <c r="DM46" s="64"/>
       <c r="DN46" s="64"/>
       <c r="DO46" s="64"/>
@@ -24270,11 +24719,12 @@
       <c r="DT46" s="90"/>
       <c r="DU46" s="90"/>
       <c r="DV46" s="90"/>
-      <c r="DW46" s="156"/>
+      <c r="DW46" s="148"/>
       <c r="DX46" s="44"/>
       <c r="DY46" s="44"/>
-    </row>
-    <row r="47" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC46" s="147"/>
+    </row>
+    <row r="47" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -24594,7 +25044,7 @@
       <c r="DG47" s="20">
         <v>0</v>
       </c>
-      <c r="DH47" s="20">
+      <c r="DH47" s="157">
         <v>0</v>
       </c>
       <c r="DI47" s="20"/>
@@ -24604,10 +25054,10 @@
       <c r="DK47" s="95">
         <v>455326</v>
       </c>
-      <c r="DL47" s="129" t="s">
+      <c r="DL47" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM47" s="129" t="s">
+      <c r="DM47" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN47" s="95">
@@ -24619,7 +25069,7 @@
       <c r="DP47" s="95">
         <v>261.93</v>
       </c>
-      <c r="DQ47" s="129" t="s">
+      <c r="DQ47" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR47" s="70">
@@ -24628,22 +25078,34 @@
       <c r="DS47" s="90">
         <v>0</v>
       </c>
-      <c r="DT47" s="90">
+      <c r="DT47" s="157">
         <v>0</v>
       </c>
       <c r="DU47" s="90"/>
       <c r="DV47" s="90">
         <v>2.3841536999999999E-2</v>
       </c>
-      <c r="DW47" s="156"/>
+      <c r="DW47" s="148"/>
       <c r="DX47" s="29" t="s">
         <v>1137</v>
       </c>
       <c r="DY47" s="29" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="48" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA47" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB47" s="165">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC47" s="147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -24868,7 +25330,7 @@
         <v>0.104753853162735</v>
       </c>
       <c r="DK48" s="95"/>
-      <c r="DL48" s="129"/>
+      <c r="DL48" s="125"/>
       <c r="DM48" s="64"/>
       <c r="DN48" s="64"/>
       <c r="DO48" s="64"/>
@@ -24879,11 +25341,12 @@
       <c r="DT48" s="90"/>
       <c r="DU48" s="90"/>
       <c r="DV48" s="90"/>
-      <c r="DW48" s="156"/>
+      <c r="DW48" s="148"/>
       <c r="DX48" s="44"/>
       <c r="DY48" s="44"/>
-    </row>
-    <row r="49" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC48" s="147"/>
+    </row>
+    <row r="49" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -25215,10 +25678,10 @@
       <c r="DK49" s="95">
         <v>200</v>
       </c>
-      <c r="DL49" s="129" t="s">
+      <c r="DL49" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM49" s="129" t="s">
+      <c r="DM49" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN49" s="95">
@@ -25227,34 +25690,46 @@
       <c r="DO49" s="95">
         <v>192</v>
       </c>
-      <c r="DP49" s="101">
+      <c r="DP49" s="154">
         <v>-0.72554799999999997</v>
       </c>
-      <c r="DQ49" s="129" t="s">
+      <c r="DQ49" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DR49" s="102">
+      <c r="DR49" s="154">
         <v>0.47</v>
       </c>
       <c r="DS49" s="90">
         <v>0.46899932799999999</v>
       </c>
-      <c r="DT49" s="103">
-        <v>0.89907330399999996</v>
+      <c r="DT49" s="90">
+        <v>0.46899932799999999</v>
       </c>
       <c r="DU49" s="90"/>
       <c r="DV49" s="90">
         <v>5.2290282E-2</v>
       </c>
-      <c r="DW49" s="156"/>
+      <c r="DW49" s="148"/>
       <c r="DX49" s="29" t="s">
         <v>1172</v>
       </c>
       <c r="DY49" s="29" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="50" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA49" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB49" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC49" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -25588,10 +26063,10 @@
       <c r="DK50" s="95">
         <v>88</v>
       </c>
-      <c r="DL50" s="129" t="s">
+      <c r="DL50" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM50" s="129" t="s">
+      <c r="DM50" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN50" s="95">
@@ -25603,7 +26078,7 @@
       <c r="DP50" s="95">
         <v>0.08</v>
       </c>
-      <c r="DQ50" s="129" t="s">
+      <c r="DQ50" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR50" s="95">
@@ -25616,18 +26091,31 @@
         <v>0.77797708200000004</v>
       </c>
       <c r="DU50" s="96"/>
-      <c r="DV50" s="96">
-        <v>3.0485538E-2</v>
-      </c>
-      <c r="DW50" s="158"/>
+      <c r="DV50" s="168">
+        <f>-0.030485538</f>
+        <v>-3.0485538E-2</v>
+      </c>
+      <c r="DW50" s="150"/>
       <c r="DX50" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY50" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="51" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA50" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB50" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC50" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -25764,7 +26252,7 @@
       <c r="AT51" s="15" t="s">
         <v>1201</v>
       </c>
-      <c r="AU51" s="104">
+      <c r="AU51" s="101">
         <v>41925</v>
       </c>
       <c r="AV51" s="28">
@@ -25957,10 +26445,10 @@
       <c r="DK51" s="95">
         <v>109</v>
       </c>
-      <c r="DL51" s="129" t="s">
+      <c r="DL51" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM51" s="129" t="s">
+      <c r="DM51" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN51" s="95">
@@ -25972,7 +26460,7 @@
       <c r="DP51" s="95">
         <v>2.601</v>
       </c>
-      <c r="DQ51" s="129" t="s">
+      <c r="DQ51" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR51" s="95">
@@ -25988,15 +26476,27 @@
       <c r="DV51" s="96">
         <v>0.155043132</v>
       </c>
-      <c r="DW51" s="158"/>
+      <c r="DW51" s="150"/>
       <c r="DX51" s="29" t="s">
         <v>1211</v>
       </c>
       <c r="DY51" s="29" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="52" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA51" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB51" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC51" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -26054,7 +26554,7 @@
       <c r="S52" s="21">
         <v>550</v>
       </c>
-      <c r="T52" s="105" t="s">
+      <c r="T52" s="102" t="s">
         <v>1220</v>
       </c>
       <c r="U52" s="20" t="s">
@@ -26063,7 +26563,7 @@
       <c r="V52" s="21">
         <v>550</v>
       </c>
-      <c r="W52" s="105" t="s">
+      <c r="W52" s="102" t="s">
         <v>1220</v>
       </c>
       <c r="X52" s="20">
@@ -26294,7 +26794,7 @@
         <v>512</v>
       </c>
       <c r="DK52" s="95"/>
-      <c r="DL52" s="129"/>
+      <c r="DL52" s="125"/>
       <c r="DM52" s="64"/>
       <c r="DN52" s="64"/>
       <c r="DO52" s="64"/>
@@ -26305,11 +26805,12 @@
       <c r="DT52" s="90"/>
       <c r="DU52" s="90"/>
       <c r="DV52" s="90"/>
-      <c r="DW52" s="156"/>
+      <c r="DW52" s="148"/>
       <c r="DX52" s="20"/>
       <c r="DY52" s="20"/>
-    </row>
-    <row r="53" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC52" s="147"/>
+    </row>
+    <row r="53" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -26355,7 +26856,7 @@
       <c r="O53" s="20" t="s">
         <v>1236</v>
       </c>
-      <c r="P53" s="106">
+      <c r="P53" s="103">
         <v>25989</v>
       </c>
       <c r="Q53" s="20" t="s">
@@ -26641,22 +27142,22 @@
       <c r="DK53" s="95">
         <v>113</v>
       </c>
-      <c r="DL53" s="129" t="s">
+      <c r="DL53" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM53" s="129" t="s">
+      <c r="DM53" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DN53" s="129">
-        <v>1</v>
-      </c>
-      <c r="DO53" s="129">
+      <c r="DN53" s="125">
+        <v>1</v>
+      </c>
+      <c r="DO53" s="125">
         <v>111</v>
       </c>
-      <c r="DP53" s="129">
+      <c r="DP53" s="125">
         <v>0.99</v>
       </c>
-      <c r="DQ53" s="129" t="s">
+      <c r="DQ53" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR53" s="95">
@@ -26672,15 +27173,27 @@
       <c r="DV53" s="90">
         <v>9.4021673E-2</v>
       </c>
-      <c r="DW53" s="156"/>
+      <c r="DW53" s="148"/>
       <c r="DX53" s="29" t="s">
         <v>1250</v>
       </c>
       <c r="DY53" s="29" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="54" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA53" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB53" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC53" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -27010,10 +27523,10 @@
       <c r="DK54" s="95">
         <v>75</v>
       </c>
-      <c r="DL54" s="129" t="s">
+      <c r="DL54" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM54" s="129" t="s">
+      <c r="DM54" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN54" s="95">
@@ -27025,7 +27538,7 @@
       <c r="DP54" s="95">
         <v>0.432</v>
       </c>
-      <c r="DQ54" s="129" t="s">
+      <c r="DQ54" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR54" s="95">
@@ -27041,15 +27554,27 @@
       <c r="DV54" s="90">
         <v>7.6700676999999995E-2</v>
       </c>
-      <c r="DW54" s="156"/>
+      <c r="DW54" s="148"/>
       <c r="DX54" s="29" t="s">
         <v>822</v>
       </c>
       <c r="DY54" s="29" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="55" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA54" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB54" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC54" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -27205,10 +27730,10 @@
       <c r="DF55" s="42">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="DG55" s="107">
+      <c r="DG55" s="104">
         <v>2.62E-5</v>
       </c>
-      <c r="DH55" s="107">
+      <c r="DH55" s="104">
         <v>2.62E-5</v>
       </c>
       <c r="DI55" s="44"/>
@@ -27216,7 +27741,7 @@
         <v>0.33046757740307298</v>
       </c>
       <c r="DK55" s="95"/>
-      <c r="DL55" s="129"/>
+      <c r="DL55" s="125"/>
       <c r="DM55" s="64"/>
       <c r="DN55" s="64"/>
       <c r="DO55" s="64"/>
@@ -27227,11 +27752,12 @@
       <c r="DT55" s="90"/>
       <c r="DU55" s="90"/>
       <c r="DV55" s="90"/>
-      <c r="DW55" s="156"/>
+      <c r="DW55" s="148"/>
       <c r="DX55" s="44"/>
       <c r="DY55" s="44"/>
-    </row>
-    <row r="56" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC55" s="147"/>
+    </row>
+    <row r="56" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -27563,10 +28089,10 @@
       <c r="DK56" s="95">
         <v>71</v>
       </c>
-      <c r="DL56" s="129" t="s">
+      <c r="DL56" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM56" s="129" t="s">
+      <c r="DM56" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN56" s="95">
@@ -27578,7 +28104,7 @@
       <c r="DP56" s="95">
         <v>0.3</v>
       </c>
-      <c r="DQ56" s="129" t="s">
+      <c r="DQ56" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR56" s="95">
@@ -27594,15 +28120,27 @@
       <c r="DV56" s="90">
         <v>6.6130007000000005E-2</v>
       </c>
-      <c r="DW56" s="156"/>
+      <c r="DW56" s="148"/>
       <c r="DX56" s="29" t="s">
         <v>1299</v>
       </c>
       <c r="DY56" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="57" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA56" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB56" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC56" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -27737,7 +28275,7 @@
       <c r="AT57" s="89" t="s">
         <v>1307</v>
       </c>
-      <c r="AU57" s="104">
+      <c r="AU57" s="101">
         <v>41925</v>
       </c>
       <c r="AV57" s="28">
@@ -27934,10 +28472,10 @@
       <c r="DK57" s="95">
         <v>83</v>
       </c>
-      <c r="DL57" s="129" t="s">
+      <c r="DL57" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM57" s="129" t="s">
+      <c r="DM57" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN57" s="95">
@@ -27949,7 +28487,7 @@
       <c r="DP57" s="95">
         <v>-0.26</v>
       </c>
-      <c r="DQ57" s="129" t="s">
+      <c r="DQ57" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR57" s="95">
@@ -27962,18 +28500,31 @@
         <v>0.79626739400000002</v>
       </c>
       <c r="DU57" s="90"/>
-      <c r="DV57" s="90">
-        <v>4.2140103999999998E-2</v>
-      </c>
-      <c r="DW57" s="156"/>
+      <c r="DV57" s="153">
+        <f>-0.042140104</f>
+        <v>-4.2140103999999998E-2</v>
+      </c>
+      <c r="DW57" s="148"/>
       <c r="DX57" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY57" s="29" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="58" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA57" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB57" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC57" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -28223,7 +28774,7 @@
         <v>0.28927342567101899</v>
       </c>
       <c r="DK58" s="95"/>
-      <c r="DL58" s="129"/>
+      <c r="DL58" s="125"/>
       <c r="DM58" s="64"/>
       <c r="DN58" s="64"/>
       <c r="DO58" s="64"/>
@@ -28234,11 +28785,12 @@
       <c r="DT58" s="90"/>
       <c r="DU58" s="90"/>
       <c r="DV58" s="90"/>
-      <c r="DW58" s="156"/>
+      <c r="DW58" s="148"/>
       <c r="DX58" s="20"/>
       <c r="DY58" s="20"/>
-    </row>
-    <row r="59" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC58" s="147"/>
+    </row>
+    <row r="59" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -28568,10 +29120,10 @@
       <c r="DK59" s="95">
         <v>280</v>
       </c>
-      <c r="DL59" s="129" t="s">
+      <c r="DL59" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM59" s="129" t="s">
+      <c r="DM59" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN59" s="95">
@@ -28583,7 +29135,7 @@
       <c r="DP59" s="95">
         <v>0.376</v>
       </c>
-      <c r="DQ59" s="129" t="s">
+      <c r="DQ59" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR59" s="95">
@@ -28599,15 +29151,27 @@
       <c r="DV59" s="90">
         <v>3.675175E-2</v>
       </c>
-      <c r="DW59" s="156"/>
+      <c r="DW59" s="148"/>
       <c r="DX59" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY59" s="29" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="60" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA59" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB59" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC59" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -28927,9 +29491,7 @@
       <c r="DG60" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="DH60" s="20" t="s">
-        <v>512</v>
-      </c>
+      <c r="DH60" s="160"/>
       <c r="DI60" s="20"/>
       <c r="DJ60" s="20" t="s">
         <v>512</v>
@@ -28937,36 +29499,47 @@
       <c r="DK60" s="95">
         <v>216</v>
       </c>
-      <c r="DL60" s="129" t="s">
+      <c r="DL60" s="125" t="s">
         <v>1362</v>
       </c>
-      <c r="DM60" s="129" t="s">
+      <c r="DM60" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DN60" s="129"/>
+      <c r="DN60" s="125"/>
       <c r="DO60" s="64"/>
       <c r="DP60" s="95">
         <v>0.72</v>
       </c>
-      <c r="DQ60" s="129" t="s">
+      <c r="DQ60" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR60" s="95">
         <v>1E-3</v>
       </c>
       <c r="DS60" s="90"/>
-      <c r="DT60" s="90"/>
+      <c r="DT60" s="160"/>
       <c r="DU60" s="90"/>
-      <c r="DV60" s="90"/>
-      <c r="DW60" s="156"/>
+      <c r="DV60" s="159"/>
+      <c r="DW60" s="148"/>
       <c r="DX60" s="29" t="s">
         <v>1354</v>
       </c>
       <c r="DY60" s="29" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="61" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA60" s="166">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EB60" s="166">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC60" s="172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -29127,7 +29700,7 @@
         <v>512</v>
       </c>
       <c r="DK61" s="95"/>
-      <c r="DL61" s="129"/>
+      <c r="DL61" s="125"/>
       <c r="DM61" s="64"/>
       <c r="DN61" s="64"/>
       <c r="DO61" s="64"/>
@@ -29138,11 +29711,12 @@
       <c r="DT61" s="90"/>
       <c r="DU61" s="90"/>
       <c r="DV61" s="90"/>
-      <c r="DW61" s="156"/>
+      <c r="DW61" s="148"/>
       <c r="DX61" s="44"/>
       <c r="DY61" s="44"/>
-    </row>
-    <row r="62" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC61" s="147"/>
+    </row>
+    <row r="62" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -29478,10 +30052,10 @@
       <c r="DK62" s="95">
         <v>222</v>
       </c>
-      <c r="DL62" s="129" t="s">
+      <c r="DL62" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM62" s="129" t="s">
+      <c r="DM62" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN62" s="95">
@@ -29493,7 +30067,7 @@
       <c r="DP62" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DQ62" s="129" t="s">
+      <c r="DQ62" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR62" s="95">
@@ -29506,18 +30080,31 @@
         <v>0.94425724600000005</v>
       </c>
       <c r="DU62" s="96"/>
-      <c r="DV62" s="96">
-        <v>4.7193460000000001E-3</v>
-      </c>
-      <c r="DW62" s="158"/>
+      <c r="DV62" s="168">
+        <f>-0.004719346</f>
+        <v>-4.7193460000000001E-3</v>
+      </c>
+      <c r="DW62" s="150"/>
       <c r="DX62" s="29" t="s">
         <v>1384</v>
       </c>
       <c r="DY62" s="29" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="63" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA62" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB62" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC62" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -29682,7 +30269,7 @@
         <v>0.23916356546381601</v>
       </c>
       <c r="DK63" s="95"/>
-      <c r="DL63" s="129"/>
+      <c r="DL63" s="125"/>
       <c r="DM63" s="64"/>
       <c r="DN63" s="64"/>
       <c r="DO63" s="64"/>
@@ -29693,11 +30280,12 @@
       <c r="DT63" s="90"/>
       <c r="DU63" s="90"/>
       <c r="DV63" s="90"/>
-      <c r="DW63" s="156"/>
+      <c r="DW63" s="148"/>
       <c r="DX63" s="44"/>
       <c r="DY63" s="44"/>
-    </row>
-    <row r="64" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC63" s="147"/>
+    </row>
+    <row r="64" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -30029,10 +30617,10 @@
       <c r="DK64" s="95">
         <v>148</v>
       </c>
-      <c r="DL64" s="129" t="s">
+      <c r="DL64" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM64" s="129" t="s">
+      <c r="DM64" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN64" s="95">
@@ -30044,7 +30632,7 @@
       <c r="DP64" s="95">
         <v>0.79400000000000004</v>
       </c>
-      <c r="DQ64" s="129" t="s">
+      <c r="DQ64" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR64" s="95">
@@ -30060,15 +30648,27 @@
       <c r="DV64" s="90">
         <v>7.3797292E-2</v>
       </c>
-      <c r="DW64" s="156"/>
+      <c r="DW64" s="148"/>
       <c r="DX64" s="29" t="s">
         <v>1411</v>
       </c>
       <c r="DY64" s="29" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="65" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA64" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB64" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC64" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -30387,10 +30987,10 @@
       <c r="DF65" s="42">
         <v>1E-4</v>
       </c>
-      <c r="DG65" s="108">
+      <c r="DG65" s="105">
         <v>3.8099999999999997E-8</v>
       </c>
-      <c r="DH65" s="108">
+      <c r="DH65" s="105">
         <v>3.8099999999999997E-8</v>
       </c>
       <c r="DI65" s="96"/>
@@ -30400,10 +31000,10 @@
       <c r="DK65" s="95">
         <v>71</v>
       </c>
-      <c r="DL65" s="129" t="s">
+      <c r="DL65" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM65" s="129" t="s">
+      <c r="DM65" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN65" s="95">
@@ -30415,7 +31015,7 @@
       <c r="DP65" s="95">
         <v>0.86499999999999999</v>
       </c>
-      <c r="DQ65" s="129" t="s">
+      <c r="DQ65" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR65" s="95">
@@ -30431,15 +31031,27 @@
       <c r="DV65" s="96">
         <v>0.11385379</v>
       </c>
-      <c r="DW65" s="158"/>
+      <c r="DW65" s="150"/>
       <c r="DX65" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY65" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="66" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA65" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB65" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC65" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -30573,7 +31185,7 @@
       <c r="AS66" s="20">
         <v>0</v>
       </c>
-      <c r="AT66" s="109" t="s">
+      <c r="AT66" s="106" t="s">
         <v>1447</v>
       </c>
       <c r="AU66" s="27">
@@ -30771,10 +31383,10 @@
       <c r="DK66" s="95">
         <v>135</v>
       </c>
-      <c r="DL66" s="129" t="s">
+      <c r="DL66" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM66" s="129" t="s">
+      <c r="DM66" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN66" s="95">
@@ -30786,7 +31398,7 @@
       <c r="DP66" s="95">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="DQ66" s="129" t="s">
+      <c r="DQ66" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR66" s="95">
@@ -30802,15 +31414,27 @@
       <c r="DV66" s="90">
         <v>1.1721165E-2</v>
       </c>
-      <c r="DW66" s="156"/>
+      <c r="DW66" s="148"/>
       <c r="DX66" s="29" t="s">
         <v>1457</v>
       </c>
       <c r="DY66" s="29" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="67" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA66" s="165">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="EB66" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC66" s="147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -30832,7 +31456,7 @@
       <c r="G67" s="43" t="s">
         <v>1439</v>
       </c>
-      <c r="H67" s="110" t="s">
+      <c r="H67" s="107" t="s">
         <v>1440</v>
       </c>
       <c r="I67" s="75" t="s">
@@ -30860,7 +31484,7 @@
       <c r="Q67" s="20" t="s">
         <v>1445</v>
       </c>
-      <c r="R67" s="111"/>
+      <c r="R67" s="108"/>
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
       <c r="U67" s="44"/>
@@ -30902,8 +31526,8 @@
       <c r="AS67" s="44">
         <v>1</v>
       </c>
-      <c r="AT67" s="112"/>
-      <c r="AU67" s="113"/>
+      <c r="AT67" s="109"/>
+      <c r="AU67" s="110"/>
       <c r="AY67" s="45"/>
       <c r="AZ67" s="45"/>
       <c r="BA67" s="45"/>
@@ -30955,7 +31579,7 @@
         <v>512</v>
       </c>
       <c r="DK67" s="95"/>
-      <c r="DL67" s="129"/>
+      <c r="DL67" s="125"/>
       <c r="DM67" s="64"/>
       <c r="DN67" s="64"/>
       <c r="DO67" s="64"/>
@@ -30966,11 +31590,12 @@
       <c r="DT67" s="90"/>
       <c r="DU67" s="90"/>
       <c r="DV67" s="90"/>
-      <c r="DW67" s="156"/>
+      <c r="DW67" s="148"/>
       <c r="DX67" s="44"/>
       <c r="DY67" s="44"/>
-    </row>
-    <row r="68" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC67" s="147"/>
+    </row>
+    <row r="68" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -31062,7 +31687,7 @@
       <c r="BA68" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BD68" s="114" t="s">
+      <c r="BD68" s="111" t="s">
         <v>1464</v>
       </c>
       <c r="BE68" s="7" t="s">
@@ -31133,7 +31758,7 @@
         <v>0.112203571397095</v>
       </c>
       <c r="DK68" s="95"/>
-      <c r="DL68" s="129"/>
+      <c r="DL68" s="125"/>
       <c r="DM68" s="64"/>
       <c r="DN68" s="64"/>
       <c r="DO68" s="64"/>
@@ -31144,11 +31769,12 @@
       <c r="DT68" s="90"/>
       <c r="DU68" s="90"/>
       <c r="DV68" s="90"/>
-      <c r="DW68" s="156"/>
+      <c r="DW68" s="148"/>
       <c r="DX68" s="44"/>
       <c r="DY68" s="44"/>
-    </row>
-    <row r="69" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC68" s="147"/>
+    </row>
+    <row r="69" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -31478,10 +32104,10 @@
       <c r="DK69" s="95">
         <v>226</v>
       </c>
-      <c r="DL69" s="129" t="s">
+      <c r="DL69" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM69" s="129" t="s">
+      <c r="DM69" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN69" s="95">
@@ -31493,7 +32119,7 @@
       <c r="DP69" s="95">
         <v>2E-3</v>
       </c>
-      <c r="DQ69" s="129" t="s">
+      <c r="DQ69" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR69" s="95">
@@ -31509,15 +32135,27 @@
       <c r="DV69" s="90">
         <v>3.0014880000000001E-3</v>
       </c>
-      <c r="DW69" s="156"/>
+      <c r="DW69" s="148"/>
       <c r="DX69" s="29" t="s">
         <v>1457</v>
       </c>
       <c r="DY69" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="70" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA69" s="165">
+        <f t="shared" ref="EA67:EA130" si="3">IF(DH69 &lt; 0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="EB69" s="165">
+        <f t="shared" ref="EB67:EB130" si="4">IF(DT69 &lt; 0.05,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EC69" s="147">
+        <f t="shared" ref="EC67:EC130" si="5">IF(DJ69&gt;DV69,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -31688,8 +32326,8 @@
       <c r="BF70" s="29" t="s">
         <v>1497</v>
       </c>
-      <c r="BG70" s="30" t="s">
-        <v>281</v>
+      <c r="BG70" s="171">
+        <v>0.78</v>
       </c>
       <c r="BH70" s="33"/>
       <c r="BI70" s="30">
@@ -31743,8 +32381,8 @@
       <c r="BY70" s="30">
         <v>0.99</v>
       </c>
-      <c r="BZ70" s="30" t="s">
-        <v>281</v>
+      <c r="BZ70" s="171">
+        <v>0.77</v>
       </c>
       <c r="CA70" s="29" t="s">
         <v>1498</v>
@@ -31832,10 +32470,10 @@
       <c r="DF70" s="42">
         <v>0.05</v>
       </c>
-      <c r="DG70" s="115">
+      <c r="DG70" s="112">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="DH70" s="115">
+      <c r="DH70" s="112">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="DI70" s="20"/>
@@ -31845,7 +32483,7 @@
       <c r="DK70" s="95">
         <v>333</v>
       </c>
-      <c r="DL70" s="129" t="s">
+      <c r="DL70" s="125" t="s">
         <v>1501</v>
       </c>
       <c r="DM70" s="64"/>
@@ -31854,27 +32492,41 @@
       </c>
       <c r="DO70" s="64"/>
       <c r="DP70" s="64"/>
-      <c r="DQ70" s="129" t="s">
+      <c r="DQ70" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR70" s="95">
         <v>0.05</v>
       </c>
-      <c r="DS70" s="122"/>
-      <c r="DT70" s="122">
+      <c r="DS70" s="119">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="DT70" s="119">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="DU70" s="90"/>
-      <c r="DV70" s="90"/>
-      <c r="DW70" s="156"/>
+      <c r="DV70" s="159"/>
+      <c r="DW70" s="148"/>
       <c r="DX70" s="29" t="s">
         <v>1496</v>
       </c>
       <c r="DY70" s="29" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="71" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA70" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB70" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC70" s="172">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -32041,7 +32693,7 @@
         <v>0.28165755894792799</v>
       </c>
       <c r="DK71" s="95"/>
-      <c r="DL71" s="129"/>
+      <c r="DL71" s="125"/>
       <c r="DM71" s="64"/>
       <c r="DN71" s="64"/>
       <c r="DO71" s="64"/>
@@ -32052,11 +32704,12 @@
       <c r="DT71" s="90"/>
       <c r="DU71" s="90"/>
       <c r="DV71" s="90"/>
-      <c r="DW71" s="156"/>
+      <c r="DW71" s="148"/>
       <c r="DX71" s="44"/>
       <c r="DY71" s="44"/>
-    </row>
-    <row r="72" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC71" s="147"/>
+    </row>
+    <row r="72" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -32390,10 +33043,10 @@
       <c r="DK72" s="95">
         <v>177</v>
       </c>
-      <c r="DL72" s="129" t="s">
+      <c r="DL72" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM72" s="129" t="s">
+      <c r="DM72" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN72" s="95">
@@ -32405,7 +33058,7 @@
       <c r="DP72" s="95">
         <v>0.97299999999999998</v>
       </c>
-      <c r="DQ72" s="129" t="s">
+      <c r="DQ72" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR72" s="95">
@@ -32421,15 +33074,27 @@
       <c r="DV72" s="90">
         <v>7.3353737000000002E-2</v>
       </c>
-      <c r="DW72" s="156"/>
+      <c r="DW72" s="148"/>
       <c r="DX72" s="29" t="s">
         <v>1172</v>
       </c>
       <c r="DY72" s="29" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="73" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA72" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB72" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC72" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -32763,10 +33428,10 @@
       <c r="DK73" s="95">
         <v>251</v>
       </c>
-      <c r="DL73" s="129" t="s">
+      <c r="DL73" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM73" s="129" t="s">
+      <c r="DM73" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN73" s="95">
@@ -32778,7 +33443,7 @@
       <c r="DP73" s="95">
         <v>0.49</v>
       </c>
-      <c r="DQ73" s="129" t="s">
+      <c r="DQ73" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR73" s="95">
@@ -32794,15 +33459,27 @@
       <c r="DV73" s="90">
         <v>4.4495819999999998E-2</v>
       </c>
-      <c r="DW73" s="156"/>
+      <c r="DW73" s="148"/>
       <c r="DX73" s="29" t="s">
         <v>1457</v>
       </c>
       <c r="DY73" s="29" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="74" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA73" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB73" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC73" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -32962,7 +33639,7 @@
       </c>
       <c r="BB74" s="33"/>
       <c r="BC74" s="33"/>
-      <c r="BD74" s="116" t="s">
+      <c r="BD74" s="113" t="s">
         <v>1464</v>
       </c>
       <c r="BE74" s="32" t="s">
@@ -33014,7 +33691,7 @@
         <v>244</v>
       </c>
       <c r="BU74" s="33"/>
-      <c r="BV74" s="116" t="s">
+      <c r="BV74" s="113" t="s">
         <v>1464</v>
       </c>
       <c r="BW74" s="32" t="s">
@@ -33134,10 +33811,10 @@
       <c r="DK74" s="95">
         <v>120</v>
       </c>
-      <c r="DL74" s="129" t="s">
+      <c r="DL74" s="125" t="s">
         <v>1466</v>
       </c>
-      <c r="DM74" s="129" t="s">
+      <c r="DM74" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN74" s="95">
@@ -33147,7 +33824,7 @@
       <c r="DP74" s="95">
         <v>4.8</v>
       </c>
-      <c r="DQ74" s="129" t="s">
+      <c r="DQ74" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR74" s="95">
@@ -33163,15 +33840,27 @@
       <c r="DV74" s="90">
         <v>0.2</v>
       </c>
-      <c r="DW74" s="156"/>
-      <c r="DX74" s="114" t="s">
+      <c r="DW74" s="148"/>
+      <c r="DX74" s="111" t="s">
         <v>1464</v>
       </c>
       <c r="DY74" s="29" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="75" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA74" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB74" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC74" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -33324,7 +34013,7 @@
         <v>512</v>
       </c>
       <c r="DK75" s="95"/>
-      <c r="DL75" s="129"/>
+      <c r="DL75" s="125"/>
       <c r="DM75" s="64"/>
       <c r="DN75" s="64"/>
       <c r="DO75" s="64"/>
@@ -33335,11 +34024,12 @@
       <c r="DT75" s="90"/>
       <c r="DU75" s="90"/>
       <c r="DV75" s="90"/>
-      <c r="DW75" s="156"/>
+      <c r="DW75" s="148"/>
       <c r="DX75" s="44"/>
       <c r="DY75" s="44"/>
-    </row>
-    <row r="76" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC75" s="147"/>
+    </row>
+    <row r="76" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -33431,7 +34121,7 @@
       <c r="BA76" s="44" t="s">
         <v>587</v>
       </c>
-      <c r="BD76" s="114" t="s">
+      <c r="BD76" s="111" t="s">
         <v>1577</v>
       </c>
       <c r="BE76" s="7" t="s">
@@ -33502,7 +34192,7 @@
         <v>512</v>
       </c>
       <c r="DK76" s="95"/>
-      <c r="DL76" s="129"/>
+      <c r="DL76" s="125"/>
       <c r="DM76" s="64"/>
       <c r="DN76" s="64"/>
       <c r="DO76" s="64"/>
@@ -33513,11 +34203,12 @@
       <c r="DT76" s="90"/>
       <c r="DU76" s="90"/>
       <c r="DV76" s="90"/>
-      <c r="DW76" s="156"/>
+      <c r="DW76" s="148"/>
       <c r="DX76" s="44"/>
       <c r="DY76" s="44"/>
-    </row>
-    <row r="77" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC76" s="147"/>
+    </row>
+    <row r="77" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -33670,10 +34361,10 @@
       <c r="DF77" s="42">
         <v>0.01</v>
       </c>
-      <c r="DG77" s="107">
+      <c r="DG77" s="104">
         <v>6.3799999999999999E-6</v>
       </c>
-      <c r="DH77" s="107">
+      <c r="DH77" s="104">
         <v>6.3799999999999999E-6</v>
       </c>
       <c r="DI77" s="44"/>
@@ -33681,7 +34372,7 @@
         <v>0.31532568202390798</v>
       </c>
       <c r="DK77" s="95"/>
-      <c r="DL77" s="129"/>
+      <c r="DL77" s="125"/>
       <c r="DM77" s="64"/>
       <c r="DN77" s="64"/>
       <c r="DO77" s="64"/>
@@ -33692,11 +34383,12 @@
       <c r="DT77" s="90"/>
       <c r="DU77" s="90"/>
       <c r="DV77" s="90"/>
-      <c r="DW77" s="156"/>
+      <c r="DW77" s="148"/>
       <c r="DX77" s="44"/>
       <c r="DY77" s="44"/>
-    </row>
-    <row r="78" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC77" s="147"/>
+    </row>
+    <row r="78" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -33899,14 +34591,14 @@
       <c r="BR78" s="16">
         <v>768703</v>
       </c>
-      <c r="BS78" s="111">
+      <c r="BS78" s="108">
         <v>0.75800000000000001</v>
       </c>
       <c r="BT78" s="16" t="s">
         <v>375</v>
       </c>
       <c r="BU78" s="35"/>
-      <c r="BV78" s="117" t="s">
+      <c r="BV78" s="114" t="s">
         <v>1602</v>
       </c>
       <c r="BW78" s="49" t="s">
@@ -33918,7 +34610,7 @@
       <c r="BY78" s="16">
         <v>0.99</v>
       </c>
-      <c r="BZ78" s="118" t="s">
+      <c r="BZ78" s="115" t="s">
         <v>1603</v>
       </c>
       <c r="CA78" s="35"/>
@@ -33929,16 +34621,16 @@
         <v>1</v>
       </c>
       <c r="CD78" s="35"/>
-      <c r="CE78" s="119" t="s">
+      <c r="CE78" s="116" t="s">
         <v>262</v>
       </c>
       <c r="CF78" s="38">
         <v>2002</v>
       </c>
-      <c r="CG78" s="119" t="s">
+      <c r="CG78" s="116" t="s">
         <v>1605</v>
       </c>
-      <c r="CH78" s="119" t="s">
+      <c r="CH78" s="116" t="s">
         <v>326</v>
       </c>
       <c r="CI78" s="69"/>
@@ -33953,22 +34645,22 @@
       <c r="CN78" s="37" t="s">
         <v>1606</v>
       </c>
-      <c r="CO78" s="119" t="s">
+      <c r="CO78" s="116" t="s">
         <v>274</v>
       </c>
-      <c r="CP78" s="119" t="s">
+      <c r="CP78" s="116" t="s">
         <v>1607</v>
       </c>
-      <c r="CQ78" s="119" t="s">
+      <c r="CQ78" s="116" t="s">
         <v>382</v>
       </c>
-      <c r="CR78" s="119" t="s">
+      <c r="CR78" s="116" t="s">
         <v>382</v>
       </c>
-      <c r="CS78" s="119" t="s">
+      <c r="CS78" s="116" t="s">
         <v>572</v>
       </c>
-      <c r="CT78" s="119" t="s">
+      <c r="CT78" s="116" t="s">
         <v>334</v>
       </c>
       <c r="CU78" s="37" t="s">
@@ -33977,10 +34669,10 @@
       <c r="CV78" s="39">
         <v>1</v>
       </c>
-      <c r="CW78" s="119" t="s">
+      <c r="CW78" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="CX78" s="119" t="s">
+      <c r="CX78" s="116" t="s">
         <v>198</v>
       </c>
       <c r="CY78" s="14">
@@ -34020,7 +34712,7 @@
       <c r="DK78" s="95">
         <v>768703</v>
       </c>
-      <c r="DL78" s="129" t="s">
+      <c r="DL78" s="125" t="s">
         <v>1123</v>
       </c>
       <c r="DM78" s="64" t="s">
@@ -34037,18 +34729,29 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="DS78" s="90"/>
-      <c r="DT78" s="90"/>
+      <c r="DT78" s="64">
+        <v>0.75800000000000001</v>
+      </c>
       <c r="DU78" s="90"/>
-      <c r="DV78" s="90"/>
-      <c r="DW78" s="156"/>
+      <c r="DV78" s="159"/>
+      <c r="DW78" s="148"/>
       <c r="DX78" s="15" t="s">
         <v>291</v>
       </c>
       <c r="DY78" s="15" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="79" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA78" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB78" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC78" s="173"/>
+    </row>
+    <row r="79" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -34126,7 +34829,7 @@
       </c>
       <c r="AT79" s="29"/>
       <c r="AU79" s="76"/>
-      <c r="AV79" s="120"/>
+      <c r="AV79" s="117"/>
       <c r="AW79" s="29" t="s">
         <v>311</v>
       </c>
@@ -34170,41 +34873,41 @@
       <c r="BM79" s="30"/>
       <c r="BN79" s="30"/>
       <c r="BO79" s="33"/>
-      <c r="BP79" s="120"/>
-      <c r="BQ79" s="120"/>
-      <c r="BR79" s="120"/>
-      <c r="BS79" s="120"/>
-      <c r="BT79" s="120"/>
-      <c r="BU79" s="120"/>
-      <c r="BV79" s="120"/>
-      <c r="BW79" s="120"/>
-      <c r="BX79" s="120"/>
-      <c r="BY79" s="120"/>
-      <c r="BZ79" s="120"/>
-      <c r="CA79" s="120"/>
+      <c r="BP79" s="117"/>
+      <c r="BQ79" s="117"/>
+      <c r="BR79" s="117"/>
+      <c r="BS79" s="117"/>
+      <c r="BT79" s="117"/>
+      <c r="BU79" s="117"/>
+      <c r="BV79" s="117"/>
+      <c r="BW79" s="117"/>
+      <c r="BX79" s="117"/>
+      <c r="BY79" s="117"/>
+      <c r="BZ79" s="117"/>
+      <c r="CA79" s="117"/>
       <c r="CB79" s="29"/>
       <c r="CC79" s="30"/>
       <c r="CD79" s="29"/>
-      <c r="CE79" s="121"/>
-      <c r="CF79" s="121"/>
-      <c r="CG79" s="121"/>
-      <c r="CH79" s="121"/>
-      <c r="CI79" s="121"/>
+      <c r="CE79" s="118"/>
+      <c r="CF79" s="118"/>
+      <c r="CG79" s="118"/>
+      <c r="CH79" s="118"/>
+      <c r="CI79" s="118"/>
       <c r="CJ79" s="40"/>
       <c r="CK79" s="40"/>
       <c r="CL79" s="40"/>
-      <c r="CM79" s="121"/>
-      <c r="CN79" s="121"/>
-      <c r="CO79" s="121"/>
-      <c r="CP79" s="121"/>
-      <c r="CQ79" s="121"/>
-      <c r="CR79" s="121"/>
-      <c r="CS79" s="121"/>
-      <c r="CT79" s="121"/>
-      <c r="CU79" s="121"/>
+      <c r="CM79" s="118"/>
+      <c r="CN79" s="118"/>
+      <c r="CO79" s="118"/>
+      <c r="CP79" s="118"/>
+      <c r="CQ79" s="118"/>
+      <c r="CR79" s="118"/>
+      <c r="CS79" s="118"/>
+      <c r="CT79" s="118"/>
+      <c r="CU79" s="118"/>
       <c r="CV79" s="40"/>
-      <c r="CW79" s="121"/>
-      <c r="CX79" s="121"/>
+      <c r="CW79" s="118"/>
+      <c r="CX79" s="118"/>
       <c r="CY79" s="40">
         <v>50</v>
       </c>
@@ -34234,7 +34937,7 @@
         <v>512</v>
       </c>
       <c r="DK79" s="95"/>
-      <c r="DL79" s="129"/>
+      <c r="DL79" s="125"/>
       <c r="DM79" s="64"/>
       <c r="DN79" s="64"/>
       <c r="DO79" s="64"/>
@@ -34245,11 +34948,12 @@
       <c r="DT79" s="90"/>
       <c r="DU79" s="90"/>
       <c r="DV79" s="90"/>
-      <c r="DW79" s="156"/>
+      <c r="DW79" s="148"/>
       <c r="DX79" s="44"/>
       <c r="DY79" s="44"/>
-    </row>
-    <row r="80" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC79" s="147"/>
+    </row>
+    <row r="80" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>79</v>
       </c>
@@ -34507,7 +35211,7 @@
         <v>0.25772425903379897</v>
       </c>
       <c r="DK80" s="95"/>
-      <c r="DL80" s="129"/>
+      <c r="DL80" s="125"/>
       <c r="DM80" s="64"/>
       <c r="DN80" s="64"/>
       <c r="DO80" s="64"/>
@@ -34518,11 +35222,12 @@
       <c r="DT80" s="96"/>
       <c r="DU80" s="96"/>
       <c r="DV80" s="96"/>
-      <c r="DW80" s="158"/>
+      <c r="DW80" s="150"/>
       <c r="DX80" s="96"/>
       <c r="DY80" s="96"/>
-    </row>
-    <row r="81" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC80" s="147"/>
+    </row>
+    <row r="81" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -34856,10 +35561,10 @@
       <c r="DK81" s="95">
         <v>70</v>
       </c>
-      <c r="DL81" s="129" t="s">
+      <c r="DL81" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM81" s="129" t="s">
+      <c r="DM81" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN81" s="95">
@@ -34871,7 +35576,7 @@
       <c r="DP81" s="95">
         <v>1.7</v>
       </c>
-      <c r="DQ81" s="129" t="s">
+      <c r="DQ81" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR81" s="95">
@@ -34887,15 +35592,27 @@
       <c r="DV81" s="90">
         <v>0.15539538999999999</v>
       </c>
-      <c r="DW81" s="156"/>
+      <c r="DW81" s="148"/>
       <c r="DX81" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY81" s="29" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="82" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA81" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB81" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC81" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -35227,10 +35944,10 @@
       <c r="DK82" s="95">
         <v>141</v>
       </c>
-      <c r="DL82" s="129" t="s">
+      <c r="DL82" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM82" s="129" t="s">
+      <c r="DM82" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN82" s="95">
@@ -35242,7 +35959,7 @@
       <c r="DP82" s="95">
         <v>1.43</v>
       </c>
-      <c r="DQ82" s="129" t="s">
+      <c r="DQ82" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR82" s="95">
@@ -35255,18 +35972,31 @@
         <v>0.23383009900000001</v>
       </c>
       <c r="DU82" s="90"/>
-      <c r="DV82" s="90">
-        <v>0.101637251</v>
-      </c>
-      <c r="DW82" s="156"/>
+      <c r="DV82" s="153">
+        <f>-0.101637251</f>
+        <v>-0.101637251</v>
+      </c>
+      <c r="DW82" s="148"/>
       <c r="DX82" s="29" t="s">
         <v>1669</v>
       </c>
       <c r="DY82" s="29" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="83" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA82" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB82" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC82" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -35600,10 +36330,10 @@
       <c r="DK83" s="95">
         <v>50</v>
       </c>
-      <c r="DL83" s="129" t="s">
+      <c r="DL83" s="125" t="s">
         <v>1015</v>
       </c>
-      <c r="DM83" s="129" t="s">
+      <c r="DM83" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN83" s="95">
@@ -35613,7 +36343,7 @@
       <c r="DP83" s="95">
         <v>0.27</v>
       </c>
-      <c r="DQ83" s="129" t="s">
+      <c r="DQ83" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR83" s="95">
@@ -35622,29 +36352,41 @@
       <c r="DS83" s="90">
         <v>5.7685184E-2</v>
       </c>
-      <c r="DT83" s="122">
+      <c r="DT83" s="119">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="DU83" s="90"/>
       <c r="DV83" s="90">
         <v>0.27</v>
       </c>
-      <c r="DW83" s="156"/>
+      <c r="DW83" s="148"/>
       <c r="DX83" s="29" t="s">
         <v>1681</v>
       </c>
       <c r="DY83" s="29" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="84" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA83" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB83" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC83" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>83</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>1671</v>
       </c>
-      <c r="C84" s="123" t="s">
+      <c r="C84" s="120" t="s">
         <v>1672</v>
       </c>
       <c r="D84" s="43" t="s">
@@ -35768,7 +36510,7 @@
         <v>512</v>
       </c>
       <c r="DK84" s="95"/>
-      <c r="DL84" s="129"/>
+      <c r="DL84" s="125"/>
       <c r="DM84" s="64"/>
       <c r="DN84" s="64"/>
       <c r="DO84" s="64"/>
@@ -35779,11 +36521,12 @@
       <c r="DT84" s="90"/>
       <c r="DU84" s="90"/>
       <c r="DV84" s="90"/>
-      <c r="DW84" s="156"/>
+      <c r="DW84" s="148"/>
       <c r="DX84" s="44"/>
       <c r="DY84" s="44"/>
-    </row>
-    <row r="85" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC84" s="147"/>
+    </row>
+    <row r="85" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -35943,7 +36686,7 @@
       </c>
       <c r="BB85" s="33"/>
       <c r="BC85" s="33"/>
-      <c r="BD85" s="114" t="s">
+      <c r="BD85" s="111" t="s">
         <v>1464</v>
       </c>
       <c r="BE85" s="32" t="s">
@@ -35993,7 +36736,7 @@
         <v>244</v>
       </c>
       <c r="BU85" s="33"/>
-      <c r="BV85" s="116" t="s">
+      <c r="BV85" s="113" t="s">
         <v>1464</v>
       </c>
       <c r="BW85" s="32" t="s">
@@ -36115,10 +36858,10 @@
       <c r="DK85" s="95">
         <v>150</v>
       </c>
-      <c r="DL85" s="129" t="s">
+      <c r="DL85" s="125" t="s">
         <v>1466</v>
       </c>
-      <c r="DM85" s="129" t="s">
+      <c r="DM85" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN85" s="95">
@@ -36128,7 +36871,7 @@
       <c r="DP85" s="95">
         <v>7.1</v>
       </c>
-      <c r="DQ85" s="129" t="s">
+      <c r="DQ85" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR85" s="95">
@@ -36144,15 +36887,27 @@
       <c r="DV85" s="90">
         <v>0.21756225200000001</v>
       </c>
-      <c r="DW85" s="156"/>
-      <c r="DX85" s="114" t="s">
+      <c r="DW85" s="148"/>
+      <c r="DX85" s="111" t="s">
         <v>1464</v>
       </c>
       <c r="DY85" s="29" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="86" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA85" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB85" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC85" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -36244,19 +36999,19 @@
       </c>
       <c r="AT86" s="29"/>
       <c r="AU86" s="76"/>
-      <c r="AV86" s="120"/>
+      <c r="AV86" s="117"/>
       <c r="AW86" s="29"/>
-      <c r="AX86" s="120"/>
+      <c r="AX86" s="117"/>
       <c r="AY86" s="33"/>
       <c r="AZ86" s="33"/>
       <c r="BA86" s="33"/>
-      <c r="BB86" s="120"/>
-      <c r="BC86" s="120"/>
-      <c r="BD86" s="120"/>
-      <c r="BE86" s="120"/>
-      <c r="BF86" s="124"/>
+      <c r="BB86" s="117"/>
+      <c r="BC86" s="117"/>
+      <c r="BD86" s="117"/>
+      <c r="BE86" s="117"/>
+      <c r="BF86" s="121"/>
       <c r="BG86" s="30"/>
-      <c r="BH86" s="120"/>
+      <c r="BH86" s="117"/>
       <c r="BI86" s="30"/>
       <c r="BJ86" s="30"/>
       <c r="BK86" s="30"/>
@@ -36264,21 +37019,21 @@
       <c r="BM86" s="33"/>
       <c r="BN86" s="33"/>
       <c r="BO86" s="33"/>
-      <c r="BP86" s="120"/>
-      <c r="BQ86" s="120"/>
-      <c r="BR86" s="120"/>
-      <c r="BS86" s="120"/>
-      <c r="BT86" s="120"/>
-      <c r="BU86" s="120"/>
-      <c r="BV86" s="120"/>
-      <c r="BW86" s="120"/>
-      <c r="BX86" s="120"/>
-      <c r="BY86" s="120"/>
-      <c r="BZ86" s="120"/>
-      <c r="CA86" s="120"/>
-      <c r="CB86" s="120"/>
+      <c r="BP86" s="117"/>
+      <c r="BQ86" s="117"/>
+      <c r="BR86" s="117"/>
+      <c r="BS86" s="117"/>
+      <c r="BT86" s="117"/>
+      <c r="BU86" s="117"/>
+      <c r="BV86" s="117"/>
+      <c r="BW86" s="117"/>
+      <c r="BX86" s="117"/>
+      <c r="BY86" s="117"/>
+      <c r="BZ86" s="117"/>
+      <c r="CA86" s="117"/>
+      <c r="CB86" s="117"/>
       <c r="CC86" s="33"/>
-      <c r="CD86" s="120"/>
+      <c r="CD86" s="117"/>
       <c r="CE86" s="69"/>
       <c r="CF86" s="69"/>
       <c r="CG86" s="69"/>
@@ -36318,7 +37073,7 @@
         <v>512</v>
       </c>
       <c r="DK86" s="95"/>
-      <c r="DL86" s="129"/>
+      <c r="DL86" s="125"/>
       <c r="DM86" s="64"/>
       <c r="DN86" s="64"/>
       <c r="DO86" s="64"/>
@@ -36329,11 +37084,12 @@
       <c r="DT86" s="90"/>
       <c r="DU86" s="90"/>
       <c r="DV86" s="90"/>
-      <c r="DW86" s="156"/>
+      <c r="DW86" s="148"/>
       <c r="DX86" s="44"/>
       <c r="DY86" s="44"/>
-    </row>
-    <row r="87" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC86" s="147"/>
+    </row>
+    <row r="87" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -36665,10 +37421,10 @@
       <c r="DK87" s="95">
         <v>140</v>
       </c>
-      <c r="DL87" s="129" t="s">
+      <c r="DL87" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM87" s="129" t="s">
+      <c r="DM87" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN87" s="95">
@@ -36680,7 +37436,7 @@
       <c r="DP87" s="95">
         <v>1.99</v>
       </c>
-      <c r="DQ87" s="129" t="s">
+      <c r="DQ87" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR87" s="95">
@@ -36696,15 +37452,27 @@
       <c r="DV87" s="90">
         <v>0.118808574</v>
       </c>
-      <c r="DW87" s="156"/>
+      <c r="DW87" s="148"/>
       <c r="DX87" s="29" t="s">
         <v>1727</v>
       </c>
       <c r="DY87" s="29" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="88" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA87" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB87" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC87" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -37034,10 +37802,10 @@
       <c r="DK88" s="95">
         <v>51</v>
       </c>
-      <c r="DL88" s="129" t="s">
+      <c r="DL88" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM88" s="129" t="s">
+      <c r="DM88" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN88" s="95">
@@ -37049,7 +37817,7 @@
       <c r="DP88" s="95">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="DQ88" s="129" t="s">
+      <c r="DQ88" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR88" s="95">
@@ -37065,15 +37833,27 @@
       <c r="DV88" s="90">
         <v>1.3045451E-2</v>
       </c>
-      <c r="DW88" s="156"/>
+      <c r="DW88" s="148"/>
       <c r="DX88" s="29" t="s">
         <v>1669</v>
       </c>
       <c r="DY88" s="29" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="89" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA88" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB88" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC88" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -37151,7 +37931,7 @@
       </c>
       <c r="AT89" s="29"/>
       <c r="AU89" s="76"/>
-      <c r="AV89" s="125"/>
+      <c r="AV89" s="122"/>
       <c r="AW89" s="29" t="s">
         <v>311</v>
       </c>
@@ -37200,10 +37980,10 @@
       <c r="BX89" s="30"/>
       <c r="BY89" s="30"/>
       <c r="BZ89" s="30"/>
-      <c r="CA89" s="120"/>
-      <c r="CB89" s="120"/>
+      <c r="CA89" s="117"/>
+      <c r="CB89" s="117"/>
       <c r="CC89" s="33"/>
-      <c r="CD89" s="120"/>
+      <c r="CD89" s="117"/>
       <c r="CE89" s="69"/>
       <c r="CF89" s="69"/>
       <c r="CG89" s="69"/>
@@ -37259,7 +38039,7 @@
         <v>0.172120148195437</v>
       </c>
       <c r="DK89" s="95"/>
-      <c r="DL89" s="129"/>
+      <c r="DL89" s="125"/>
       <c r="DM89" s="64"/>
       <c r="DN89" s="64"/>
       <c r="DO89" s="64"/>
@@ -37270,11 +38050,12 @@
       <c r="DT89" s="90"/>
       <c r="DU89" s="90"/>
       <c r="DV89" s="90"/>
-      <c r="DW89" s="156"/>
+      <c r="DW89" s="148"/>
       <c r="DX89" s="44"/>
       <c r="DY89" s="44"/>
-    </row>
-    <row r="90" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC89" s="147"/>
+    </row>
+    <row r="90" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -37604,10 +38385,10 @@
       <c r="DK90" s="95">
         <v>304</v>
       </c>
-      <c r="DL90" s="129" t="s">
+      <c r="DL90" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM90" s="129" t="s">
+      <c r="DM90" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN90" s="95">
@@ -37619,7 +38400,7 @@
       <c r="DP90" s="95">
         <v>0.15</v>
       </c>
-      <c r="DQ90" s="129" t="s">
+      <c r="DQ90" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR90" s="95">
@@ -37635,15 +38416,27 @@
       <c r="DV90" s="90">
         <v>2.9404699999999999E-2</v>
       </c>
-      <c r="DW90" s="156"/>
+      <c r="DW90" s="148"/>
       <c r="DX90" s="29" t="s">
         <v>1764</v>
       </c>
       <c r="DY90" s="29" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="91" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA90" s="165">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EB90" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC90" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -37721,7 +38514,7 @@
       </c>
       <c r="AT91" s="29"/>
       <c r="AU91" s="76"/>
-      <c r="AV91" s="126"/>
+      <c r="AV91" s="123"/>
       <c r="AW91" s="29" t="s">
         <v>311</v>
       </c>
@@ -37773,7 +38566,7 @@
       <c r="CA91" s="29"/>
       <c r="CB91" s="29"/>
       <c r="CC91" s="33"/>
-      <c r="CD91" s="120"/>
+      <c r="CD91" s="117"/>
       <c r="CE91" s="69"/>
       <c r="CF91" s="69"/>
       <c r="CG91" s="69"/>
@@ -37825,7 +38618,7 @@
         <v>512</v>
       </c>
       <c r="DK91" s="95"/>
-      <c r="DL91" s="129"/>
+      <c r="DL91" s="125"/>
       <c r="DM91" s="64"/>
       <c r="DN91" s="64"/>
       <c r="DO91" s="64"/>
@@ -37836,11 +38629,12 @@
       <c r="DT91" s="90"/>
       <c r="DU91" s="90"/>
       <c r="DV91" s="90"/>
-      <c r="DW91" s="156"/>
+      <c r="DW91" s="148"/>
       <c r="DX91" s="44"/>
       <c r="DY91" s="44"/>
-    </row>
-    <row r="92" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC91" s="147"/>
+    </row>
+    <row r="92" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -38010,7 +38804,7 @@
         <v>0.32651351889720098</v>
       </c>
       <c r="DK92" s="95"/>
-      <c r="DL92" s="129"/>
+      <c r="DL92" s="125"/>
       <c r="DM92" s="64"/>
       <c r="DN92" s="64"/>
       <c r="DO92" s="64"/>
@@ -38021,11 +38815,12 @@
       <c r="DT92" s="90"/>
       <c r="DU92" s="90"/>
       <c r="DV92" s="90"/>
-      <c r="DW92" s="156"/>
+      <c r="DW92" s="148"/>
       <c r="DX92" s="44"/>
       <c r="DY92" s="44"/>
-    </row>
-    <row r="93" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC92" s="147"/>
+    </row>
+    <row r="93" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -38193,7 +38988,7 @@
         <v>0.29829583778337698</v>
       </c>
       <c r="DK93" s="95"/>
-      <c r="DL93" s="129"/>
+      <c r="DL93" s="125"/>
       <c r="DM93" s="64"/>
       <c r="DN93" s="64"/>
       <c r="DO93" s="64"/>
@@ -38204,11 +38999,12 @@
       <c r="DT93" s="90"/>
       <c r="DU93" s="90"/>
       <c r="DV93" s="90"/>
-      <c r="DW93" s="156"/>
+      <c r="DW93" s="148"/>
       <c r="DX93" s="44"/>
       <c r="DY93" s="44"/>
-    </row>
-    <row r="94" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC93" s="147"/>
+    </row>
+    <row r="94" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -38346,7 +39142,7 @@
       <c r="AU94" s="27">
         <v>41863</v>
       </c>
-      <c r="AV94" s="127">
+      <c r="AV94" s="124">
         <v>42080</v>
       </c>
       <c r="AW94" s="15" t="s">
@@ -38536,46 +39332,58 @@
       <c r="DK94" s="95">
         <v>76</v>
       </c>
-      <c r="DL94" s="129" t="s">
+      <c r="DL94" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM94" s="129" t="s">
+      <c r="DM94" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DN94" s="129">
-        <v>1</v>
-      </c>
-      <c r="DO94" s="129">
-        <v>75</v>
-      </c>
-      <c r="DP94" s="129">
-        <v>-1.77</v>
-      </c>
-      <c r="DQ94" s="129" t="s">
+      <c r="DN94" s="125">
+        <v>1</v>
+      </c>
+      <c r="DO94" s="125">
+        <v>68</v>
+      </c>
+      <c r="DP94" s="125">
+        <v>-1.1240000000000001</v>
+      </c>
+      <c r="DQ94" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DR94" s="128">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="DS94" s="90">
-        <v>8.0791345000000001E-2</v>
-      </c>
-      <c r="DT94" s="103">
-        <v>8.0791345000000001E-2</v>
+      <c r="DR94" s="161">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="DS94" s="162">
+        <v>0.26496530000000001</v>
+      </c>
+      <c r="DT94" s="162">
+        <v>0.26496530000000001</v>
       </c>
       <c r="DU94" s="90"/>
-      <c r="DV94" s="90">
-        <v>0.20024251600000001</v>
-      </c>
-      <c r="DW94" s="156"/>
+      <c r="DV94" s="163">
+        <v>-0.1351</v>
+      </c>
+      <c r="DW94" s="148"/>
       <c r="DX94" s="15" t="s">
         <v>1811</v>
       </c>
       <c r="DY94" s="29" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="95" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA94" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB94" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC94" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -38735,7 +39543,7 @@
       <c r="BC95" s="30">
         <v>1</v>
       </c>
-      <c r="BD95" s="116" t="s">
+      <c r="BD95" s="113" t="s">
         <v>1172</v>
       </c>
       <c r="BE95" s="32" t="s">
@@ -38787,7 +39595,7 @@
       <c r="BU95" s="30">
         <v>1</v>
       </c>
-      <c r="BV95" s="116" t="s">
+      <c r="BV95" s="113" t="s">
         <v>1172</v>
       </c>
       <c r="BW95" s="32" t="s">
@@ -38909,10 +39717,10 @@
       <c r="DK95" s="95">
         <v>61</v>
       </c>
-      <c r="DL95" s="129" t="s">
+      <c r="DL95" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM95" s="129" t="s">
+      <c r="DM95" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN95" s="95">
@@ -38924,7 +39732,7 @@
       <c r="DP95" s="95">
         <v>2.3250000000000002</v>
       </c>
-      <c r="DQ95" s="129" t="s">
+      <c r="DQ95" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR95" s="59">
@@ -38940,15 +39748,27 @@
       <c r="DV95" s="90">
         <v>0.28970837999999999</v>
       </c>
-      <c r="DW95" s="156"/>
-      <c r="DX95" s="114" t="s">
+      <c r="DW95" s="148"/>
+      <c r="DX95" s="111" t="s">
         <v>1172</v>
       </c>
       <c r="DY95" s="29" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="96" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA95" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB95" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC95" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -39185,21 +40005,21 @@
       <c r="CL96" s="39">
         <v>10</v>
       </c>
-      <c r="CM96" s="129"/>
-      <c r="CN96" s="129"/>
-      <c r="CO96" s="129"/>
-      <c r="CP96" s="129"/>
-      <c r="CQ96" s="129"/>
-      <c r="CR96" s="129"/>
-      <c r="CS96" s="129"/>
-      <c r="CT96" s="129"/>
+      <c r="CM96" s="125"/>
+      <c r="CN96" s="125"/>
+      <c r="CO96" s="125"/>
+      <c r="CP96" s="125"/>
+      <c r="CQ96" s="125"/>
+      <c r="CR96" s="125"/>
+      <c r="CS96" s="125"/>
+      <c r="CT96" s="125"/>
       <c r="CU96" s="37" t="s">
         <v>1848</v>
       </c>
       <c r="CV96" s="39">
         <v>1</v>
       </c>
-      <c r="CW96" s="129"/>
+      <c r="CW96" s="125"/>
       <c r="CX96" s="37" t="s">
         <v>411</v>
       </c>
@@ -39238,7 +40058,7 @@
         <v>0.39552713913385401</v>
       </c>
       <c r="DK96" s="95"/>
-      <c r="DL96" s="129"/>
+      <c r="DL96" s="125"/>
       <c r="DM96" s="64"/>
       <c r="DN96" s="64"/>
       <c r="DO96" s="64"/>
@@ -39249,11 +40069,12 @@
       <c r="DT96" s="90"/>
       <c r="DU96" s="90"/>
       <c r="DV96" s="90"/>
-      <c r="DW96" s="156"/>
+      <c r="DW96" s="148"/>
       <c r="DX96" s="20"/>
       <c r="DY96" s="20"/>
-    </row>
-    <row r="97" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC96" s="147"/>
+    </row>
+    <row r="97" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -39421,7 +40242,7 @@
         <v>0.413966332107427</v>
       </c>
       <c r="DK97" s="95"/>
-      <c r="DL97" s="129"/>
+      <c r="DL97" s="125"/>
       <c r="DM97" s="64"/>
       <c r="DN97" s="64"/>
       <c r="DO97" s="64"/>
@@ -39432,11 +40253,12 @@
       <c r="DT97" s="90"/>
       <c r="DU97" s="90"/>
       <c r="DV97" s="90"/>
-      <c r="DW97" s="156"/>
+      <c r="DW97" s="148"/>
       <c r="DX97" s="44"/>
       <c r="DY97" s="44"/>
-    </row>
-    <row r="98" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC97" s="147"/>
+    </row>
+    <row r="98" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>97</v>
       </c>
@@ -39770,10 +40592,10 @@
       <c r="DK98" s="95">
         <v>1490</v>
       </c>
-      <c r="DL98" s="129" t="s">
+      <c r="DL98" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM98" s="129" t="s">
+      <c r="DM98" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN98" s="95">
@@ -39785,7 +40607,7 @@
       <c r="DP98" s="95">
         <v>2.0299999999999998</v>
       </c>
-      <c r="DQ98" s="129" t="s">
+      <c r="DQ98" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR98" s="95">
@@ -39798,18 +40620,31 @@
         <v>0.15443058600000001</v>
       </c>
       <c r="DU98" s="90"/>
-      <c r="DV98" s="90">
-        <v>3.6935346000000001E-2</v>
-      </c>
-      <c r="DW98" s="156"/>
+      <c r="DV98" s="153">
+        <f>-0.036935346</f>
+        <v>-3.6935346000000001E-2</v>
+      </c>
+      <c r="DW98" s="148"/>
       <c r="DX98" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY98" s="29" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="99" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA98" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB98" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC98" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14">
         <v>98</v>
       </c>
@@ -39964,10 +40799,10 @@
       <c r="DF99" s="42">
         <v>0.01</v>
       </c>
-      <c r="DG99" s="107">
+      <c r="DG99" s="104">
         <v>3.6099999999999996E-52</v>
       </c>
-      <c r="DH99" s="107">
+      <c r="DH99" s="104">
         <v>3.6099999999999996E-52</v>
       </c>
       <c r="DI99" s="44"/>
@@ -39975,7 +40810,7 @@
         <v>0.91</v>
       </c>
       <c r="DK99" s="95"/>
-      <c r="DL99" s="129"/>
+      <c r="DL99" s="125"/>
       <c r="DM99" s="64"/>
       <c r="DN99" s="64"/>
       <c r="DO99" s="64"/>
@@ -39986,11 +40821,12 @@
       <c r="DT99" s="90"/>
       <c r="DU99" s="90"/>
       <c r="DV99" s="90"/>
-      <c r="DW99" s="156"/>
+      <c r="DW99" s="148"/>
       <c r="DX99" s="44"/>
       <c r="DY99" s="44"/>
-    </row>
-    <row r="100" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC99" s="147"/>
+    </row>
+    <row r="100" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>99</v>
       </c>
@@ -40157,7 +40993,7 @@
         <v>0.243517825788029</v>
       </c>
       <c r="DK100" s="95"/>
-      <c r="DL100" s="129"/>
+      <c r="DL100" s="125"/>
       <c r="DM100" s="64"/>
       <c r="DN100" s="64"/>
       <c r="DO100" s="64"/>
@@ -40168,11 +41004,12 @@
       <c r="DT100" s="90"/>
       <c r="DU100" s="90"/>
       <c r="DV100" s="90"/>
-      <c r="DW100" s="156"/>
+      <c r="DW100" s="148"/>
       <c r="DX100" s="44"/>
       <c r="DY100" s="44"/>
-    </row>
-    <row r="101" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC100" s="147"/>
+    </row>
+    <row r="101" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <v>100</v>
       </c>
@@ -40340,7 +41177,7 @@
         <v>0.46933240297621798</v>
       </c>
       <c r="DK101" s="95"/>
-      <c r="DL101" s="129"/>
+      <c r="DL101" s="125"/>
       <c r="DM101" s="64"/>
       <c r="DN101" s="64"/>
       <c r="DO101" s="64"/>
@@ -40351,11 +41188,12 @@
       <c r="DT101" s="90"/>
       <c r="DU101" s="90"/>
       <c r="DV101" s="90"/>
-      <c r="DW101" s="156"/>
+      <c r="DW101" s="148"/>
       <c r="DX101" s="44"/>
       <c r="DY101" s="44"/>
-    </row>
-    <row r="102" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC101" s="147"/>
+    </row>
+    <row r="102" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>101</v>
       </c>
@@ -40524,7 +41362,7 @@
         <v>512</v>
       </c>
       <c r="DK102" s="95"/>
-      <c r="DL102" s="129"/>
+      <c r="DL102" s="125"/>
       <c r="DM102" s="64"/>
       <c r="DN102" s="64"/>
       <c r="DO102" s="64"/>
@@ -40535,11 +41373,12 @@
       <c r="DT102" s="90"/>
       <c r="DU102" s="90"/>
       <c r="DV102" s="90"/>
-      <c r="DW102" s="156"/>
+      <c r="DW102" s="148"/>
       <c r="DX102" s="44"/>
       <c r="DY102" s="44"/>
-    </row>
-    <row r="103" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC102" s="147"/>
+    </row>
+    <row r="103" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
         <v>102</v>
       </c>
@@ -40696,10 +41535,10 @@
       <c r="DF103" s="42">
         <v>1E-3</v>
       </c>
-      <c r="DG103" s="107">
+      <c r="DG103" s="104">
         <v>8.0599999999999994E-5</v>
       </c>
-      <c r="DH103" s="107">
+      <c r="DH103" s="104">
         <v>8.0599999999999994E-5</v>
       </c>
       <c r="DI103" s="44"/>
@@ -40707,7 +41546,7 @@
         <v>0.842545901641095</v>
       </c>
       <c r="DK103" s="95"/>
-      <c r="DL103" s="129"/>
+      <c r="DL103" s="125"/>
       <c r="DM103" s="64"/>
       <c r="DN103" s="64"/>
       <c r="DO103" s="64"/>
@@ -40718,11 +41557,12 @@
       <c r="DT103" s="90"/>
       <c r="DU103" s="90"/>
       <c r="DV103" s="90"/>
-      <c r="DW103" s="156"/>
+      <c r="DW103" s="148"/>
       <c r="DX103" s="44"/>
       <c r="DY103" s="44"/>
-    </row>
-    <row r="104" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC103" s="147"/>
+    </row>
+    <row r="104" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>103</v>
       </c>
@@ -40890,7 +41730,7 @@
         <v>0.23593488049693401</v>
       </c>
       <c r="DK104" s="95"/>
-      <c r="DL104" s="129"/>
+      <c r="DL104" s="125"/>
       <c r="DM104" s="64"/>
       <c r="DN104" s="64"/>
       <c r="DO104" s="64"/>
@@ -40901,11 +41741,12 @@
       <c r="DT104" s="90"/>
       <c r="DU104" s="90"/>
       <c r="DV104" s="90"/>
-      <c r="DW104" s="156"/>
+      <c r="DW104" s="148"/>
       <c r="DX104" s="44"/>
       <c r="DY104" s="44"/>
-    </row>
-    <row r="105" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC104" s="147"/>
+    </row>
+    <row r="105" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14">
         <v>104</v>
       </c>
@@ -40963,7 +41804,7 @@
       <c r="S105" s="21">
         <v>2249</v>
       </c>
-      <c r="T105" s="130" t="s">
+      <c r="T105" s="126" t="s">
         <v>1929</v>
       </c>
       <c r="U105" s="20" t="s">
@@ -40972,7 +41813,7 @@
       <c r="V105" s="21">
         <v>2249</v>
       </c>
-      <c r="W105" s="130" t="s">
+      <c r="W105" s="126" t="s">
         <v>1929</v>
       </c>
       <c r="X105" s="20">
@@ -41065,7 +41906,7 @@
       </c>
       <c r="BB105" s="33"/>
       <c r="BC105" s="33"/>
-      <c r="BD105" s="116" t="s">
+      <c r="BD105" s="113" t="s">
         <v>1464</v>
       </c>
       <c r="BE105" s="32" t="s">
@@ -41115,7 +41956,7 @@
         <v>244</v>
       </c>
       <c r="BU105" s="33"/>
-      <c r="BV105" s="116" t="s">
+      <c r="BV105" s="113" t="s">
         <v>1464</v>
       </c>
       <c r="BW105" s="32" t="s">
@@ -41225,8 +42066,8 @@
       <c r="DG105" s="20">
         <v>5.0342932999999999E-2</v>
       </c>
-      <c r="DH105" s="131">
-        <v>0.05</v>
+      <c r="DH105" s="90">
+        <v>5.0342932999999999E-2</v>
       </c>
       <c r="DI105" s="20"/>
       <c r="DJ105" s="20">
@@ -41235,10 +42076,10 @@
       <c r="DK105" s="95">
         <v>1146</v>
       </c>
-      <c r="DL105" s="129" t="s">
+      <c r="DL105" s="125" t="s">
         <v>1466</v>
       </c>
-      <c r="DM105" s="129" t="s">
+      <c r="DM105" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN105" s="95">
@@ -41248,7 +42089,7 @@
       <c r="DP105" s="95">
         <v>0.38700000000000001</v>
       </c>
-      <c r="DQ105" s="129" t="s">
+      <c r="DQ105" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR105" s="95">
@@ -41264,15 +42105,26 @@
       <c r="DV105" s="90">
         <v>1.8376515999999999E-2</v>
       </c>
-      <c r="DW105" s="156"/>
+      <c r="DW105" s="148"/>
       <c r="DX105" s="29" t="s">
         <v>1711</v>
       </c>
       <c r="DY105" s="29" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="106" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA105" s="167">
+        <v>1</v>
+      </c>
+      <c r="EB105" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC105" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
         <v>105</v>
       </c>
@@ -41536,7 +42388,7 @@
         <v>0.446647979427713</v>
       </c>
       <c r="DK106" s="95"/>
-      <c r="DL106" s="129"/>
+      <c r="DL106" s="125"/>
       <c r="DM106" s="64"/>
       <c r="DN106" s="64"/>
       <c r="DO106" s="64"/>
@@ -41547,11 +42399,12 @@
       <c r="DT106" s="90"/>
       <c r="DU106" s="90"/>
       <c r="DV106" s="90"/>
-      <c r="DW106" s="156"/>
+      <c r="DW106" s="148"/>
       <c r="DX106" s="20"/>
       <c r="DY106" s="20"/>
-    </row>
-    <row r="107" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC106" s="147"/>
+    </row>
+    <row r="107" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14">
         <v>106</v>
       </c>
@@ -41887,10 +42740,10 @@
       <c r="DK107" s="95">
         <v>47</v>
       </c>
-      <c r="DL107" s="129" t="s">
+      <c r="DL107" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM107" s="129" t="s">
+      <c r="DM107" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN107" s="95">
@@ -41902,7 +42755,7 @@
       <c r="DP107" s="95">
         <v>1.534</v>
       </c>
-      <c r="DQ107" s="129" t="s">
+      <c r="DQ107" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR107" s="95">
@@ -41915,18 +42768,31 @@
         <v>0.13203104399999999</v>
       </c>
       <c r="DU107" s="90"/>
-      <c r="DV107" s="90">
-        <v>0.222920955</v>
-      </c>
-      <c r="DW107" s="156"/>
+      <c r="DV107" s="153">
+        <f>-0.222920955</f>
+        <v>-0.222920955</v>
+      </c>
+      <c r="DW107" s="148"/>
       <c r="DX107" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY107" s="29" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="108" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA107" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB107" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC107" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14">
         <v>107</v>
       </c>
@@ -41984,7 +42850,7 @@
       <c r="S108" s="21">
         <v>297</v>
       </c>
-      <c r="T108" s="132" t="s">
+      <c r="T108" s="127" t="s">
         <v>1980</v>
       </c>
       <c r="U108" s="21" t="s">
@@ -41993,7 +42859,7 @@
       <c r="V108" s="21">
         <v>108</v>
       </c>
-      <c r="W108" s="132" t="s">
+      <c r="W108" s="127" t="s">
         <v>1980</v>
       </c>
       <c r="X108" s="20">
@@ -42088,7 +42954,7 @@
       <c r="BC108" s="30">
         <v>2</v>
       </c>
-      <c r="BD108" s="116" t="s">
+      <c r="BD108" s="113" t="s">
         <v>1172</v>
       </c>
       <c r="BE108" s="32" t="s">
@@ -42140,7 +43006,7 @@
       <c r="BU108" s="30">
         <v>2</v>
       </c>
-      <c r="BV108" s="116" t="s">
+      <c r="BV108" s="113" t="s">
         <v>1172</v>
       </c>
       <c r="BW108" s="32" t="s">
@@ -42262,22 +43128,22 @@
       <c r="DK108" s="95">
         <v>158</v>
       </c>
-      <c r="DL108" s="129" t="s">
+      <c r="DL108" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM108" s="129" t="s">
+      <c r="DM108" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DN108" s="129">
-        <v>1</v>
-      </c>
-      <c r="DO108" s="129">
+      <c r="DN108" s="125">
+        <v>1</v>
+      </c>
+      <c r="DO108" s="125">
         <v>156</v>
       </c>
-      <c r="DP108" s="129">
+      <c r="DP108" s="125">
         <v>1.3180000000000001</v>
       </c>
-      <c r="DQ108" s="129" t="s">
+      <c r="DQ108" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR108" s="95">
@@ -42293,15 +43159,27 @@
       <c r="DV108" s="90">
         <v>0.104941786</v>
       </c>
-      <c r="DW108" s="156"/>
-      <c r="DX108" s="114" t="s">
+      <c r="DW108" s="148"/>
+      <c r="DX108" s="111" t="s">
         <v>1172</v>
       </c>
       <c r="DY108" s="29" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="109" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA108" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB108" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC108" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>108</v>
       </c>
@@ -42341,10 +43219,10 @@
       <c r="Q109" s="44"/>
       <c r="R109" s="44"/>
       <c r="S109" s="44"/>
-      <c r="T109" s="133"/>
+      <c r="T109" s="128"/>
       <c r="U109" s="44"/>
       <c r="V109" s="44"/>
-      <c r="W109" s="133"/>
+      <c r="W109" s="128"/>
       <c r="X109" s="44">
         <v>53</v>
       </c>
@@ -42379,7 +43257,7 @@
       </c>
       <c r="AT109" s="29"/>
       <c r="AU109" s="76"/>
-      <c r="AV109" s="125"/>
+      <c r="AV109" s="122"/>
       <c r="AW109" s="29" t="s">
         <v>311</v>
       </c>
@@ -42429,9 +43307,9 @@
       <c r="BY109" s="30"/>
       <c r="BZ109" s="30"/>
       <c r="CA109" s="29"/>
-      <c r="CB109" s="120"/>
+      <c r="CB109" s="117"/>
       <c r="CC109" s="33"/>
-      <c r="CD109" s="120"/>
+      <c r="CD109" s="117"/>
       <c r="CE109" s="69"/>
       <c r="CF109" s="69"/>
       <c r="CG109" s="69"/>
@@ -42468,10 +43346,10 @@
       </c>
       <c r="DE109" s="64"/>
       <c r="DF109" s="64"/>
-      <c r="DG109" s="107">
+      <c r="DG109" s="104">
         <v>4.4900000000000002E-136</v>
       </c>
-      <c r="DH109" s="107">
+      <c r="DH109" s="104">
         <v>4.4900000000000002E-136</v>
       </c>
       <c r="DI109" s="44"/>
@@ -42479,7 +43357,7 @@
         <v>0.99</v>
       </c>
       <c r="DK109" s="95"/>
-      <c r="DL109" s="129"/>
+      <c r="DL109" s="125"/>
       <c r="DM109" s="64"/>
       <c r="DN109" s="64"/>
       <c r="DO109" s="64"/>
@@ -42490,11 +43368,12 @@
       <c r="DT109" s="90"/>
       <c r="DU109" s="90"/>
       <c r="DV109" s="90"/>
-      <c r="DW109" s="156"/>
+      <c r="DW109" s="148"/>
       <c r="DX109" s="44"/>
       <c r="DY109" s="44"/>
-    </row>
-    <row r="110" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC109" s="147"/>
+    </row>
+    <row r="110" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14">
         <v>109</v>
       </c>
@@ -42671,15 +43550,16 @@
       <c r="DG110" s="44">
         <v>6.9598814999999994E-2</v>
       </c>
-      <c r="DH110" s="44">
-        <v>3.4799406999999997E-2</v>
+      <c r="DH110" s="148">
+        <f>0.069598815/2</f>
+        <v>3.4799407499999997E-2</v>
       </c>
       <c r="DI110" s="44"/>
       <c r="DJ110" s="44">
         <v>0.40363253699541801</v>
       </c>
       <c r="DK110" s="95"/>
-      <c r="DL110" s="129"/>
+      <c r="DL110" s="125"/>
       <c r="DM110" s="64"/>
       <c r="DN110" s="64"/>
       <c r="DO110" s="64"/>
@@ -42690,11 +43570,12 @@
       <c r="DT110" s="90"/>
       <c r="DU110" s="90"/>
       <c r="DV110" s="90"/>
-      <c r="DW110" s="156"/>
+      <c r="DW110" s="148"/>
       <c r="DX110" s="44"/>
       <c r="DY110" s="44"/>
-    </row>
-    <row r="111" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC110" s="147"/>
+    </row>
+    <row r="111" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
         <v>110</v>
       </c>
@@ -43026,10 +43907,10 @@
       <c r="DK111" s="95">
         <v>144</v>
       </c>
-      <c r="DL111" s="129" t="s">
+      <c r="DL111" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM111" s="129" t="s">
+      <c r="DM111" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN111" s="95">
@@ -43041,7 +43922,7 @@
       <c r="DP111" s="95">
         <v>1.19</v>
       </c>
-      <c r="DQ111" s="129" t="s">
+      <c r="DQ111" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR111" s="95">
@@ -43057,15 +43938,27 @@
       <c r="DV111" s="90">
         <v>9.1162691000000004E-2</v>
       </c>
-      <c r="DW111" s="156"/>
+      <c r="DW111" s="148"/>
       <c r="DX111" s="29" t="s">
         <v>2028</v>
       </c>
       <c r="DY111" s="29" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="112" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA111" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB111" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC111" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
         <v>111</v>
       </c>
@@ -43123,7 +44016,7 @@
       <c r="S112" s="21">
         <v>1532</v>
       </c>
-      <c r="T112" s="130" t="s">
+      <c r="T112" s="126" t="s">
         <v>2044</v>
       </c>
       <c r="U112" s="20" t="s">
@@ -43132,7 +44025,7 @@
       <c r="V112" s="21">
         <v>1532</v>
       </c>
-      <c r="W112" s="130" t="s">
+      <c r="W112" s="126" t="s">
         <v>2044</v>
       </c>
       <c r="X112" s="20">
@@ -43397,10 +44290,10 @@
       <c r="DK112" s="95">
         <v>120</v>
       </c>
-      <c r="DL112" s="129" t="s">
+      <c r="DL112" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM112" s="129" t="s">
+      <c r="DM112" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN112" s="95">
@@ -43412,7 +44305,7 @@
       <c r="DP112" s="95">
         <v>6.23</v>
       </c>
-      <c r="DQ112" s="129" t="s">
+      <c r="DQ112" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR112" s="95">
@@ -43428,15 +44321,27 @@
       <c r="DV112" s="90">
         <v>0.22576422199999999</v>
       </c>
-      <c r="DW112" s="156"/>
+      <c r="DW112" s="148"/>
       <c r="DX112" s="29" t="s">
         <v>1457</v>
       </c>
       <c r="DY112" s="29" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="113" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA112" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB112" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC112" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -43766,10 +44671,10 @@
       <c r="DK113" s="95">
         <v>51</v>
       </c>
-      <c r="DL113" s="129" t="s">
+      <c r="DL113" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM113" s="129" t="s">
+      <c r="DM113" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN113" s="95">
@@ -43781,7 +44686,7 @@
       <c r="DP113" s="95">
         <v>11.6</v>
       </c>
-      <c r="DQ113" s="129" t="s">
+      <c r="DQ113" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR113" s="95">
@@ -43797,15 +44702,27 @@
       <c r="DV113" s="90">
         <v>0.75040442200000002</v>
       </c>
-      <c r="DW113" s="156"/>
+      <c r="DW113" s="148"/>
       <c r="DX113" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY113" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="114" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA113" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB113" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC113" s="147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <v>113</v>
       </c>
@@ -43863,7 +44780,7 @@
       <c r="S114" s="21">
         <v>77</v>
       </c>
-      <c r="T114" s="130" t="s">
+      <c r="T114" s="126" t="s">
         <v>1167</v>
       </c>
       <c r="U114" s="20" t="s">
@@ -43872,7 +44789,7 @@
       <c r="V114" s="21">
         <v>77</v>
       </c>
-      <c r="W114" s="130" t="s">
+      <c r="W114" s="126" t="s">
         <v>1167</v>
       </c>
       <c r="X114" s="20">
@@ -44137,10 +45054,10 @@
       <c r="DK114" s="95">
         <v>177</v>
       </c>
-      <c r="DL114" s="129" t="s">
+      <c r="DL114" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM114" s="129" t="s">
+      <c r="DM114" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN114" s="95">
@@ -44152,31 +45069,43 @@
       <c r="DP114" s="95">
         <v>15.64</v>
       </c>
-      <c r="DQ114" s="129" t="s">
+      <c r="DQ114" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR114" s="70">
         <v>0</v>
       </c>
-      <c r="DS114" s="107">
+      <c r="DS114" s="104">
         <v>4.5900000000000001E-35</v>
       </c>
-      <c r="DT114" s="107">
+      <c r="DT114" s="104">
         <v>4.5900000000000001E-35</v>
       </c>
       <c r="DU114" s="90"/>
       <c r="DV114" s="90">
         <v>0.76350878899999997</v>
       </c>
-      <c r="DW114" s="156"/>
-      <c r="DX114" s="114" t="s">
+      <c r="DW114" s="148"/>
+      <c r="DX114" s="111" t="s">
         <v>2089</v>
       </c>
       <c r="DY114" s="29" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="115" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA114" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB114" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC114" s="147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -44508,10 +45437,10 @@
       <c r="DK115" s="95">
         <v>32</v>
       </c>
-      <c r="DL115" s="129" t="s">
+      <c r="DL115" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM115" s="129" t="s">
+      <c r="DM115" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN115" s="95">
@@ -44523,31 +45452,43 @@
       <c r="DP115" s="95">
         <v>22.27</v>
       </c>
-      <c r="DQ115" s="129" t="s">
+      <c r="DQ115" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR115" s="95">
         <v>1E-4</v>
       </c>
-      <c r="DS115" s="107">
+      <c r="DS115" s="104">
         <v>5.1400000000000003E-5</v>
       </c>
-      <c r="DT115" s="107">
+      <c r="DT115" s="104">
         <v>5.1400000000000003E-5</v>
       </c>
       <c r="DU115" s="90"/>
       <c r="DV115" s="90">
         <v>0.65273042800000003</v>
       </c>
-      <c r="DW115" s="156"/>
+      <c r="DW115" s="148"/>
       <c r="DX115" s="29" t="s">
         <v>710</v>
       </c>
       <c r="DY115" s="29" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="116" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA115" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB115" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC115" s="147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14">
         <v>115</v>
       </c>
@@ -44705,7 +45646,7 @@
       </c>
       <c r="BB116" s="33"/>
       <c r="BC116" s="33"/>
-      <c r="BD116" s="116" t="s">
+      <c r="BD116" s="113" t="s">
         <v>452</v>
       </c>
       <c r="BE116" s="32" t="s">
@@ -44757,7 +45698,7 @@
       <c r="BU116" s="30">
         <v>2</v>
       </c>
-      <c r="BV116" s="116" t="s">
+      <c r="BV116" s="113" t="s">
         <v>452</v>
       </c>
       <c r="BW116" s="32" t="s">
@@ -44824,7 +45765,7 @@
       <c r="CR116" s="91" t="s">
         <v>618</v>
       </c>
-      <c r="CS116" s="134" t="s">
+      <c r="CS116" s="129" t="s">
         <v>278</v>
       </c>
       <c r="CT116" s="91" t="s">
@@ -44879,10 +45820,10 @@
       <c r="DK116" s="95">
         <v>8</v>
       </c>
-      <c r="DL116" s="129" t="s">
+      <c r="DL116" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM116" s="129" t="s">
+      <c r="DM116" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN116" s="95">
@@ -44894,7 +45835,7 @@
       <c r="DP116" s="95">
         <v>-1.4259999999999999</v>
       </c>
-      <c r="DQ116" s="129" t="s">
+      <c r="DQ116" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR116" s="95">
@@ -44907,18 +45848,31 @@
         <v>0.19170092399999999</v>
       </c>
       <c r="DU116" s="90"/>
-      <c r="DV116" s="90">
-        <v>0.450187899</v>
-      </c>
-      <c r="DW116" s="156"/>
-      <c r="DX116" s="114" t="s">
+      <c r="DV116" s="153">
+        <f>-0.450187899</f>
+        <v>-0.450187899</v>
+      </c>
+      <c r="DW116" s="148"/>
+      <c r="DX116" s="111" t="s">
         <v>452</v>
       </c>
       <c r="DY116" s="29" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="117" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA116" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB116" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC116" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -44976,7 +45930,7 @@
       <c r="S117" s="21">
         <v>5</v>
       </c>
-      <c r="T117" s="130" t="s">
+      <c r="T117" s="126" t="s">
         <v>2142</v>
       </c>
       <c r="U117" s="30" t="s">
@@ -44985,7 +45939,7 @@
       <c r="V117" s="21">
         <v>461</v>
       </c>
-      <c r="W117" s="130" t="s">
+      <c r="W117" s="126" t="s">
         <v>2142</v>
       </c>
       <c r="X117" s="20">
@@ -45053,7 +46007,7 @@
       <c r="AT117" s="15" t="s">
         <v>2144</v>
       </c>
-      <c r="AU117" s="104">
+      <c r="AU117" s="101">
         <v>41435</v>
       </c>
       <c r="AV117" s="28">
@@ -45078,7 +46032,7 @@
       <c r="BC117" s="30">
         <v>2</v>
       </c>
-      <c r="BD117" s="116" t="s">
+      <c r="BD117" s="113" t="s">
         <v>452</v>
       </c>
       <c r="BE117" s="32" t="s">
@@ -45130,7 +46084,7 @@
       <c r="BU117" s="30">
         <v>2</v>
       </c>
-      <c r="BV117" s="116" t="s">
+      <c r="BV117" s="113" t="s">
         <v>452</v>
       </c>
       <c r="BW117" s="32" t="s">
@@ -45252,10 +46206,10 @@
       <c r="DK117" s="95">
         <v>140</v>
       </c>
-      <c r="DL117" s="129" t="s">
+      <c r="DL117" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM117" s="129" t="s">
+      <c r="DM117" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN117" s="95">
@@ -45267,31 +46221,43 @@
       <c r="DP117" s="95">
         <v>4.0199999999999996</v>
       </c>
-      <c r="DQ117" s="129" t="s">
+      <c r="DQ117" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR117" s="95">
         <v>1E-3</v>
       </c>
-      <c r="DS117" s="107">
+      <c r="DS117" s="104">
         <v>9.5000000000000005E-5</v>
       </c>
-      <c r="DT117" s="107">
+      <c r="DT117" s="104">
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="DU117" s="90"/>
       <c r="DV117" s="90">
         <v>0.32272722799999998</v>
       </c>
-      <c r="DW117" s="156"/>
-      <c r="DX117" s="114" t="s">
+      <c r="DW117" s="148"/>
+      <c r="DX117" s="111" t="s">
         <v>452</v>
       </c>
       <c r="DY117" s="29" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="118" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA117" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB117" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC117" s="147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14">
         <v>117</v>
       </c>
@@ -45349,7 +46315,7 @@
       <c r="S118" s="21">
         <v>395</v>
       </c>
-      <c r="T118" s="130" t="s">
+      <c r="T118" s="126" t="s">
         <v>641</v>
       </c>
       <c r="U118" s="20" t="s">
@@ -45358,7 +46324,7 @@
       <c r="V118" s="21">
         <v>395</v>
       </c>
-      <c r="W118" s="130" t="s">
+      <c r="W118" s="126" t="s">
         <v>641</v>
       </c>
       <c r="X118" s="20">
@@ -45623,10 +46589,10 @@
       <c r="DK118" s="95">
         <v>12</v>
       </c>
-      <c r="DL118" s="129" t="s">
+      <c r="DL118" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM118" s="129" t="s">
+      <c r="DM118" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN118" s="95">
@@ -45638,31 +46604,43 @@
       <c r="DP118" s="95">
         <v>12.98</v>
       </c>
-      <c r="DQ118" s="129" t="s">
+      <c r="DQ118" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR118" s="70">
         <v>0</v>
       </c>
-      <c r="DS118" s="107">
+      <c r="DS118" s="104">
         <v>3.3500000000000002E-33</v>
       </c>
-      <c r="DT118" s="107">
+      <c r="DT118" s="104">
         <v>3.3500000000000002E-33</v>
       </c>
       <c r="DU118" s="90"/>
       <c r="DV118" s="90">
         <v>0.12051914599999999</v>
       </c>
-      <c r="DW118" s="156"/>
+      <c r="DW118" s="148"/>
       <c r="DX118" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY118" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="119" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA118" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB118" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC118" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -45990,25 +46968,25 @@
       <c r="DK119" s="95">
         <v>166</v>
       </c>
-      <c r="DL119" s="129" t="s">
+      <c r="DL119" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM119" s="129" t="s">
+      <c r="DM119" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DN119" s="129">
-        <v>1</v>
-      </c>
-      <c r="DO119" s="129">
+      <c r="DN119" s="125">
+        <v>1</v>
+      </c>
+      <c r="DO119" s="125">
         <v>158</v>
       </c>
-      <c r="DP119" s="129">
+      <c r="DP119" s="125">
         <v>0.379</v>
       </c>
-      <c r="DQ119" s="129" t="s">
+      <c r="DQ119" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DR119" s="129">
+      <c r="DR119" s="125">
         <v>0.53900000000000003</v>
       </c>
       <c r="DS119" s="90">
@@ -46018,18 +46996,31 @@
         <v>0.539024693</v>
       </c>
       <c r="DU119" s="90"/>
-      <c r="DV119" s="90">
-        <v>4.8918238000000003E-2</v>
-      </c>
-      <c r="DW119" s="156"/>
+      <c r="DV119" s="153">
+        <f>-0.048918238</f>
+        <v>-4.8918238000000003E-2</v>
+      </c>
+      <c r="DW119" s="148"/>
       <c r="DX119" s="15" t="s">
         <v>291</v>
       </c>
       <c r="DY119" s="29" t="s">
         <v>2189</v>
       </c>
-    </row>
-    <row r="120" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA119" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB119" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC119" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14">
         <v>119</v>
       </c>
@@ -46181,10 +47172,10 @@
       <c r="DF120" s="42">
         <v>1E-3</v>
       </c>
-      <c r="DG120" s="107">
+      <c r="DG120" s="104">
         <v>9.7699999999999998E-13</v>
       </c>
-      <c r="DH120" s="107">
+      <c r="DH120" s="104">
         <v>9.7699999999999998E-13</v>
       </c>
       <c r="DI120" s="44"/>
@@ -46192,7 +47183,7 @@
         <v>1.0296641847385599</v>
       </c>
       <c r="DK120" s="95"/>
-      <c r="DL120" s="129"/>
+      <c r="DL120" s="125"/>
       <c r="DM120" s="64"/>
       <c r="DN120" s="64"/>
       <c r="DO120" s="64"/>
@@ -46203,11 +47194,12 @@
       <c r="DT120" s="90"/>
       <c r="DU120" s="90"/>
       <c r="DV120" s="90"/>
-      <c r="DW120" s="156"/>
+      <c r="DW120" s="148"/>
       <c r="DX120" s="44"/>
       <c r="DY120" s="44"/>
-    </row>
-    <row r="121" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC120" s="147"/>
+    </row>
+    <row r="121" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -46341,7 +47333,7 @@
       <c r="AS121" s="20">
         <v>0</v>
       </c>
-      <c r="AT121" s="135" t="s">
+      <c r="AT121" s="130" t="s">
         <v>2208</v>
       </c>
       <c r="AU121" s="27">
@@ -46529,28 +47521,29 @@
       <c r="DG121" s="20">
         <v>3.4266919E-2</v>
       </c>
-      <c r="DH121" s="20">
-        <v>3.4266919E-2</v>
+      <c r="DH121" s="157">
+        <f>0.034266919/2</f>
+        <v>1.71334595E-2</v>
       </c>
       <c r="DI121" s="20"/>
-      <c r="DJ121" s="115">
+      <c r="DJ121" s="112">
         <v>0.38</v>
       </c>
       <c r="DK121" s="95">
         <v>43</v>
       </c>
-      <c r="DL121" s="129" t="s">
+      <c r="DL121" s="125" t="s">
         <v>1015</v>
       </c>
-      <c r="DM121" s="129" t="s">
+      <c r="DM121" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DN121" s="129"/>
+      <c r="DN121" s="125"/>
       <c r="DO121" s="64"/>
       <c r="DP121" s="95">
         <v>-0.25</v>
       </c>
-      <c r="DQ121" s="129" t="s">
+      <c r="DQ121" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR121" s="95">
@@ -46559,22 +47552,35 @@
       <c r="DS121" s="90">
         <v>0.106230061</v>
       </c>
-      <c r="DT121" s="90">
-        <v>0.106230061</v>
+      <c r="DT121" s="157">
+        <f>0.106230061/2</f>
+        <v>5.31150305E-2</v>
       </c>
       <c r="DU121" s="90"/>
-      <c r="DV121" s="122">
+      <c r="DV121" s="119">
         <v>0.25</v>
       </c>
-      <c r="DW121" s="156"/>
+      <c r="DW121" s="148"/>
       <c r="DX121" s="29" t="s">
         <v>2210</v>
       </c>
       <c r="DY121" s="29" t="s">
         <v>2217</v>
       </c>
-    </row>
-    <row r="122" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA121" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB121" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC121" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14">
         <v>121</v>
       </c>
@@ -46708,7 +47714,7 @@
       <c r="AS122" s="20">
         <v>0</v>
       </c>
-      <c r="AT122" s="135" t="s">
+      <c r="AT122" s="130" t="s">
         <v>2227</v>
       </c>
       <c r="AU122" s="27">
@@ -46906,10 +47912,10 @@
       <c r="DK122" s="95">
         <v>24</v>
       </c>
-      <c r="DL122" s="129" t="s">
+      <c r="DL122" s="125" t="s">
         <v>1034</v>
       </c>
-      <c r="DM122" s="129" t="s">
+      <c r="DM122" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN122" s="64"/>
@@ -46917,31 +47923,43 @@
       <c r="DP122" s="95">
         <v>4.83</v>
       </c>
-      <c r="DQ122" s="129" t="s">
+      <c r="DQ122" s="125" t="s">
         <v>1994</v>
       </c>
       <c r="DR122" s="70">
         <v>0.99</v>
       </c>
-      <c r="DS122" s="107">
+      <c r="DS122" s="104">
         <v>1.37E-6</v>
       </c>
-      <c r="DT122" s="107">
+      <c r="DT122" s="104">
         <v>1.37E-6</v>
       </c>
       <c r="DU122" s="90"/>
       <c r="DV122" s="90">
         <v>0.78335368400000005</v>
       </c>
-      <c r="DW122" s="156"/>
+      <c r="DW122" s="148"/>
       <c r="DX122" s="29" t="s">
         <v>452</v>
       </c>
       <c r="DY122" s="29" t="s">
         <v>2232</v>
       </c>
-    </row>
-    <row r="123" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA122" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB122" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC122" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <v>122</v>
       </c>
@@ -47075,7 +48093,7 @@
       <c r="AS123" s="20">
         <v>0</v>
       </c>
-      <c r="AT123" s="135" t="s">
+      <c r="AT123" s="130" t="s">
         <v>2244</v>
       </c>
       <c r="AU123" s="27">
@@ -47277,10 +48295,10 @@
       <c r="DK123" s="95">
         <v>17</v>
       </c>
-      <c r="DL123" s="129" t="s">
+      <c r="DL123" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM123" s="129" t="s">
+      <c r="DM123" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN123" s="95">
@@ -47292,31 +48310,43 @@
       <c r="DP123" s="95">
         <v>-9.59</v>
       </c>
-      <c r="DQ123" s="129" t="s">
+      <c r="DQ123" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR123" s="95">
         <v>1E-4</v>
       </c>
-      <c r="DS123" s="107">
+      <c r="DS123" s="104">
         <v>4.9000000000000002E-8</v>
       </c>
-      <c r="DT123" s="107">
+      <c r="DT123" s="104">
         <v>4.9000000000000002E-8</v>
       </c>
       <c r="DU123" s="90"/>
       <c r="DV123" s="90">
         <v>0.92293449400000005</v>
       </c>
-      <c r="DW123" s="156"/>
+      <c r="DW123" s="148"/>
       <c r="DX123" s="29" t="s">
         <v>452</v>
       </c>
       <c r="DY123" s="29" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="124" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA123" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB123" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC123" s="147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14">
         <v>123</v>
       </c>
@@ -47392,9 +48422,9 @@
       <c r="AS124" s="44">
         <v>0</v>
       </c>
-      <c r="AT124" s="136"/>
+      <c r="AT124" s="131"/>
       <c r="AU124" s="76"/>
-      <c r="AV124" s="125"/>
+      <c r="AV124" s="122"/>
       <c r="AW124" s="29" t="s">
         <v>311</v>
       </c>
@@ -47443,10 +48473,10 @@
       <c r="BX124" s="30"/>
       <c r="BY124" s="30"/>
       <c r="BZ124" s="30"/>
-      <c r="CA124" s="120"/>
-      <c r="CB124" s="120"/>
+      <c r="CA124" s="117"/>
+      <c r="CB124" s="117"/>
       <c r="CC124" s="33"/>
-      <c r="CD124" s="120"/>
+      <c r="CD124" s="117"/>
       <c r="CE124" s="69"/>
       <c r="CF124" s="69"/>
       <c r="CG124" s="69"/>
@@ -47491,10 +48521,10 @@
       <c r="DF124" s="70">
         <v>1E-3</v>
       </c>
-      <c r="DG124" s="107">
+      <c r="DG124" s="104">
         <v>4.8499999999999999E-17</v>
       </c>
-      <c r="DH124" s="107">
+      <c r="DH124" s="104">
         <v>4.8499999999999999E-17</v>
       </c>
       <c r="DI124" s="44"/>
@@ -47502,7 +48532,7 @@
         <v>0.919994960758451</v>
       </c>
       <c r="DK124" s="95"/>
-      <c r="DL124" s="129"/>
+      <c r="DL124" s="125"/>
       <c r="DM124" s="64"/>
       <c r="DN124" s="64"/>
       <c r="DO124" s="64"/>
@@ -47513,11 +48543,12 @@
       <c r="DT124" s="90"/>
       <c r="DU124" s="90"/>
       <c r="DV124" s="90"/>
-      <c r="DW124" s="156"/>
+      <c r="DW124" s="148"/>
       <c r="DX124" s="44"/>
       <c r="DY124" s="44"/>
-    </row>
-    <row r="125" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC124" s="147"/>
+    </row>
+    <row r="125" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14">
         <v>124</v>
       </c>
@@ -47649,7 +48680,7 @@
       <c r="AS125" s="20">
         <v>0</v>
       </c>
-      <c r="AT125" s="135" t="s">
+      <c r="AT125" s="130" t="s">
         <v>2268</v>
       </c>
       <c r="AU125" s="27">
@@ -47721,7 +48752,7 @@
       <c r="BS125" s="30">
         <v>0.79</v>
       </c>
-      <c r="BT125" s="30" t="s">
+      <c r="BT125" s="170" t="s">
         <v>375</v>
       </c>
       <c r="BU125" s="31"/>
@@ -47847,10 +48878,10 @@
       <c r="DK125" s="95">
         <v>70</v>
       </c>
-      <c r="DL125" s="129" t="s">
+      <c r="DL125" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM125" s="129" t="s">
+      <c r="DM125" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN125" s="95">
@@ -47862,7 +48893,7 @@
       <c r="DP125" s="95">
         <v>0.08</v>
       </c>
-      <c r="DQ125" s="129" t="s">
+      <c r="DQ125" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR125" s="95">
@@ -47875,18 +48906,31 @@
         <v>0.77815663199999996</v>
       </c>
       <c r="DU125" s="90"/>
-      <c r="DV125" s="90">
-        <v>3.4279559000000001E-2</v>
-      </c>
-      <c r="DW125" s="156"/>
+      <c r="DV125" s="153">
+        <f>-0.034279559</f>
+        <v>-3.4279559000000001E-2</v>
+      </c>
+      <c r="DW125" s="148"/>
       <c r="DX125" s="29" t="s">
         <v>1457</v>
       </c>
       <c r="DY125" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="126" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA125" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB125" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC125" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14">
         <v>125</v>
       </c>
@@ -47908,7 +48952,7 @@
       <c r="G126" s="43" t="s">
         <v>2262</v>
       </c>
-      <c r="H126" s="110" t="s">
+      <c r="H126" s="107" t="s">
         <v>2277</v>
       </c>
       <c r="I126" s="75" t="s">
@@ -47938,7 +48982,7 @@
       </c>
       <c r="R126" s="44"/>
       <c r="S126" s="44"/>
-      <c r="T126" s="137"/>
+      <c r="T126" s="132"/>
       <c r="U126" s="44"/>
       <c r="V126" s="44"/>
       <c r="W126" s="44"/>
@@ -47980,19 +49024,19 @@
       </c>
       <c r="AT126" s="29"/>
       <c r="AU126" s="76"/>
-      <c r="AV126" s="120"/>
+      <c r="AV126" s="117"/>
       <c r="AW126" s="29"/>
-      <c r="AX126" s="120"/>
+      <c r="AX126" s="117"/>
       <c r="AY126" s="33"/>
       <c r="AZ126" s="33"/>
       <c r="BA126" s="33"/>
-      <c r="BB126" s="120"/>
-      <c r="BC126" s="120"/>
-      <c r="BD126" s="120"/>
-      <c r="BE126" s="120"/>
-      <c r="BF126" s="124"/>
+      <c r="BB126" s="117"/>
+      <c r="BC126" s="117"/>
+      <c r="BD126" s="117"/>
+      <c r="BE126" s="117"/>
+      <c r="BF126" s="121"/>
       <c r="BG126" s="30"/>
-      <c r="BH126" s="120"/>
+      <c r="BH126" s="117"/>
       <c r="BI126" s="33"/>
       <c r="BJ126" s="33"/>
       <c r="BK126" s="33"/>
@@ -48000,41 +49044,41 @@
       <c r="BM126" s="33"/>
       <c r="BN126" s="33"/>
       <c r="BO126" s="33"/>
-      <c r="BP126" s="120"/>
-      <c r="BQ126" s="120"/>
-      <c r="BR126" s="120"/>
-      <c r="BS126" s="120"/>
-      <c r="BT126" s="120"/>
-      <c r="BU126" s="120"/>
-      <c r="BV126" s="120"/>
-      <c r="BW126" s="120"/>
-      <c r="BX126" s="120"/>
-      <c r="BY126" s="120"/>
-      <c r="BZ126" s="120"/>
-      <c r="CA126" s="120"/>
+      <c r="BP126" s="117"/>
+      <c r="BQ126" s="117"/>
+      <c r="BR126" s="117"/>
+      <c r="BS126" s="117"/>
+      <c r="BT126" s="117"/>
+      <c r="BU126" s="117"/>
+      <c r="BV126" s="117"/>
+      <c r="BW126" s="117"/>
+      <c r="BX126" s="117"/>
+      <c r="BY126" s="117"/>
+      <c r="BZ126" s="117"/>
+      <c r="CA126" s="117"/>
       <c r="CB126" s="29"/>
       <c r="CC126" s="30"/>
       <c r="CD126" s="29"/>
-      <c r="CE126" s="121"/>
-      <c r="CF126" s="121"/>
-      <c r="CG126" s="121"/>
-      <c r="CH126" s="121"/>
-      <c r="CI126" s="121"/>
+      <c r="CE126" s="118"/>
+      <c r="CF126" s="118"/>
+      <c r="CG126" s="118"/>
+      <c r="CH126" s="118"/>
+      <c r="CI126" s="118"/>
       <c r="CJ126" s="40"/>
       <c r="CK126" s="40"/>
       <c r="CL126" s="40"/>
-      <c r="CM126" s="121"/>
-      <c r="CN126" s="121"/>
-      <c r="CO126" s="121"/>
-      <c r="CP126" s="121"/>
-      <c r="CQ126" s="121"/>
-      <c r="CR126" s="121"/>
-      <c r="CS126" s="121"/>
-      <c r="CT126" s="121"/>
-      <c r="CU126" s="121"/>
+      <c r="CM126" s="118"/>
+      <c r="CN126" s="118"/>
+      <c r="CO126" s="118"/>
+      <c r="CP126" s="118"/>
+      <c r="CQ126" s="118"/>
+      <c r="CR126" s="118"/>
+      <c r="CS126" s="118"/>
+      <c r="CT126" s="118"/>
+      <c r="CU126" s="118"/>
       <c r="CV126" s="40"/>
-      <c r="CW126" s="121"/>
-      <c r="CX126" s="121"/>
+      <c r="CW126" s="118"/>
+      <c r="CX126" s="118"/>
       <c r="CY126" s="53"/>
       <c r="CZ126" s="53"/>
       <c r="DA126" s="64"/>
@@ -48054,7 +49098,7 @@
         <v>512</v>
       </c>
       <c r="DK126" s="95"/>
-      <c r="DL126" s="129"/>
+      <c r="DL126" s="125"/>
       <c r="DM126" s="64"/>
       <c r="DN126" s="64"/>
       <c r="DO126" s="64"/>
@@ -48065,11 +49109,12 @@
       <c r="DT126" s="90"/>
       <c r="DU126" s="90"/>
       <c r="DV126" s="90"/>
-      <c r="DW126" s="156"/>
+      <c r="DW126" s="148"/>
       <c r="DX126" s="44"/>
       <c r="DY126" s="44"/>
-    </row>
-    <row r="127" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC126" s="147"/>
+    </row>
+    <row r="127" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14">
         <v>126</v>
       </c>
@@ -48221,10 +49266,10 @@
       <c r="DF127" s="42">
         <v>1E-3</v>
       </c>
-      <c r="DG127" s="107">
+      <c r="DG127" s="104">
         <v>7.5900000000000007E-40</v>
       </c>
-      <c r="DH127" s="107">
+      <c r="DH127" s="104">
         <v>7.5900000000000007E-40</v>
       </c>
       <c r="DI127" s="44"/>
@@ -48232,7 +49277,7 @@
         <v>0.28358779920744098</v>
       </c>
       <c r="DK127" s="95"/>
-      <c r="DL127" s="129"/>
+      <c r="DL127" s="125"/>
       <c r="DM127" s="64"/>
       <c r="DN127" s="64"/>
       <c r="DO127" s="64"/>
@@ -48243,11 +49288,12 @@
       <c r="DT127" s="90"/>
       <c r="DU127" s="90"/>
       <c r="DV127" s="90"/>
-      <c r="DW127" s="156"/>
+      <c r="DW127" s="148"/>
       <c r="DX127" s="44"/>
       <c r="DY127" s="44"/>
-    </row>
-    <row r="128" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC127" s="147"/>
+    </row>
+    <row r="128" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14">
         <v>127</v>
       </c>
@@ -48379,7 +49425,7 @@
       <c r="AS128" s="20">
         <v>0</v>
       </c>
-      <c r="AT128" s="135" t="s">
+      <c r="AT128" s="130" t="s">
         <v>2296</v>
       </c>
       <c r="AU128" s="27">
@@ -48400,7 +49446,7 @@
       <c r="AZ128" s="30">
         <v>29</v>
       </c>
-      <c r="BA128" s="111">
+      <c r="BA128" s="108">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="BB128" s="31"/>
@@ -48450,7 +49496,7 @@
       <c r="BR128" s="30">
         <v>26</v>
       </c>
-      <c r="BS128" s="111">
+      <c r="BS128" s="108">
         <v>4.7099999999999998E-3</v>
       </c>
       <c r="BT128" s="30" t="s">
@@ -48575,10 +49621,10 @@
       <c r="DK128" s="95">
         <v>26</v>
       </c>
-      <c r="DL128" s="129" t="s">
+      <c r="DL128" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM128" s="129" t="s">
+      <c r="DM128" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN128" s="95">
@@ -48590,29 +49636,43 @@
       <c r="DP128" s="95">
         <v>-3.1030000000000002</v>
       </c>
-      <c r="DQ128" s="129" t="s">
+      <c r="DQ128" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR128" s="95">
         <v>4.7099999999999998E-3</v>
       </c>
-      <c r="DS128" s="155">
+      <c r="DS128" s="148">
         <v>4.7081120000000004E-3</v>
       </c>
-      <c r="DT128" s="90"/>
+      <c r="DT128" s="148">
+        <v>4.7081120000000004E-3</v>
+      </c>
       <c r="DU128" s="90"/>
-      <c r="DV128" s="155">
+      <c r="DV128" s="148">
         <v>0.52730786900000004</v>
       </c>
-      <c r="DW128" s="156"/>
+      <c r="DW128" s="148"/>
       <c r="DX128" s="29" t="s">
         <v>491</v>
       </c>
       <c r="DY128" s="29" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="129" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA128" s="165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="EB128" s="165">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="EC128" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14">
         <v>128</v>
       </c>
@@ -48854,10 +49914,10 @@
       <c r="CO129" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="CP129" s="152" t="s">
+      <c r="CP129" s="151" t="s">
         <v>2317</v>
       </c>
-      <c r="CQ129" s="153"/>
+      <c r="CQ129" s="152"/>
       <c r="CR129" s="67"/>
       <c r="CS129" s="37" t="s">
         <v>332</v>
@@ -48906,7 +49966,7 @@
         <v>512</v>
       </c>
       <c r="DK129" s="95"/>
-      <c r="DL129" s="129"/>
+      <c r="DL129" s="125"/>
       <c r="DM129" s="64"/>
       <c r="DN129" s="64"/>
       <c r="DO129" s="64"/>
@@ -48917,11 +49977,12 @@
       <c r="DT129" s="90"/>
       <c r="DU129" s="90"/>
       <c r="DV129" s="90"/>
-      <c r="DW129" s="156"/>
+      <c r="DW129" s="148"/>
       <c r="DX129" s="20"/>
       <c r="DY129" s="20"/>
-    </row>
-    <row r="130" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC129" s="147"/>
+    </row>
+    <row r="130" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14">
         <v>129</v>
       </c>
@@ -49253,10 +50314,10 @@
       <c r="DK130" s="95">
         <v>66</v>
       </c>
-      <c r="DL130" s="129" t="s">
+      <c r="DL130" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM130" s="129" t="s">
+      <c r="DM130" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN130" s="95">
@@ -49268,7 +50329,7 @@
       <c r="DP130" s="95">
         <v>0.02</v>
       </c>
-      <c r="DQ130" s="129" t="s">
+      <c r="DQ130" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR130" s="95">
@@ -49284,15 +50345,26 @@
       <c r="DV130" s="90">
         <v>1.7674908E-2</v>
       </c>
-      <c r="DW130" s="156"/>
+      <c r="DW130" s="148"/>
       <c r="DX130" s="29" t="s">
         <v>2334</v>
       </c>
       <c r="DY130" s="29" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="131" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA130" s="167">
+        <v>1</v>
+      </c>
+      <c r="EB130" s="165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="EC130" s="147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14">
         <v>130</v>
       </c>
@@ -49422,7 +50494,7 @@
         <v>512</v>
       </c>
       <c r="DK131" s="95"/>
-      <c r="DL131" s="129"/>
+      <c r="DL131" s="125"/>
       <c r="DM131" s="64"/>
       <c r="DN131" s="64"/>
       <c r="DO131" s="64"/>
@@ -49433,11 +50505,12 @@
       <c r="DT131" s="90"/>
       <c r="DU131" s="90"/>
       <c r="DV131" s="90"/>
-      <c r="DW131" s="156"/>
+      <c r="DW131" s="148"/>
       <c r="DX131" s="44"/>
       <c r="DY131" s="44"/>
-    </row>
-    <row r="132" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC131" s="147"/>
+    </row>
+    <row r="132" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14">
         <v>131</v>
       </c>
@@ -49572,7 +50645,7 @@
         <v>512</v>
       </c>
       <c r="DK132" s="95"/>
-      <c r="DL132" s="129"/>
+      <c r="DL132" s="125"/>
       <c r="DM132" s="64"/>
       <c r="DN132" s="64"/>
       <c r="DO132" s="64"/>
@@ -49583,11 +50656,12 @@
       <c r="DT132" s="90"/>
       <c r="DU132" s="90"/>
       <c r="DV132" s="90"/>
-      <c r="DW132" s="156"/>
+      <c r="DW132" s="148"/>
       <c r="DX132" s="44"/>
       <c r="DY132" s="44"/>
-    </row>
-    <row r="133" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC132" s="147"/>
+    </row>
+    <row r="133" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14">
         <v>132</v>
       </c>
@@ -49725,7 +50799,7 @@
       <c r="AU133" s="27">
         <v>41831</v>
       </c>
-      <c r="AV133" s="127">
+      <c r="AV133" s="124">
         <v>42078</v>
       </c>
       <c r="AW133" s="29" t="s">
@@ -49917,10 +50991,10 @@
       <c r="DK133" s="95">
         <v>30</v>
       </c>
-      <c r="DL133" s="129" t="s">
+      <c r="DL133" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM133" s="129" t="s">
+      <c r="DM133" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN133" s="95">
@@ -49932,7 +51006,7 @@
       <c r="DP133" s="95">
         <v>1.401</v>
       </c>
-      <c r="DQ133" s="129" t="s">
+      <c r="DQ133" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR133" s="95">
@@ -49948,15 +51022,27 @@
       <c r="DV133" s="90">
         <v>0.179397898</v>
       </c>
-      <c r="DW133" s="156"/>
+      <c r="DW133" s="148"/>
       <c r="DX133" s="29" t="s">
         <v>2361</v>
       </c>
       <c r="DY133" s="29" t="s">
         <v>2362</v>
       </c>
-    </row>
-    <row r="134" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA133" s="165">
+        <f t="shared" ref="EA131:EA168" si="6">IF(DH133 &lt; 0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="EB133" s="165">
+        <f t="shared" ref="EB131:EB168" si="7">IF(DT133 &lt; 0.05,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EC133" s="147">
+        <f t="shared" ref="EC131:EC168" si="8">IF(DJ133&gt;DV133,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14">
         <v>133</v>
       </c>
@@ -50014,7 +51100,7 @@
       <c r="S134" s="21">
         <v>65</v>
       </c>
-      <c r="T134" s="130" t="s">
+      <c r="T134" s="126" t="s">
         <v>915</v>
       </c>
       <c r="U134" s="20" t="s">
@@ -50023,7 +51109,7 @@
       <c r="V134" s="21">
         <v>520</v>
       </c>
-      <c r="W134" s="130" t="s">
+      <c r="W134" s="126" t="s">
         <v>915</v>
       </c>
       <c r="X134" s="20">
@@ -50226,7 +51312,7 @@
       <c r="CO134" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="CP134" s="129"/>
+      <c r="CP134" s="125"/>
       <c r="CQ134" s="37" t="s">
         <v>274</v>
       </c>
@@ -50286,10 +51372,10 @@
       <c r="DK134" s="95">
         <v>38</v>
       </c>
-      <c r="DL134" s="129" t="s">
+      <c r="DL134" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM134" s="129" t="s">
+      <c r="DM134" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN134" s="95">
@@ -50301,7 +51387,7 @@
       <c r="DP134" s="95">
         <v>8.08</v>
       </c>
-      <c r="DQ134" s="129" t="s">
+      <c r="DQ134" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR134" s="95">
@@ -50317,15 +51403,27 @@
       <c r="DV134" s="90">
         <v>0.42336380600000001</v>
       </c>
-      <c r="DW134" s="156"/>
+      <c r="DW134" s="148"/>
       <c r="DX134" s="29" t="s">
         <v>2376</v>
       </c>
       <c r="DY134" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="135" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA134" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB134" s="165">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="EC134" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14">
         <v>134</v>
       </c>
@@ -50625,31 +51723,31 @@
       <c r="CY135" s="40">
         <v>119</v>
       </c>
-      <c r="CZ135" s="138" t="s">
+      <c r="CZ135" s="133" t="s">
         <v>464</v>
       </c>
-      <c r="DA135" s="138" t="s">
+      <c r="DA135" s="133" t="s">
         <v>287</v>
       </c>
-      <c r="DB135" s="139">
-        <v>1</v>
-      </c>
-      <c r="DC135" s="139">
+      <c r="DB135" s="134">
+        <v>1</v>
+      </c>
+      <c r="DC135" s="134">
         <v>115</v>
       </c>
-      <c r="DD135" s="138">
+      <c r="DD135" s="133">
         <v>2.3029999999999999</v>
       </c>
-      <c r="DE135" s="138" t="s">
+      <c r="DE135" s="133" t="s">
         <v>1994</v>
       </c>
-      <c r="DF135" s="101">
+      <c r="DF135" s="154">
         <v>2.3E-2</v>
       </c>
-      <c r="DG135" s="115" t="s">
+      <c r="DG135" s="148" t="s">
         <v>512</v>
       </c>
-      <c r="DH135" s="115">
+      <c r="DH135" s="148">
         <v>2.3E-2</v>
       </c>
       <c r="DI135" s="20"/>
@@ -50659,46 +51757,58 @@
       <c r="DK135" s="95">
         <v>238</v>
       </c>
-      <c r="DL135" s="139" t="s">
+      <c r="DL135" s="149" t="s">
         <v>464</v>
       </c>
-      <c r="DM135" s="139" t="s">
+      <c r="DM135" s="149" t="s">
         <v>287</v>
       </c>
-      <c r="DN135" s="139">
-        <v>1</v>
-      </c>
-      <c r="DO135" s="139">
+      <c r="DN135" s="149">
+        <v>1</v>
+      </c>
+      <c r="DO135" s="149">
         <v>234</v>
       </c>
-      <c r="DP135" s="101">
+      <c r="DP135" s="154">
         <v>8.8360000000000003</v>
       </c>
-      <c r="DQ135" s="139" t="s">
+      <c r="DQ135" s="149" t="s">
         <v>287</v>
       </c>
-      <c r="DR135" s="101">
+      <c r="DR135" s="154">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="DS135" s="154">
+      <c r="DS135" s="156">
         <v>2.4100000000000002E-16</v>
       </c>
-      <c r="DT135" s="122">
-        <v>9.9999999999999995E-7</v>
+      <c r="DT135" s="156">
+        <v>2.4100000000000002E-16</v>
       </c>
       <c r="DU135" s="90"/>
       <c r="DV135" s="90">
         <v>0.50017996300000001</v>
       </c>
-      <c r="DW135" s="156"/>
+      <c r="DW135" s="148"/>
       <c r="DX135" s="29" t="s">
         <v>2388</v>
       </c>
       <c r="DY135" s="29" t="s">
         <v>2395</v>
       </c>
-    </row>
-    <row r="136" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA135" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB135" s="165">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="EC135" s="147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14">
         <v>135</v>
       </c>
@@ -50756,7 +51866,7 @@
       <c r="S136" s="44">
         <v>1875</v>
       </c>
-      <c r="T136" s="130" t="s">
+      <c r="T136" s="126" t="s">
         <v>2404</v>
       </c>
       <c r="U136" s="20" t="s">
@@ -50765,7 +51875,7 @@
       <c r="V136" s="44">
         <v>1875</v>
       </c>
-      <c r="W136" s="130" t="s">
+      <c r="W136" s="126" t="s">
         <v>2404</v>
       </c>
       <c r="X136" s="20">
@@ -50899,7 +52009,7 @@
       <c r="BR136" s="30">
         <v>3597</v>
       </c>
-      <c r="BS136" s="140">
+      <c r="BS136" s="135">
         <v>0</v>
       </c>
       <c r="BT136" s="30" t="s">
@@ -51032,46 +52142,58 @@
       <c r="DK136" s="95">
         <v>3597</v>
       </c>
-      <c r="DL136" s="129" t="s">
+      <c r="DL136" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM136" s="129" t="s">
+      <c r="DM136" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DN136" s="129">
-        <v>1</v>
-      </c>
-      <c r="DO136" s="129">
+      <c r="DN136" s="125">
+        <v>1</v>
+      </c>
+      <c r="DO136" s="125">
         <v>3511.1</v>
       </c>
-      <c r="DP136" s="129">
+      <c r="DP136" s="125">
         <v>-6.31</v>
       </c>
-      <c r="DQ136" s="129" t="s">
+      <c r="DQ136" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DR136" s="141">
-        <v>0</v>
-      </c>
-      <c r="DS136" s="107">
+      <c r="DR136" s="136">
+        <v>0</v>
+      </c>
+      <c r="DS136" s="104">
         <v>3.14E-10</v>
       </c>
-      <c r="DT136" s="107">
+      <c r="DT136" s="104">
         <v>3.14E-10</v>
       </c>
       <c r="DU136" s="90"/>
       <c r="DV136" s="90">
         <v>0.105891025</v>
       </c>
-      <c r="DW136" s="156"/>
+      <c r="DW136" s="148"/>
       <c r="DX136" s="29" t="s">
         <v>1172</v>
       </c>
       <c r="DY136" s="29" t="s">
         <v>2415</v>
       </c>
-    </row>
-    <row r="137" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA136" s="165">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="EB136" s="165">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="EC136" s="147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14">
         <v>136</v>
       </c>
@@ -51129,7 +52251,7 @@
       <c r="S137" s="21">
         <v>0</v>
       </c>
-      <c r="T137" s="130" t="s">
+      <c r="T137" s="126" t="s">
         <v>1052</v>
       </c>
       <c r="U137" s="20" t="s">
@@ -51138,7 +52260,7 @@
       <c r="V137" s="21">
         <v>2052</v>
       </c>
-      <c r="W137" s="130" t="s">
+      <c r="W137" s="126" t="s">
         <v>1052</v>
       </c>
       <c r="X137" s="20">
@@ -51341,10 +52463,10 @@
       <c r="CO137" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="CP137" s="152" t="s">
+      <c r="CP137" s="151" t="s">
         <v>2435</v>
       </c>
-      <c r="CQ137" s="153"/>
+      <c r="CQ137" s="152"/>
       <c r="CR137" s="37" t="s">
         <v>382</v>
       </c>
@@ -51403,10 +52525,10 @@
       <c r="DK137" s="95">
         <v>58</v>
       </c>
-      <c r="DL137" s="129" t="s">
+      <c r="DL137" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM137" s="129" t="s">
+      <c r="DM137" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN137" s="95">
@@ -51418,7 +52540,7 @@
       <c r="DP137" s="95">
         <v>-0.77</v>
       </c>
-      <c r="DQ137" s="129" t="s">
+      <c r="DQ137" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR137" s="95">
@@ -51434,15 +52556,27 @@
       <c r="DV137" s="90">
         <v>0.102355162</v>
       </c>
-      <c r="DW137" s="156"/>
+      <c r="DW137" s="148"/>
       <c r="DX137" s="29" t="s">
         <v>1172</v>
       </c>
       <c r="DY137" s="29" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="138" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA137" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB137" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC137" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14">
         <v>137</v>
       </c>
@@ -51595,7 +52729,7 @@
         <v>512</v>
       </c>
       <c r="DK138" s="95"/>
-      <c r="DL138" s="129"/>
+      <c r="DL138" s="125"/>
       <c r="DM138" s="64"/>
       <c r="DN138" s="64"/>
       <c r="DO138" s="64"/>
@@ -51606,18 +52740,19 @@
       <c r="DT138" s="90"/>
       <c r="DU138" s="90"/>
       <c r="DV138" s="90"/>
-      <c r="DW138" s="156"/>
+      <c r="DW138" s="148"/>
       <c r="DX138" s="44"/>
       <c r="DY138" s="44"/>
-    </row>
-    <row r="139" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC138" s="147"/>
+    </row>
+    <row r="139" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14">
         <v>138</v>
       </c>
-      <c r="B139" s="123" t="s">
+      <c r="B139" s="120" t="s">
         <v>2445</v>
       </c>
-      <c r="C139" s="123" t="s">
+      <c r="C139" s="120" t="s">
         <v>2446</v>
       </c>
       <c r="D139" s="43" t="s">
@@ -51721,8 +52856,8 @@
       <c r="BM139" s="45"/>
       <c r="BN139" s="45"/>
       <c r="BO139" s="45"/>
-      <c r="BQ139" s="142"/>
-      <c r="BZ139" s="143"/>
+      <c r="BQ139" s="137"/>
+      <c r="BZ139" s="138"/>
       <c r="CC139" s="45"/>
       <c r="CE139" s="67"/>
       <c r="CF139" s="67"/>
@@ -51768,10 +52903,10 @@
       <c r="DF139" s="42">
         <v>1</v>
       </c>
-      <c r="DG139" s="107">
+      <c r="DG139" s="104">
         <v>5.2800000000000003E-5</v>
       </c>
-      <c r="DH139" s="107">
+      <c r="DH139" s="104">
         <v>5.2800000000000003E-5</v>
       </c>
       <c r="DI139" s="44"/>
@@ -51779,7 +52914,7 @@
         <v>0.32329518092804799</v>
       </c>
       <c r="DK139" s="95"/>
-      <c r="DL139" s="129"/>
+      <c r="DL139" s="125"/>
       <c r="DM139" s="64"/>
       <c r="DN139" s="64"/>
       <c r="DO139" s="64"/>
@@ -51790,11 +52925,12 @@
       <c r="DT139" s="90"/>
       <c r="DU139" s="90"/>
       <c r="DV139" s="90"/>
-      <c r="DW139" s="156"/>
+      <c r="DW139" s="148"/>
       <c r="DX139" s="44"/>
       <c r="DY139" s="44"/>
-    </row>
-    <row r="140" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC139" s="147"/>
+    </row>
+    <row r="140" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14">
         <v>139</v>
       </c>
@@ -52116,8 +53252,9 @@
       <c r="DG140" s="20">
         <v>5.4252270000000003E-3</v>
       </c>
-      <c r="DH140" s="20">
-        <v>5.4252270000000003E-3</v>
+      <c r="DH140" s="157">
+        <f>0.005425227/2</f>
+        <v>2.7126135000000002E-3</v>
       </c>
       <c r="DI140" s="20"/>
       <c r="DJ140" s="20">
@@ -52126,10 +53263,10 @@
       <c r="DK140" s="95">
         <v>5</v>
       </c>
-      <c r="DL140" s="129" t="s">
+      <c r="DL140" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM140" s="129" t="s">
+      <c r="DM140" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN140" s="95">
@@ -52141,7 +53278,7 @@
       <c r="DP140" s="95">
         <v>13.06</v>
       </c>
-      <c r="DQ140" s="129" t="s">
+      <c r="DQ140" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR140" s="95">
@@ -52150,22 +53287,35 @@
       <c r="DS140" s="90">
         <v>4.3546399999999999E-4</v>
       </c>
-      <c r="DT140" s="90">
-        <v>4.3546399999999999E-4</v>
+      <c r="DT140" s="157">
+        <f>0.000435464/2</f>
+        <v>2.1773199999999999E-4</v>
       </c>
       <c r="DU140" s="90"/>
       <c r="DV140" s="90">
         <v>0.50515126799999999</v>
       </c>
-      <c r="DW140" s="156"/>
+      <c r="DW140" s="148"/>
       <c r="DX140" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY140" s="29" t="s">
         <v>2472</v>
       </c>
-    </row>
-    <row r="141" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA140" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB140" s="165">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="EC140" s="147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14">
         <v>140</v>
       </c>
@@ -52223,7 +53373,7 @@
       <c r="S141" s="21">
         <v>255</v>
       </c>
-      <c r="T141" s="130" t="s">
+      <c r="T141" s="126" t="s">
         <v>561</v>
       </c>
       <c r="U141" s="20" t="s">
@@ -52232,7 +53382,7 @@
       <c r="V141" s="21">
         <v>255</v>
       </c>
-      <c r="W141" s="130" t="s">
+      <c r="W141" s="126" t="s">
         <v>561</v>
       </c>
       <c r="X141" s="20">
@@ -52435,7 +53585,7 @@
       <c r="CO141" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="CP141" s="129"/>
+      <c r="CP141" s="125"/>
       <c r="CQ141" s="37" t="s">
         <v>276</v>
       </c>
@@ -52497,10 +53647,10 @@
       <c r="DK141" s="95">
         <v>125</v>
       </c>
-      <c r="DL141" s="129" t="s">
+      <c r="DL141" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM141" s="129" t="s">
+      <c r="DM141" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN141" s="95">
@@ -52512,7 +53662,7 @@
       <c r="DP141" s="95">
         <v>0.24</v>
       </c>
-      <c r="DQ141" s="129" t="s">
+      <c r="DQ141" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR141" s="95">
@@ -52528,15 +53678,27 @@
       <c r="DV141" s="90">
         <v>4.4266280999999998E-2</v>
       </c>
-      <c r="DW141" s="156"/>
+      <c r="DW141" s="148"/>
       <c r="DX141" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY141" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="142" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA141" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB141" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC141" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14">
         <v>141</v>
       </c>
@@ -52723,7 +53885,7 @@
       <c r="BN142" s="16">
         <v>0.8</v>
       </c>
-      <c r="BO142" s="144"/>
+      <c r="BO142" s="139"/>
       <c r="BP142" s="15" t="s">
         <v>501</v>
       </c>
@@ -52798,7 +53960,7 @@
         <v>0.206419846616859</v>
       </c>
       <c r="DK142" s="95"/>
-      <c r="DL142" s="129"/>
+      <c r="DL142" s="125"/>
       <c r="DM142" s="64"/>
       <c r="DN142" s="64"/>
       <c r="DO142" s="64"/>
@@ -52809,11 +53971,12 @@
       <c r="DT142" s="90"/>
       <c r="DU142" s="90"/>
       <c r="DV142" s="90"/>
-      <c r="DW142" s="156"/>
+      <c r="DW142" s="148"/>
       <c r="DX142" s="20"/>
       <c r="DY142" s="20"/>
-    </row>
-    <row r="143" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC142" s="147"/>
+    </row>
+    <row r="143" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14">
         <v>142</v>
       </c>
@@ -53143,10 +54306,10 @@
       <c r="DK143" s="95">
         <v>88</v>
       </c>
-      <c r="DL143" s="129" t="s">
+      <c r="DL143" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM143" s="129" t="s">
+      <c r="DM143" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN143" s="95">
@@ -53158,31 +54321,43 @@
       <c r="DP143" s="95">
         <v>252.83</v>
       </c>
-      <c r="DQ143" s="129" t="s">
+      <c r="DQ143" s="125" t="s">
         <v>336</v>
       </c>
       <c r="DR143" s="95">
         <v>1E-4</v>
       </c>
-      <c r="DS143" s="107">
+      <c r="DS143" s="104">
         <v>3.3E-52</v>
       </c>
-      <c r="DT143" s="107">
+      <c r="DT143" s="104">
         <v>3.3E-52</v>
       </c>
       <c r="DU143" s="90"/>
       <c r="DV143" s="90">
         <v>0.60991378200000002</v>
       </c>
-      <c r="DW143" s="156"/>
+      <c r="DW143" s="148"/>
       <c r="DX143" s="29" t="s">
         <v>340</v>
       </c>
       <c r="DY143" s="29" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="144" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA143" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB143" s="165">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="EC143" s="147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14">
         <v>143</v>
       </c>
@@ -53240,7 +54415,7 @@
       <c r="S144" s="44">
         <v>98</v>
       </c>
-      <c r="T144" s="130" t="s">
+      <c r="T144" s="126" t="s">
         <v>2531</v>
       </c>
       <c r="U144" s="20" t="s">
@@ -53249,7 +54424,7 @@
       <c r="V144" s="20">
         <v>2531</v>
       </c>
-      <c r="W144" s="130" t="s">
+      <c r="W144" s="126" t="s">
         <v>1491</v>
       </c>
       <c r="X144" s="20">
@@ -53316,7 +54491,7 @@
       <c r="AS144" s="20">
         <v>0</v>
       </c>
-      <c r="AT144" s="145" t="s">
+      <c r="AT144" s="140" t="s">
         <v>2533</v>
       </c>
       <c r="AU144" s="27">
@@ -53325,7 +54500,7 @@
       <c r="AV144" s="47">
         <v>41118</v>
       </c>
-      <c r="AW144" s="145" t="s">
+      <c r="AW144" s="140" t="s">
         <v>2533</v>
       </c>
       <c r="AX144" s="30">
@@ -53514,10 +54689,10 @@
       <c r="DK144" s="95">
         <v>78</v>
       </c>
-      <c r="DL144" s="129" t="s">
+      <c r="DL144" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM144" s="129" t="s">
+      <c r="DM144" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN144" s="95">
@@ -53529,7 +54704,7 @@
       <c r="DP144" s="95">
         <v>0.57999999999999996</v>
       </c>
-      <c r="DQ144" s="129" t="s">
+      <c r="DQ144" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR144" s="95">
@@ -53545,15 +54720,27 @@
       <c r="DV144" s="90">
         <v>6.1707155999999999E-2</v>
       </c>
-      <c r="DW144" s="156"/>
+      <c r="DW144" s="148"/>
       <c r="DX144" s="29" t="s">
         <v>2542</v>
       </c>
       <c r="DY144" s="29" t="s">
         <v>2543</v>
       </c>
-    </row>
-    <row r="145" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA144" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB144" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC144" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14">
         <v>144</v>
       </c>
@@ -53633,7 +54820,7 @@
       </c>
       <c r="AT145" s="29"/>
       <c r="AU145" s="76"/>
-      <c r="AW145" s="120"/>
+      <c r="AW145" s="117"/>
       <c r="AX145" s="45"/>
       <c r="AY145" s="45"/>
       <c r="AZ145" s="45"/>
@@ -53686,7 +54873,7 @@
         <v>512</v>
       </c>
       <c r="DK145" s="95"/>
-      <c r="DL145" s="129"/>
+      <c r="DL145" s="125"/>
       <c r="DM145" s="64"/>
       <c r="DN145" s="64"/>
       <c r="DO145" s="64"/>
@@ -53697,11 +54884,12 @@
       <c r="DT145" s="90"/>
       <c r="DU145" s="90"/>
       <c r="DV145" s="90"/>
-      <c r="DW145" s="156"/>
+      <c r="DW145" s="148"/>
       <c r="DX145" s="44"/>
       <c r="DY145" s="44"/>
-    </row>
-    <row r="146" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC145" s="147"/>
+    </row>
+    <row r="146" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14">
         <v>145</v>
       </c>
@@ -53759,7 +54947,7 @@
       <c r="S146" s="21">
         <v>44</v>
       </c>
-      <c r="T146" s="130" t="s">
+      <c r="T146" s="126" t="s">
         <v>2553</v>
       </c>
       <c r="U146" s="20" t="s">
@@ -53768,7 +54956,7 @@
       <c r="V146" s="21">
         <v>44</v>
       </c>
-      <c r="W146" s="130" t="s">
+      <c r="W146" s="126" t="s">
         <v>2553</v>
       </c>
       <c r="X146" s="20">
@@ -53854,17 +55042,17 @@
       <c r="AZ146" s="30">
         <v>240</v>
       </c>
-      <c r="BA146" s="140">
+      <c r="BA146" s="135">
         <v>0</v>
       </c>
       <c r="BB146" s="30"/>
       <c r="BC146" s="30">
         <v>2</v>
       </c>
-      <c r="BD146" s="146" t="s">
+      <c r="BD146" s="141" t="s">
         <v>797</v>
       </c>
-      <c r="BE146" s="146" t="s">
+      <c r="BE146" s="141" t="s">
         <v>314</v>
       </c>
       <c r="BF146" s="29" t="s">
@@ -53913,10 +55101,10 @@
       <c r="BU146" s="30">
         <v>2</v>
       </c>
-      <c r="BV146" s="146" t="s">
+      <c r="BV146" s="141" t="s">
         <v>797</v>
       </c>
-      <c r="BW146" s="146" t="s">
+      <c r="BW146" s="141" t="s">
         <v>314</v>
       </c>
       <c r="BX146" s="30" t="s">
@@ -54035,10 +55223,10 @@
       <c r="DK146" s="95">
         <v>40</v>
       </c>
-      <c r="DL146" s="129" t="s">
+      <c r="DL146" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM146" s="129" t="s">
+      <c r="DM146" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN146" s="95">
@@ -54050,31 +55238,43 @@
       <c r="DP146" s="95">
         <v>26.76</v>
       </c>
-      <c r="DQ146" s="129" t="s">
+      <c r="DQ146" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR146" s="95">
         <v>1E-4</v>
       </c>
-      <c r="DS146" s="107">
+      <c r="DS146" s="104">
         <v>8.85E-6</v>
       </c>
-      <c r="DT146" s="107">
+      <c r="DT146" s="104">
         <v>8.85E-6</v>
       </c>
       <c r="DU146" s="90"/>
       <c r="DV146" s="90">
         <v>0.65298256700000001</v>
       </c>
-      <c r="DW146" s="156"/>
+      <c r="DW146" s="148"/>
       <c r="DX146" s="29" t="s">
         <v>291</v>
       </c>
       <c r="DY146" s="29" t="s">
         <v>2563</v>
       </c>
-    </row>
-    <row r="147" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA146" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB146" s="165">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="EC146" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14">
         <v>146</v>
       </c>
@@ -54132,7 +55332,7 @@
       <c r="S147" s="21">
         <v>773</v>
       </c>
-      <c r="T147" s="130" t="s">
+      <c r="T147" s="126" t="s">
         <v>2571</v>
       </c>
       <c r="U147" s="20" t="s">
@@ -54141,7 +55341,7 @@
       <c r="V147" s="21">
         <v>773</v>
       </c>
-      <c r="W147" s="130" t="s">
+      <c r="W147" s="126" t="s">
         <v>2571</v>
       </c>
       <c r="X147" s="20">
@@ -54303,7 +55503,7 @@
       <c r="BZ147" s="30" t="s">
         <v>2579</v>
       </c>
-      <c r="CA147" s="123" t="s">
+      <c r="CA147" s="120" t="s">
         <v>2580</v>
       </c>
       <c r="CB147" s="29" t="s">
@@ -54412,10 +55612,10 @@
       <c r="DK147" s="95">
         <v>24</v>
       </c>
-      <c r="DL147" s="129" t="s">
+      <c r="DL147" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM147" s="129" t="s">
+      <c r="DM147" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN147" s="95">
@@ -54427,7 +55627,7 @@
       <c r="DP147" s="95">
         <v>1.9</v>
       </c>
-      <c r="DQ147" s="129" t="s">
+      <c r="DQ147" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR147" s="95">
@@ -54443,15 +55643,27 @@
       <c r="DV147" s="90">
         <v>0.49708252200000003</v>
       </c>
-      <c r="DW147" s="156"/>
+      <c r="DW147" s="148"/>
       <c r="DX147" s="29" t="s">
         <v>452</v>
       </c>
       <c r="DY147" s="29" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="148" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA147" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB147" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC147" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14">
         <v>147</v>
       </c>
@@ -54701,7 +55913,7 @@
         <v>0.30309450770371599</v>
       </c>
       <c r="DK148" s="95"/>
-      <c r="DL148" s="129"/>
+      <c r="DL148" s="125"/>
       <c r="DM148" s="64"/>
       <c r="DN148" s="64"/>
       <c r="DO148" s="64"/>
@@ -54712,11 +55924,12 @@
       <c r="DT148" s="90"/>
       <c r="DU148" s="90"/>
       <c r="DV148" s="90"/>
-      <c r="DW148" s="156"/>
+      <c r="DW148" s="148"/>
       <c r="DX148" s="20"/>
       <c r="DY148" s="20"/>
-    </row>
-    <row r="149" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC148" s="147"/>
+    </row>
+    <row r="149" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14">
         <v>148</v>
       </c>
@@ -55046,10 +56259,10 @@
       <c r="DK149" s="95">
         <v>263</v>
       </c>
-      <c r="DL149" s="129" t="s">
+      <c r="DL149" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM149" s="129" t="s">
+      <c r="DM149" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN149" s="95">
@@ -55061,7 +56274,7 @@
       <c r="DP149" s="95">
         <v>0.23599999999999999</v>
       </c>
-      <c r="DQ149" s="129" t="s">
+      <c r="DQ149" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR149" s="95">
@@ -55074,18 +56287,31 @@
         <v>0.62752089600000005</v>
       </c>
       <c r="DU149" s="90"/>
-      <c r="DV149" s="90">
-        <v>3.0172294999999998E-2</v>
-      </c>
-      <c r="DW149" s="156"/>
+      <c r="DV149" s="153">
+        <f>-0.030172295</f>
+        <v>-3.0172294999999998E-2</v>
+      </c>
+      <c r="DW149" s="148"/>
       <c r="DX149" s="29" t="s">
         <v>710</v>
       </c>
       <c r="DY149" s="29" t="s">
         <v>2611</v>
       </c>
-    </row>
-    <row r="150" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA149" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB149" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC149" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14">
         <v>149</v>
       </c>
@@ -55415,10 +56641,10 @@
       <c r="DK150" s="95">
         <v>318</v>
       </c>
-      <c r="DL150" s="129" t="s">
+      <c r="DL150" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM150" s="129" t="s">
+      <c r="DM150" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN150" s="95">
@@ -55430,7 +56656,7 @@
       <c r="DP150" s="95">
         <v>0.105</v>
       </c>
-      <c r="DQ150" s="129" t="s">
+      <c r="DQ150" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR150" s="95">
@@ -55446,15 +56672,27 @@
       <c r="DV150" s="90">
         <v>1.8283410999999999E-2</v>
       </c>
-      <c r="DW150" s="156"/>
+      <c r="DW150" s="148"/>
       <c r="DX150" s="29" t="s">
         <v>710</v>
       </c>
       <c r="DY150" s="29" t="s">
         <v>2615</v>
       </c>
-    </row>
-    <row r="151" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA150" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB150" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC150" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14">
         <v>150</v>
       </c>
@@ -55784,10 +57022,10 @@
       <c r="DK151" s="95">
         <v>19</v>
       </c>
-      <c r="DL151" s="129" t="s">
+      <c r="DL151" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM151" s="129" t="s">
+      <c r="DM151" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN151" s="95">
@@ -55799,7 +57037,7 @@
       <c r="DP151" s="95">
         <v>0.81</v>
       </c>
-      <c r="DQ151" s="129" t="s">
+      <c r="DQ151" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR151" s="95">
@@ -55815,15 +57053,27 @@
       <c r="DV151" s="90">
         <v>0.20751433899999999</v>
       </c>
-      <c r="DW151" s="156"/>
+      <c r="DW151" s="148"/>
       <c r="DX151" s="29" t="s">
         <v>2634</v>
       </c>
       <c r="DY151" s="29" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="152" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA151" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB151" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC151" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14">
         <v>151</v>
       </c>
@@ -55881,7 +57131,7 @@
       <c r="S152" s="21">
         <v>11</v>
       </c>
-      <c r="T152" s="130" t="s">
+      <c r="T152" s="126" t="s">
         <v>2643</v>
       </c>
       <c r="U152" s="20" t="s">
@@ -55890,7 +57140,7 @@
       <c r="V152" s="21">
         <v>5924</v>
       </c>
-      <c r="W152" s="130" t="s">
+      <c r="W152" s="126" t="s">
         <v>2645</v>
       </c>
       <c r="X152" s="20">
@@ -56093,7 +57343,7 @@
       <c r="CO152" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="CP152" s="121"/>
+      <c r="CP152" s="118"/>
       <c r="CQ152" s="37" t="s">
         <v>328</v>
       </c>
@@ -56155,10 +57405,10 @@
       <c r="DK152" s="95">
         <v>126</v>
       </c>
-      <c r="DL152" s="129" t="s">
+      <c r="DL152" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM152" s="129" t="s">
+      <c r="DM152" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN152" s="95">
@@ -56170,7 +57420,7 @@
       <c r="DP152" s="95">
         <v>1E-3</v>
       </c>
-      <c r="DQ152" s="129" t="s">
+      <c r="DQ152" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR152" s="95">
@@ -56186,15 +57436,27 @@
       <c r="DV152" s="90">
         <v>2.8397980000000001E-3</v>
       </c>
-      <c r="DW152" s="156"/>
+      <c r="DW152" s="148"/>
       <c r="DX152" s="29" t="s">
         <v>1727</v>
       </c>
       <c r="DY152" s="29" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="153" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA152" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB152" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC152" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14">
         <v>152</v>
       </c>
@@ -56357,7 +57619,7 @@
         <v>0.2</v>
       </c>
       <c r="DK153" s="95"/>
-      <c r="DL153" s="129"/>
+      <c r="DL153" s="125"/>
       <c r="DM153" s="64"/>
       <c r="DN153" s="64"/>
       <c r="DO153" s="64"/>
@@ -56368,11 +57630,12 @@
       <c r="DT153" s="90"/>
       <c r="DU153" s="90"/>
       <c r="DV153" s="90"/>
-      <c r="DW153" s="156"/>
+      <c r="DW153" s="148"/>
       <c r="DX153" s="44"/>
       <c r="DY153" s="44"/>
-    </row>
-    <row r="154" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC153" s="147"/>
+    </row>
+    <row r="154" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14">
         <v>153</v>
       </c>
@@ -56704,10 +57967,10 @@
       <c r="DK154" s="95">
         <v>8</v>
       </c>
-      <c r="DL154" s="129" t="s">
+      <c r="DL154" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="DM154" s="129" t="s">
+      <c r="DM154" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN154" s="95">
@@ -56719,7 +57982,7 @@
       <c r="DP154" s="95">
         <v>0.32</v>
       </c>
-      <c r="DQ154" s="129" t="s">
+      <c r="DQ154" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR154" s="95">
@@ -56735,15 +57998,27 @@
       <c r="DV154" s="90">
         <v>0.12007356800000001</v>
       </c>
-      <c r="DW154" s="156"/>
+      <c r="DW154" s="148"/>
       <c r="DX154" s="29" t="s">
         <v>452</v>
       </c>
       <c r="DY154" s="29" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="155" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA154" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB154" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC154" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14">
         <v>154</v>
       </c>
@@ -57065,16 +58340,16 @@
         <v>1.6693799999999999E-4</v>
       </c>
       <c r="DI155" s="20"/>
-      <c r="DJ155" s="115">
+      <c r="DJ155" s="112">
         <v>0.43</v>
       </c>
       <c r="DK155" s="95">
         <v>16</v>
       </c>
-      <c r="DL155" s="129" t="s">
+      <c r="DL155" s="125" t="s">
         <v>1015</v>
       </c>
-      <c r="DM155" s="129" t="s">
+      <c r="DM155" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN155" s="64"/>
@@ -57083,7 +58358,7 @@
         <v>-0.11</v>
       </c>
       <c r="DQ155" s="64"/>
-      <c r="DR155" s="129"/>
+      <c r="DR155" s="125"/>
       <c r="DS155" s="90">
         <v>0.69046653700000005</v>
       </c>
@@ -57091,18 +58366,30 @@
         <v>0.69046653700000005</v>
       </c>
       <c r="DU155" s="90"/>
-      <c r="DV155" s="122">
+      <c r="DV155" s="119">
         <v>0.11</v>
       </c>
-      <c r="DW155" s="156"/>
+      <c r="DW155" s="148"/>
       <c r="DX155" s="29" t="s">
         <v>1013</v>
       </c>
       <c r="DY155" s="29" t="s">
         <v>2696</v>
       </c>
-    </row>
-    <row r="156" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA155" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB155" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC155" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14">
         <v>155</v>
       </c>
@@ -57160,7 +58447,7 @@
       <c r="S156" s="44">
         <v>378</v>
       </c>
-      <c r="T156" s="130" t="s">
+      <c r="T156" s="126" t="s">
         <v>2295</v>
       </c>
       <c r="U156" s="20" t="s">
@@ -57169,7 +58456,7 @@
       <c r="V156" s="44">
         <v>378</v>
       </c>
-      <c r="W156" s="130" t="s">
+      <c r="W156" s="126" t="s">
         <v>2295</v>
       </c>
       <c r="X156" s="20">
@@ -57426,24 +58713,24 @@
         <v>2.3414773999999999E-2</v>
       </c>
       <c r="DI156" s="20"/>
-      <c r="DJ156" s="115">
+      <c r="DJ156" s="112">
         <v>0.31</v>
       </c>
       <c r="DK156" s="95">
         <v>72</v>
       </c>
-      <c r="DL156" s="129" t="s">
+      <c r="DL156" s="125" t="s">
         <v>1015</v>
       </c>
-      <c r="DM156" s="129" t="s">
+      <c r="DM156" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN156" s="64"/>
-      <c r="DO156" s="129"/>
+      <c r="DO156" s="125"/>
       <c r="DP156" s="95">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="DQ156" s="129" t="s">
+      <c r="DQ156" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR156" s="95">
@@ -57456,18 +58743,30 @@
         <v>0.77753399199999995</v>
       </c>
       <c r="DU156" s="90"/>
-      <c r="DV156" s="122">
+      <c r="DV156" s="169">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="DW156" s="156"/>
+      <c r="DW156" s="148"/>
       <c r="DX156" s="29" t="s">
         <v>1013</v>
       </c>
       <c r="DY156" s="29" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="157" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA156" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB156" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC156" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14">
         <v>156</v>
       </c>
@@ -57632,7 +58931,7 @@
         <v>0.35514609721086998</v>
       </c>
       <c r="DK157" s="95"/>
-      <c r="DL157" s="129"/>
+      <c r="DL157" s="125"/>
       <c r="DM157" s="64"/>
       <c r="DN157" s="64"/>
       <c r="DO157" s="64"/>
@@ -57643,11 +58942,12 @@
       <c r="DT157" s="90"/>
       <c r="DU157" s="90"/>
       <c r="DV157" s="90"/>
-      <c r="DW157" s="156"/>
+      <c r="DW157" s="148"/>
       <c r="DX157" s="44"/>
       <c r="DY157" s="44"/>
-    </row>
-    <row r="158" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC157" s="147"/>
+    </row>
+    <row r="158" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14">
         <v>157</v>
       </c>
@@ -57812,7 +59112,7 @@
         <v>0.58931144699844096</v>
       </c>
       <c r="DK158" s="95"/>
-      <c r="DL158" s="129"/>
+      <c r="DL158" s="125"/>
       <c r="DM158" s="64"/>
       <c r="DN158" s="64"/>
       <c r="DO158" s="64"/>
@@ -57823,11 +59123,12 @@
       <c r="DT158" s="90"/>
       <c r="DU158" s="90"/>
       <c r="DV158" s="90"/>
-      <c r="DW158" s="156"/>
+      <c r="DW158" s="148"/>
       <c r="DX158" s="44"/>
       <c r="DY158" s="44"/>
-    </row>
-    <row r="159" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC158" s="147"/>
+    </row>
+    <row r="159" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14">
         <v>158</v>
       </c>
@@ -57885,7 +59186,7 @@
       <c r="S159" s="44">
         <v>5313</v>
       </c>
-      <c r="T159" s="130" t="s">
+      <c r="T159" s="126" t="s">
         <v>2733</v>
       </c>
       <c r="U159" s="20" t="s">
@@ -57894,7 +59195,7 @@
       <c r="V159" s="44">
         <v>5313</v>
       </c>
-      <c r="W159" s="130" t="s">
+      <c r="W159" s="126" t="s">
         <v>2733</v>
       </c>
       <c r="X159" s="20">
@@ -58157,10 +59458,10 @@
       <c r="DK159" s="95">
         <v>95</v>
       </c>
-      <c r="DL159" s="129" t="s">
+      <c r="DL159" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM159" s="129" t="s">
+      <c r="DM159" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN159" s="95">
@@ -58172,16 +59473,16 @@
       <c r="DP159" s="95">
         <v>18.940000000000001</v>
       </c>
-      <c r="DQ159" s="129" t="s">
+      <c r="DQ159" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR159" s="95">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="DS159" s="107">
+      <c r="DS159" s="104">
         <v>3.4600000000000001E-5</v>
       </c>
-      <c r="DT159" s="107">
+      <c r="DT159" s="104">
         <v>3.4600000000000001E-5</v>
       </c>
       <c r="DU159" s="90"/>
@@ -58195,8 +59496,20 @@
       <c r="DY159" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="160" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA159" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB159" s="165">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="EC159" s="147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14">
         <v>159</v>
       </c>
@@ -58350,10 +59663,10 @@
       <c r="DF160" s="42">
         <v>1E-3</v>
       </c>
-      <c r="DG160" s="107">
+      <c r="DG160" s="104">
         <v>7.2000000000000002E-5</v>
       </c>
-      <c r="DH160" s="107">
+      <c r="DH160" s="104">
         <v>7.2000000000000002E-5</v>
       </c>
       <c r="DI160" s="44"/>
@@ -58361,7 +59674,7 @@
         <v>0.76984935178248903</v>
       </c>
       <c r="DK160" s="95"/>
-      <c r="DL160" s="129"/>
+      <c r="DL160" s="125"/>
       <c r="DM160" s="64"/>
       <c r="DN160" s="64"/>
       <c r="DO160" s="64"/>
@@ -58375,8 +59688,9 @@
       <c r="DW160" s="90"/>
       <c r="DX160" s="44"/>
       <c r="DY160" s="44"/>
-    </row>
-    <row r="161" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC160" s="147"/>
+    </row>
+    <row r="161" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14">
         <v>160</v>
       </c>
@@ -58620,11 +59934,11 @@
       <c r="CO161" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="CP161" s="152" t="s">
+      <c r="CP161" s="151" t="s">
         <v>2764</v>
       </c>
-      <c r="CQ161" s="153"/>
-      <c r="CR161" s="153"/>
+      <c r="CQ161" s="152"/>
+      <c r="CR161" s="152"/>
       <c r="CS161" s="37" t="s">
         <v>278</v>
       </c>
@@ -58676,7 +59990,7 @@
         <v>0.29545853451963699</v>
       </c>
       <c r="DK161" s="95"/>
-      <c r="DL161" s="129"/>
+      <c r="DL161" s="125"/>
       <c r="DM161" s="64"/>
       <c r="DN161" s="64"/>
       <c r="DO161" s="64"/>
@@ -58690,8 +60004,9 @@
       <c r="DW161" s="90"/>
       <c r="DX161" s="20"/>
       <c r="DY161" s="20"/>
-    </row>
-    <row r="162" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC161" s="147"/>
+    </row>
+    <row r="162" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14">
         <v>161</v>
       </c>
@@ -58749,7 +60064,7 @@
       <c r="S162" s="21">
         <v>6</v>
       </c>
-      <c r="T162" s="130" t="s">
+      <c r="T162" s="126" t="s">
         <v>1737</v>
       </c>
       <c r="U162" s="20" t="s">
@@ -58758,7 +60073,7 @@
       <c r="V162" s="21">
         <v>6</v>
       </c>
-      <c r="W162" s="130" t="s">
+      <c r="W162" s="126" t="s">
         <v>1737</v>
       </c>
       <c r="X162" s="20">
@@ -58854,7 +60169,7 @@
       <c r="BD162" s="32" t="s">
         <v>1203</v>
       </c>
-      <c r="BE162" s="147" t="s">
+      <c r="BE162" s="142" t="s">
         <v>314</v>
       </c>
       <c r="BF162" s="29" t="s">
@@ -59027,10 +60342,10 @@
       <c r="DK162" s="95">
         <v>48</v>
       </c>
-      <c r="DL162" s="129" t="s">
+      <c r="DL162" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM162" s="129" t="s">
+      <c r="DM162" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN162" s="95">
@@ -59042,7 +60357,7 @@
       <c r="DP162" s="95">
         <v>1.4370000000000001</v>
       </c>
-      <c r="DQ162" s="129" t="s">
+      <c r="DQ162" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR162" s="95">
@@ -59065,8 +60380,20 @@
       <c r="DY162" s="29" t="s">
         <v>2784</v>
       </c>
-    </row>
-    <row r="163" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA162" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB162" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC162" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14">
         <v>162</v>
       </c>
@@ -59231,7 +60558,7 @@
         <v>0.46978679697751902</v>
       </c>
       <c r="DK163" s="95"/>
-      <c r="DL163" s="129"/>
+      <c r="DL163" s="125"/>
       <c r="DM163" s="64"/>
       <c r="DN163" s="64"/>
       <c r="DO163" s="64"/>
@@ -59245,8 +60572,9 @@
       <c r="DW163" s="90"/>
       <c r="DX163" s="44"/>
       <c r="DY163" s="44"/>
-    </row>
-    <row r="164" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC163" s="147"/>
+    </row>
+    <row r="164" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14">
         <v>163</v>
       </c>
@@ -59403,7 +60731,7 @@
         <v>512</v>
       </c>
       <c r="DK164" s="95"/>
-      <c r="DL164" s="129"/>
+      <c r="DL164" s="125"/>
       <c r="DM164" s="64"/>
       <c r="DN164" s="64"/>
       <c r="DO164" s="64"/>
@@ -59417,8 +60745,9 @@
       <c r="DW164" s="90"/>
       <c r="DX164" s="44"/>
       <c r="DY164" s="44"/>
-    </row>
-    <row r="165" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC164" s="147"/>
+    </row>
+    <row r="165" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14">
         <v>164</v>
       </c>
@@ -59662,11 +60991,11 @@
       <c r="CO165" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="CP165" s="152" t="s">
+      <c r="CP165" s="151" t="s">
         <v>2815</v>
       </c>
-      <c r="CQ165" s="153"/>
-      <c r="CR165" s="153"/>
+      <c r="CQ165" s="152"/>
+      <c r="CR165" s="152"/>
       <c r="CS165" s="37" t="s">
         <v>681</v>
       </c>
@@ -59718,7 +61047,7 @@
         <v>0.68397936351513</v>
       </c>
       <c r="DK165" s="95"/>
-      <c r="DL165" s="129"/>
+      <c r="DL165" s="125"/>
       <c r="DM165" s="64"/>
       <c r="DN165" s="64"/>
       <c r="DO165" s="64"/>
@@ -59732,8 +61061,9 @@
       <c r="DW165" s="90"/>
       <c r="DX165" s="20"/>
       <c r="DY165" s="20"/>
-    </row>
-    <row r="166" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC165" s="147"/>
+    </row>
+    <row r="166" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14">
         <v>165</v>
       </c>
@@ -59791,7 +61121,7 @@
       <c r="S166" s="21">
         <v>138</v>
       </c>
-      <c r="T166" s="130" t="s">
+      <c r="T166" s="126" t="s">
         <v>2827</v>
       </c>
       <c r="U166" s="20" t="s">
@@ -59800,7 +61130,7 @@
       <c r="V166" s="21">
         <v>138</v>
       </c>
-      <c r="W166" s="130" t="s">
+      <c r="W166" s="126" t="s">
         <v>2827</v>
       </c>
       <c r="X166" s="20">
@@ -59893,7 +61223,7 @@
       </c>
       <c r="BB166" s="33"/>
       <c r="BC166" s="33"/>
-      <c r="BD166" s="116" t="s">
+      <c r="BD166" s="113" t="s">
         <v>1464</v>
       </c>
       <c r="BE166" s="32" t="s">
@@ -59943,7 +61273,7 @@
         <v>375</v>
       </c>
       <c r="BU166" s="33"/>
-      <c r="BV166" s="116" t="s">
+      <c r="BV166" s="113" t="s">
         <v>1464</v>
       </c>
       <c r="BW166" s="32" t="s">
@@ -60065,10 +61395,10 @@
       <c r="DK166" s="95">
         <v>51</v>
       </c>
-      <c r="DL166" s="129" t="s">
+      <c r="DL166" s="125" t="s">
         <v>1466</v>
       </c>
-      <c r="DM166" s="129" t="s">
+      <c r="DM166" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN166" s="95">
@@ -60078,7 +61408,7 @@
       <c r="DP166" s="95">
         <v>1.57</v>
       </c>
-      <c r="DQ166" s="129" t="s">
+      <c r="DQ166" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR166" s="95">
@@ -60091,18 +61421,31 @@
         <v>0.210207014</v>
       </c>
       <c r="DU166" s="90"/>
-      <c r="DV166" s="90">
-        <v>0.17545459199999999</v>
+      <c r="DV166" s="153">
+        <f>-0.175454592</f>
+        <v>-0.17545459199999999</v>
       </c>
       <c r="DW166" s="90"/>
-      <c r="DX166" s="114" t="s">
+      <c r="DX166" s="111" t="s">
         <v>1464</v>
       </c>
       <c r="DY166" s="29" t="s">
         <v>2838</v>
       </c>
-    </row>
-    <row r="167" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA166" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB166" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC166" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14">
         <v>166</v>
       </c>
@@ -60194,7 +61537,7 @@
       <c r="BA167" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="BD167" s="114" t="s">
+      <c r="BD167" s="111" t="s">
         <v>1464</v>
       </c>
       <c r="BE167" s="7" t="s">
@@ -60253,7 +61596,7 @@
         <v>512</v>
       </c>
       <c r="DK167" s="95"/>
-      <c r="DL167" s="129"/>
+      <c r="DL167" s="125"/>
       <c r="DM167" s="64"/>
       <c r="DN167" s="64"/>
       <c r="DO167" s="64"/>
@@ -60267,8 +61610,9 @@
       <c r="DW167" s="90"/>
       <c r="DX167" s="44"/>
       <c r="DY167" s="44"/>
-    </row>
-    <row r="168" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EC167" s="147"/>
+    </row>
+    <row r="168" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14">
         <v>167</v>
       </c>
@@ -60326,7 +61670,7 @@
       <c r="S168" s="21">
         <v>518</v>
       </c>
-      <c r="T168" s="130" t="s">
+      <c r="T168" s="126" t="s">
         <v>915</v>
       </c>
       <c r="U168" s="20" t="s">
@@ -60335,7 +61679,7 @@
       <c r="V168" s="21">
         <v>518</v>
       </c>
-      <c r="W168" s="130" t="s">
+      <c r="W168" s="126" t="s">
         <v>915</v>
       </c>
       <c r="X168" s="20">
@@ -60604,10 +61948,10 @@
       <c r="DK168" s="95">
         <v>22</v>
       </c>
-      <c r="DL168" s="129" t="s">
+      <c r="DL168" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="DM168" s="129" t="s">
+      <c r="DM168" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DN168" s="95">
@@ -60619,7 +61963,7 @@
       <c r="DP168" s="95">
         <v>1.45</v>
       </c>
-      <c r="DQ168" s="129" t="s">
+      <c r="DQ168" s="125" t="s">
         <v>287</v>
       </c>
       <c r="DR168" s="95">
@@ -60642,15 +61986,27 @@
       <c r="DY168" s="29" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="169" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EA168" s="165">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="EB168" s="165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="EC168" s="147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="45"/>
       <c r="D169" s="45"/>
       <c r="E169" s="45"/>
       <c r="F169" s="45"/>
       <c r="G169" s="45"/>
-      <c r="H169" s="148"/>
-      <c r="I169" s="148"/>
+      <c r="H169" s="143"/>
+      <c r="I169" s="143"/>
       <c r="J169" s="45"/>
       <c r="K169" s="45"/>
       <c r="L169" s="45"/>
@@ -60752,14 +62108,14 @@
       <c r="DX169" s="45"/>
       <c r="DY169" s="45"/>
     </row>
-    <row r="170" spans="1:129" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="45"/>
       <c r="D170" s="45"/>
       <c r="E170" s="45"/>
       <c r="F170" s="45"/>
       <c r="G170" s="45"/>
-      <c r="H170" s="148"/>
-      <c r="I170" s="148"/>
+      <c r="H170" s="143"/>
+      <c r="I170" s="143"/>
       <c r="J170" s="45"/>
       <c r="K170" s="45"/>
       <c r="L170" s="45"/>
@@ -60854,12 +62210,13 @@
       <c r="DQ170" s="90"/>
       <c r="DR170" s="90"/>
       <c r="DS170" s="90"/>
-      <c r="DT170" s="45"/>
+      <c r="DT170" s="147"/>
       <c r="DU170" s="45"/>
-      <c r="DV170" s="90"/>
+      <c r="DV170" s="165"/>
       <c r="DW170" s="90"/>
       <c r="DX170" s="45"/>
       <c r="DY170" s="45"/>
+      <c r="EC170" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -61078,7 +62435,8 @@
     <hyperlink ref="CD168" r:id="rId206"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId207"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId207"/>
+  <drawing r:id="rId208"/>
 </worksheet>
 </file>
 

--- a/tilburg data.xlsx
+++ b/tilburg data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\reproducibility project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chjh\Dropbox\projects\2014rpp\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9240,8 +9240,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9299,6 +9297,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9630,10 +9630,10 @@
   <dimension ref="A1:EC170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="DN9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EA2" sqref="EA2"/>
+      <selection pane="bottomRight" activeCell="EC1" sqref="EC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9679,16 +9679,23 @@
     <col min="69" max="69" width="19.42578125" customWidth="1"/>
     <col min="70" max="77" width="12.7109375" customWidth="1"/>
     <col min="78" max="78" width="15.5703125" customWidth="1"/>
-    <col min="79" max="114" width="12.7109375" customWidth="1"/>
-    <col min="115" max="115" width="0.85546875" style="146" customWidth="1"/>
-    <col min="116" max="118" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="119" max="119" width="1.28515625" hidden="1" customWidth="1"/>
-    <col min="120" max="120" width="17.85546875" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="122" max="125" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="126" max="126" width="12.7109375" customWidth="1"/>
-    <col min="127" max="130" width="8.7109375" customWidth="1"/>
-    <col min="131" max="132" width="8.7109375" style="165" customWidth="1"/>
+    <col min="79" max="113" width="12.7109375" customWidth="1"/>
+    <col min="114" max="114" width="7.140625" customWidth="1"/>
+    <col min="115" max="115" width="7.5703125" style="146" customWidth="1"/>
+    <col min="116" max="116" width="18.28515625" customWidth="1"/>
+    <col min="117" max="117" width="22.140625" customWidth="1"/>
+    <col min="118" max="119" width="9" customWidth="1"/>
+    <col min="120" max="120" width="15.85546875" customWidth="1"/>
+    <col min="121" max="121" width="19.140625" customWidth="1"/>
+    <col min="122" max="122" width="10.140625" customWidth="1"/>
+    <col min="123" max="123" width="16.5703125" customWidth="1"/>
+    <col min="124" max="124" width="15.140625" customWidth="1"/>
+    <col min="125" max="125" width="10" customWidth="1"/>
+    <col min="126" max="126" width="7" customWidth="1"/>
+    <col min="127" max="127" width="26.5703125" customWidth="1"/>
+    <col min="128" max="128" width="19.42578125" customWidth="1"/>
+    <col min="129" max="130" width="8.7109375" customWidth="1"/>
+    <col min="131" max="132" width="8.7109375" style="163" customWidth="1"/>
     <col min="133" max="133" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10080,13 +10087,13 @@
       <c r="DY1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="EA1" s="164" t="s">
+      <c r="EA1" s="162" t="s">
         <v>2863</v>
       </c>
-      <c r="EB1" s="164" t="s">
+      <c r="EB1" s="162" t="s">
         <v>2864</v>
       </c>
-      <c r="EC1" s="164" t="s">
+      <c r="EC1" s="162" t="s">
         <v>2865</v>
       </c>
     </row>
@@ -10458,11 +10465,11 @@
       <c r="DY2" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="EA2" s="165">
+      <c r="EA2" s="163">
         <f>IF(DH2 &lt; 0.05,1,0)</f>
         <v>1</v>
       </c>
-      <c r="EB2" s="165">
+      <c r="EB2" s="163">
         <f>IF(DT2 &lt; 0.05,1,0)</f>
         <v>0</v>
       </c>
@@ -10845,11 +10852,11 @@
       <c r="DY3" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="EA3" s="165">
+      <c r="EA3" s="163">
         <f t="shared" ref="EA3:EA66" si="0">IF(DH3 &lt; 0.05,1,0)</f>
         <v>1</v>
       </c>
-      <c r="EB3" s="165">
+      <c r="EB3" s="163">
         <f t="shared" ref="EA3:EB66" si="1">IF(DT3 &lt; 0.05,1,0)</f>
         <v>0</v>
       </c>
@@ -11222,7 +11229,7 @@
         <v>0.22898882700000001</v>
       </c>
       <c r="DU4" s="90"/>
-      <c r="DV4" s="153">
+      <c r="DV4" s="151">
         <f>-0.215243835</f>
         <v>-0.21524383499999999</v>
       </c>
@@ -11233,11 +11240,11 @@
       <c r="DY4" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="EA4" s="165">
+      <c r="EA4" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB4" s="165">
+      <c r="EB4" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11604,7 +11611,7 @@
         <v>0.92041908900000002</v>
       </c>
       <c r="DU5" s="90"/>
-      <c r="DV5" s="153">
+      <c r="DV5" s="151">
         <f>-0.006108358</f>
         <v>-6.1083580000000004E-3</v>
       </c>
@@ -11615,11 +11622,11 @@
       <c r="DY5" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="EA5" s="165">
+      <c r="EA5" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB5" s="165">
+      <c r="EB5" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11998,11 +12005,11 @@
       <c r="DY6" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="EA6" s="165">
+      <c r="EA6" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB6" s="165">
+      <c r="EB6" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12383,11 +12390,11 @@
       <c r="DY7" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="EA7" s="165">
+      <c r="EA7" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB7" s="165">
+      <c r="EB7" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12770,11 +12777,11 @@
       <c r="DY8" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="EA8" s="165">
+      <c r="EA8" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB8" s="165">
+      <c r="EB8" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13143,7 +13150,7 @@
         <v>0.539998592</v>
       </c>
       <c r="DU9" s="90"/>
-      <c r="DV9" s="153">
+      <c r="DV9" s="151">
         <f>-0.110614348</f>
         <v>-0.110614348</v>
       </c>
@@ -13154,11 +13161,11 @@
       <c r="DY9" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="EA9" s="165">
+      <c r="EA9" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB9" s="165">
+      <c r="EB9" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13829,11 +13836,11 @@
       <c r="DY11" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="EA11" s="165">
+      <c r="EA11" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB11" s="165">
+      <c r="EB11" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -14210,11 +14217,11 @@
       <c r="DY12" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="EA12" s="165">
+      <c r="EA12" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB12" s="165">
+      <c r="EB12" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -14591,11 +14598,11 @@
       <c r="DY13" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="EA13" s="165">
+      <c r="EA13" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB13" s="165">
+      <c r="EB13" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -14972,11 +14979,11 @@
       <c r="DY14" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="EA14" s="165">
+      <c r="EA14" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB14" s="165">
+      <c r="EB14" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -15569,13 +15576,13 @@
       <c r="DE16" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="DF16" s="158">
+      <c r="DF16" s="156">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="DG16" s="20">
         <v>5.6747408999999999E-2</v>
       </c>
-      <c r="DH16" s="157">
+      <c r="DH16" s="155">
         <f>0.056747409/2</f>
         <v>2.8373704499999999E-2</v>
       </c>
@@ -15604,13 +15611,13 @@
       <c r="DQ16" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DR16" s="154">
+      <c r="DR16" s="152">
         <v>1E-4</v>
       </c>
-      <c r="DS16" s="156">
+      <c r="DS16" s="154">
         <v>1.01E-4</v>
       </c>
-      <c r="DT16" s="155">
+      <c r="DT16" s="153">
         <f>0.000101/2</f>
         <v>5.0500000000000001E-5</v>
       </c>
@@ -15625,11 +15632,11 @@
       <c r="DY16" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="EA16" s="165">
+      <c r="EA16" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB16" s="165">
+      <c r="EB16" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -16199,11 +16206,11 @@
       <c r="DY18" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="EA18" s="165">
+      <c r="EA18" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB18" s="165">
+      <c r="EB18" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -16764,11 +16771,11 @@
       <c r="DY20" s="29" t="s">
         <v>711</v>
       </c>
-      <c r="EA20" s="165">
+      <c r="EA20" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB20" s="165">
+      <c r="EB20" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17147,11 +17154,11 @@
       <c r="DY21" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="EA21" s="165">
+      <c r="EA21" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB21" s="165">
+      <c r="EB21" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17709,11 +17716,11 @@
       <c r="DY23" s="29" t="s">
         <v>760</v>
       </c>
-      <c r="EA23" s="165">
+      <c r="EA23" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB23" s="165">
+      <c r="EB23" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18243,11 +18250,11 @@
       <c r="DY25" s="29" t="s">
         <v>780</v>
       </c>
-      <c r="EA25" s="165">
+      <c r="EA25" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB25" s="165">
+      <c r="EB25" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18618,11 +18625,11 @@
         <v>291</v>
       </c>
       <c r="DY26" s="86"/>
-      <c r="EA26" s="165">
+      <c r="EA26" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB26" s="165">
+      <c r="EB26" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -19002,11 +19009,11 @@
       <c r="DY27" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="EA27" s="165">
+      <c r="EA27" s="163">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="EB27" s="165">
+      <c r="EB27" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -19383,11 +19390,11 @@
       <c r="DY28" s="29" t="s">
         <v>843</v>
       </c>
-      <c r="EA28" s="165">
+      <c r="EA28" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB28" s="165">
+      <c r="EB28" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -19768,10 +19775,10 @@
       <c r="DY29" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="EA29" s="167">
-        <v>1</v>
-      </c>
-      <c r="EB29" s="165">
+      <c r="EA29" s="165">
+        <v>1</v>
+      </c>
+      <c r="EB29" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20150,11 +20157,11 @@
       <c r="DY30" s="29" t="s">
         <v>797</v>
       </c>
-      <c r="EA30" s="165">
+      <c r="EA30" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB30" s="165">
+      <c r="EB30" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -20954,11 +20961,11 @@
       <c r="DY33" s="29" t="s">
         <v>927</v>
       </c>
-      <c r="EA33" s="165">
+      <c r="EA33" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB33" s="165">
+      <c r="EB33" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21339,11 +21346,11 @@
       <c r="DY34" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="EA34" s="165">
+      <c r="EA34" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB34" s="165">
+      <c r="EB34" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21753,10 +21760,10 @@
       <c r="CL36" s="39">
         <v>4723</v>
       </c>
-      <c r="CM36" s="151" t="s">
+      <c r="CM36" s="172" t="s">
         <v>549</v>
       </c>
-      <c r="CN36" s="152"/>
+      <c r="CN36" s="173"/>
       <c r="CO36" s="67"/>
       <c r="CP36" s="67"/>
       <c r="CQ36" s="67"/>
@@ -22194,11 +22201,11 @@
       <c r="DY37" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="EA37" s="165">
+      <c r="EA37" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB37" s="165">
+      <c r="EB37" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22575,10 +22582,10 @@
       <c r="DY38" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="EA38" s="167">
-        <v>1</v>
-      </c>
-      <c r="EB38" s="165">
+      <c r="EA38" s="165">
+        <v>1</v>
+      </c>
+      <c r="EB38" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23119,11 +23126,11 @@
       <c r="DY40" s="29" t="s">
         <v>1035</v>
       </c>
-      <c r="EA40" s="165">
+      <c r="EA40" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB40" s="165">
+      <c r="EB40" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -24144,11 +24151,11 @@
       <c r="DY44" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA44" s="165">
+      <c r="EA44" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB44" s="165">
+      <c r="EB44" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -24529,11 +24536,11 @@
       <c r="DY45" s="29" t="s">
         <v>1104</v>
       </c>
-      <c r="EA45" s="165">
+      <c r="EA45" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB45" s="165">
+      <c r="EB45" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -25044,7 +25051,7 @@
       <c r="DG47" s="20">
         <v>0</v>
       </c>
-      <c r="DH47" s="157">
+      <c r="DH47" s="155">
         <v>0</v>
       </c>
       <c r="DI47" s="20"/>
@@ -25078,7 +25085,7 @@
       <c r="DS47" s="90">
         <v>0</v>
       </c>
-      <c r="DT47" s="157">
+      <c r="DT47" s="155">
         <v>0</v>
       </c>
       <c r="DU47" s="90"/>
@@ -25092,11 +25099,11 @@
       <c r="DY47" s="29" t="s">
         <v>1143</v>
       </c>
-      <c r="EA47" s="165">
+      <c r="EA47" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB47" s="165">
+      <c r="EB47" s="163">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -25690,13 +25697,13 @@
       <c r="DO49" s="95">
         <v>192</v>
       </c>
-      <c r="DP49" s="154">
+      <c r="DP49" s="152">
         <v>-0.72554799999999997</v>
       </c>
       <c r="DQ49" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DR49" s="154">
+      <c r="DR49" s="152">
         <v>0.47</v>
       </c>
       <c r="DS49" s="90">
@@ -25716,11 +25723,11 @@
       <c r="DY49" s="29" t="s">
         <v>1176</v>
       </c>
-      <c r="EA49" s="165">
+      <c r="EA49" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB49" s="165">
+      <c r="EB49" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26091,7 +26098,7 @@
         <v>0.77797708200000004</v>
       </c>
       <c r="DU50" s="96"/>
-      <c r="DV50" s="168">
+      <c r="DV50" s="166">
         <f>-0.030485538</f>
         <v>-3.0485538E-2</v>
       </c>
@@ -26102,11 +26109,11 @@
       <c r="DY50" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA50" s="165">
+      <c r="EA50" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB50" s="165">
+      <c r="EB50" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26483,11 +26490,11 @@
       <c r="DY51" s="29" t="s">
         <v>1212</v>
       </c>
-      <c r="EA51" s="165">
+      <c r="EA51" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB51" s="165">
+      <c r="EB51" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -27180,11 +27187,11 @@
       <c r="DY53" s="29" t="s">
         <v>1250</v>
       </c>
-      <c r="EA53" s="165">
+      <c r="EA53" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB53" s="165">
+      <c r="EB53" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -27561,11 +27568,11 @@
       <c r="DY54" s="29" t="s">
         <v>822</v>
       </c>
-      <c r="EA54" s="165">
+      <c r="EA54" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB54" s="165">
+      <c r="EB54" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -28127,11 +28134,11 @@
       <c r="DY56" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA56" s="165">
+      <c r="EA56" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB56" s="165">
+      <c r="EB56" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -28500,7 +28507,7 @@
         <v>0.79626739400000002</v>
       </c>
       <c r="DU57" s="90"/>
-      <c r="DV57" s="153">
+      <c r="DV57" s="151">
         <f>-0.042140104</f>
         <v>-4.2140103999999998E-2</v>
       </c>
@@ -28511,11 +28518,11 @@
       <c r="DY57" s="29" t="s">
         <v>797</v>
       </c>
-      <c r="EA57" s="165">
+      <c r="EA57" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB57" s="165">
+      <c r="EB57" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -29158,11 +29165,11 @@
       <c r="DY59" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="EA59" s="165">
+      <c r="EA59" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB59" s="165">
+      <c r="EB59" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -29491,7 +29498,7 @@
       <c r="DG60" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="DH60" s="160"/>
+      <c r="DH60" s="158"/>
       <c r="DI60" s="20"/>
       <c r="DJ60" s="20" t="s">
         <v>512</v>
@@ -29517,9 +29524,9 @@
         <v>1E-3</v>
       </c>
       <c r="DS60" s="90"/>
-      <c r="DT60" s="160"/>
+      <c r="DT60" s="158"/>
       <c r="DU60" s="90"/>
-      <c r="DV60" s="159"/>
+      <c r="DV60" s="157"/>
       <c r="DW60" s="148"/>
       <c r="DX60" s="29" t="s">
         <v>1354</v>
@@ -29527,15 +29534,15 @@
       <c r="DY60" s="29" t="s">
         <v>1354</v>
       </c>
-      <c r="EA60" s="166">
+      <c r="EA60" s="164">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="EB60" s="166">
+      <c r="EB60" s="164">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="EC60" s="172">
+      <c r="EC60" s="170">
         <v>0</v>
       </c>
     </row>
@@ -30080,7 +30087,7 @@
         <v>0.94425724600000005</v>
       </c>
       <c r="DU62" s="96"/>
-      <c r="DV62" s="168">
+      <c r="DV62" s="166">
         <f>-0.004719346</f>
         <v>-4.7193460000000001E-3</v>
       </c>
@@ -30091,11 +30098,11 @@
       <c r="DY62" s="29" t="s">
         <v>1384</v>
       </c>
-      <c r="EA62" s="165">
+      <c r="EA62" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB62" s="165">
+      <c r="EB62" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -30655,11 +30662,11 @@
       <c r="DY64" s="29" t="s">
         <v>1411</v>
       </c>
-      <c r="EA64" s="165">
+      <c r="EA64" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB64" s="165">
+      <c r="EB64" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -31038,11 +31045,11 @@
       <c r="DY65" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA65" s="165">
+      <c r="EA65" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB65" s="165">
+      <c r="EB65" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -31421,11 +31428,11 @@
       <c r="DY66" s="29" t="s">
         <v>1457</v>
       </c>
-      <c r="EA66" s="165">
+      <c r="EA66" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB66" s="165">
+      <c r="EB66" s="163">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -32142,16 +32149,16 @@
       <c r="DY69" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA69" s="165">
-        <f t="shared" ref="EA67:EA130" si="3">IF(DH69 &lt; 0.05,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="EB69" s="165">
-        <f t="shared" ref="EB67:EB130" si="4">IF(DT69 &lt; 0.05,1,0)</f>
+      <c r="EA69" s="163">
+        <f t="shared" ref="EA69:EA128" si="3">IF(DH69 &lt; 0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="EB69" s="163">
+        <f t="shared" ref="EB69:EB130" si="4">IF(DT69 &lt; 0.05,1,0)</f>
         <v>0</v>
       </c>
       <c r="EC69" s="147">
-        <f t="shared" ref="EC67:EC130" si="5">IF(DJ69&gt;DV69,1,0)</f>
+        <f t="shared" ref="EC69:EC130" si="5">IF(DJ69&gt;DV69,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -32326,7 +32333,7 @@
       <c r="BF70" s="29" t="s">
         <v>1497</v>
       </c>
-      <c r="BG70" s="171">
+      <c r="BG70" s="169">
         <v>0.78</v>
       </c>
       <c r="BH70" s="33"/>
@@ -32381,7 +32388,7 @@
       <c r="BY70" s="30">
         <v>0.99</v>
       </c>
-      <c r="BZ70" s="171">
+      <c r="BZ70" s="169">
         <v>0.77</v>
       </c>
       <c r="CA70" s="29" t="s">
@@ -32505,7 +32512,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="DU70" s="90"/>
-      <c r="DV70" s="159"/>
+      <c r="DV70" s="157"/>
       <c r="DW70" s="148"/>
       <c r="DX70" s="29" t="s">
         <v>1496</v>
@@ -32513,15 +32520,15 @@
       <c r="DY70" s="29" t="s">
         <v>1496</v>
       </c>
-      <c r="EA70" s="165">
+      <c r="EA70" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB70" s="165">
+      <c r="EB70" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="EC70" s="172">
+      <c r="EC70" s="170">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -33081,11 +33088,11 @@
       <c r="DY72" s="29" t="s">
         <v>797</v>
       </c>
-      <c r="EA72" s="165">
+      <c r="EA72" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB72" s="165">
+      <c r="EB72" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -33466,11 +33473,11 @@
       <c r="DY73" s="29" t="s">
         <v>1457</v>
       </c>
-      <c r="EA73" s="165">
+      <c r="EA73" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB73" s="165">
+      <c r="EB73" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -33847,11 +33854,11 @@
       <c r="DY74" s="29" t="s">
         <v>1564</v>
       </c>
-      <c r="EA74" s="165">
+      <c r="EA74" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB74" s="165">
+      <c r="EB74" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -34733,7 +34740,7 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="DU78" s="90"/>
-      <c r="DV78" s="159"/>
+      <c r="DV78" s="157"/>
       <c r="DW78" s="148"/>
       <c r="DX78" s="15" t="s">
         <v>291</v>
@@ -34741,15 +34748,15 @@
       <c r="DY78" s="15" t="s">
         <v>1608</v>
       </c>
-      <c r="EA78" s="165">
+      <c r="EA78" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB78" s="165">
+      <c r="EB78" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="EC78" s="173"/>
+      <c r="EC78" s="171"/>
     </row>
     <row r="79" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
@@ -35599,11 +35606,11 @@
       <c r="DY81" s="29" t="s">
         <v>1651</v>
       </c>
-      <c r="EA81" s="165">
+      <c r="EA81" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB81" s="165">
+      <c r="EB81" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -35972,7 +35979,7 @@
         <v>0.23383009900000001</v>
       </c>
       <c r="DU82" s="90"/>
-      <c r="DV82" s="153">
+      <c r="DV82" s="151">
         <f>-0.101637251</f>
         <v>-0.101637251</v>
       </c>
@@ -35983,11 +35990,11 @@
       <c r="DY82" s="29" t="s">
         <v>1670</v>
       </c>
-      <c r="EA82" s="165">
+      <c r="EA82" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB82" s="165">
+      <c r="EB82" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -36366,11 +36373,11 @@
       <c r="DY83" s="29" t="s">
         <v>1689</v>
       </c>
-      <c r="EA83" s="165">
+      <c r="EA83" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB83" s="165">
+      <c r="EB83" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -36894,11 +36901,11 @@
       <c r="DY85" s="29" t="s">
         <v>1711</v>
       </c>
-      <c r="EA85" s="165">
+      <c r="EA85" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB85" s="165">
+      <c r="EB85" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -37459,11 +37466,11 @@
       <c r="DY87" s="29" t="s">
         <v>1727</v>
       </c>
-      <c r="EA87" s="165">
+      <c r="EA87" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB87" s="165">
+      <c r="EB87" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -37840,11 +37847,11 @@
       <c r="DY88" s="29" t="s">
         <v>1457</v>
       </c>
-      <c r="EA88" s="165">
+      <c r="EA88" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB88" s="165">
+      <c r="EB88" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -38423,11 +38430,11 @@
       <c r="DY90" s="29" t="s">
         <v>1764</v>
       </c>
-      <c r="EA90" s="165">
+      <c r="EA90" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="EB90" s="165">
+      <c r="EB90" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -39350,17 +39357,17 @@
       <c r="DQ94" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="DR94" s="161">
+      <c r="DR94" s="159">
         <v>0.26500000000000001</v>
       </c>
-      <c r="DS94" s="162">
+      <c r="DS94" s="160">
         <v>0.26496530000000001</v>
       </c>
-      <c r="DT94" s="162">
+      <c r="DT94" s="160">
         <v>0.26496530000000001</v>
       </c>
       <c r="DU94" s="90"/>
-      <c r="DV94" s="163">
+      <c r="DV94" s="161">
         <v>-0.1351</v>
       </c>
       <c r="DW94" s="148"/>
@@ -39370,11 +39377,11 @@
       <c r="DY94" s="29" t="s">
         <v>1811</v>
       </c>
-      <c r="EA94" s="165">
+      <c r="EA94" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB94" s="165">
+      <c r="EB94" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -39755,11 +39762,11 @@
       <c r="DY95" s="29" t="s">
         <v>1832</v>
       </c>
-      <c r="EA95" s="165">
+      <c r="EA95" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB95" s="165">
+      <c r="EB95" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -40620,7 +40627,7 @@
         <v>0.15443058600000001</v>
       </c>
       <c r="DU98" s="90"/>
-      <c r="DV98" s="153">
+      <c r="DV98" s="151">
         <f>-0.036935346</f>
         <v>-3.6935346000000001E-2</v>
       </c>
@@ -40631,11 +40638,11 @@
       <c r="DY98" s="29" t="s">
         <v>1872</v>
       </c>
-      <c r="EA98" s="165">
+      <c r="EA98" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB98" s="165">
+      <c r="EB98" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -42112,10 +42119,10 @@
       <c r="DY105" s="29" t="s">
         <v>1711</v>
       </c>
-      <c r="EA105" s="167">
-        <v>1</v>
-      </c>
-      <c r="EB105" s="165">
+      <c r="EA105" s="165">
+        <v>1</v>
+      </c>
+      <c r="EB105" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -42768,7 +42775,7 @@
         <v>0.13203104399999999</v>
       </c>
       <c r="DU107" s="90"/>
-      <c r="DV107" s="153">
+      <c r="DV107" s="151">
         <f>-0.222920955</f>
         <v>-0.222920955</v>
       </c>
@@ -42779,11 +42786,11 @@
       <c r="DY107" s="29" t="s">
         <v>1970</v>
       </c>
-      <c r="EA107" s="165">
+      <c r="EA107" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB107" s="165">
+      <c r="EB107" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -43166,11 +43173,11 @@
       <c r="DY108" s="29" t="s">
         <v>1995</v>
       </c>
-      <c r="EA108" s="165">
+      <c r="EA108" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB108" s="165">
+      <c r="EB108" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -43945,11 +43952,11 @@
       <c r="DY111" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="EA111" s="165">
+      <c r="EA111" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB111" s="165">
+      <c r="EB111" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -44328,11 +44335,11 @@
       <c r="DY112" s="29" t="s">
         <v>1457</v>
       </c>
-      <c r="EA112" s="165">
+      <c r="EA112" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB112" s="165">
+      <c r="EB112" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -44709,11 +44716,11 @@
       <c r="DY113" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA113" s="165">
+      <c r="EA113" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB113" s="165">
+      <c r="EB113" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -45092,11 +45099,11 @@
       <c r="DY114" s="29" t="s">
         <v>2098</v>
       </c>
-      <c r="EA114" s="165">
+      <c r="EA114" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB114" s="165">
+      <c r="EB114" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -45475,11 +45482,11 @@
       <c r="DY115" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="EA115" s="165">
+      <c r="EA115" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB115" s="165">
+      <c r="EB115" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -45848,7 +45855,7 @@
         <v>0.19170092399999999</v>
       </c>
       <c r="DU116" s="90"/>
-      <c r="DV116" s="153">
+      <c r="DV116" s="151">
         <f>-0.450187899</f>
         <v>-0.450187899</v>
       </c>
@@ -45859,11 +45866,11 @@
       <c r="DY116" s="29" t="s">
         <v>1172</v>
       </c>
-      <c r="EA116" s="165">
+      <c r="EA116" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB116" s="165">
+      <c r="EB116" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -46244,11 +46251,11 @@
       <c r="DY117" s="29" t="s">
         <v>2153</v>
       </c>
-      <c r="EA117" s="165">
+      <c r="EA117" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB117" s="165">
+      <c r="EB117" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -46627,11 +46634,11 @@
       <c r="DY118" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA118" s="165">
+      <c r="EA118" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB118" s="165">
+      <c r="EB118" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -46996,7 +47003,7 @@
         <v>0.539024693</v>
       </c>
       <c r="DU119" s="90"/>
-      <c r="DV119" s="153">
+      <c r="DV119" s="151">
         <f>-0.048918238</f>
         <v>-4.8918238000000003E-2</v>
       </c>
@@ -47007,11 +47014,11 @@
       <c r="DY119" s="29" t="s">
         <v>2189</v>
       </c>
-      <c r="EA119" s="165">
+      <c r="EA119" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB119" s="165">
+      <c r="EB119" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -47521,7 +47528,7 @@
       <c r="DG121" s="20">
         <v>3.4266919E-2</v>
       </c>
-      <c r="DH121" s="157">
+      <c r="DH121" s="155">
         <f>0.034266919/2</f>
         <v>1.71334595E-2</v>
       </c>
@@ -47552,7 +47559,7 @@
       <c r="DS121" s="90">
         <v>0.106230061</v>
       </c>
-      <c r="DT121" s="157">
+      <c r="DT121" s="155">
         <f>0.106230061/2</f>
         <v>5.31150305E-2</v>
       </c>
@@ -47567,11 +47574,11 @@
       <c r="DY121" s="29" t="s">
         <v>2217</v>
       </c>
-      <c r="EA121" s="165">
+      <c r="EA121" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB121" s="165">
+      <c r="EB121" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -47946,11 +47953,11 @@
       <c r="DY122" s="29" t="s">
         <v>2232</v>
       </c>
-      <c r="EA122" s="165">
+      <c r="EA122" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB122" s="165">
+      <c r="EB122" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -48333,11 +48340,11 @@
       <c r="DY123" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="EA123" s="165">
+      <c r="EA123" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB123" s="165">
+      <c r="EB123" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -48752,7 +48759,7 @@
       <c r="BS125" s="30">
         <v>0.79</v>
       </c>
-      <c r="BT125" s="170" t="s">
+      <c r="BT125" s="168" t="s">
         <v>375</v>
       </c>
       <c r="BU125" s="31"/>
@@ -48906,7 +48913,7 @@
         <v>0.77815663199999996</v>
       </c>
       <c r="DU125" s="90"/>
-      <c r="DV125" s="153">
+      <c r="DV125" s="151">
         <f>-0.034279559</f>
         <v>-3.4279559000000001E-2</v>
       </c>
@@ -48917,11 +48924,11 @@
       <c r="DY125" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA125" s="165">
+      <c r="EA125" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB125" s="165">
+      <c r="EB125" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -49659,11 +49666,11 @@
       <c r="DY128" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="EA128" s="165">
+      <c r="EA128" s="163">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EB128" s="165">
+      <c r="EB128" s="163">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -49914,10 +49921,10 @@
       <c r="CO129" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="CP129" s="151" t="s">
+      <c r="CP129" s="172" t="s">
         <v>2317</v>
       </c>
-      <c r="CQ129" s="152"/>
+      <c r="CQ129" s="173"/>
       <c r="CR129" s="67"/>
       <c r="CS129" s="37" t="s">
         <v>332</v>
@@ -50352,10 +50359,10 @@
       <c r="DY130" s="29" t="s">
         <v>2334</v>
       </c>
-      <c r="EA130" s="167">
-        <v>1</v>
-      </c>
-      <c r="EB130" s="165">
+      <c r="EA130" s="165">
+        <v>1</v>
+      </c>
+      <c r="EB130" s="163">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -51029,16 +51036,16 @@
       <c r="DY133" s="29" t="s">
         <v>2362</v>
       </c>
-      <c r="EA133" s="165">
-        <f t="shared" ref="EA131:EA168" si="6">IF(DH133 &lt; 0.05,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="EB133" s="165">
-        <f t="shared" ref="EB131:EB168" si="7">IF(DT133 &lt; 0.05,1,0)</f>
+      <c r="EA133" s="163">
+        <f t="shared" ref="EA133:EA168" si="6">IF(DH133 &lt; 0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="EB133" s="163">
+        <f t="shared" ref="EB133:EB168" si="7">IF(DT133 &lt; 0.05,1,0)</f>
         <v>0</v>
       </c>
       <c r="EC133" s="147">
-        <f t="shared" ref="EC131:EC168" si="8">IF(DJ133&gt;DV133,1,0)</f>
+        <f t="shared" ref="EC133:EC168" si="8">IF(DJ133&gt;DV133,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -51410,11 +51417,11 @@
       <c r="DY134" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA134" s="165">
+      <c r="EA134" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB134" s="165">
+      <c r="EB134" s="163">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -51741,7 +51748,7 @@
       <c r="DE135" s="133" t="s">
         <v>1994</v>
       </c>
-      <c r="DF135" s="154">
+      <c r="DF135" s="152">
         <v>2.3E-2</v>
       </c>
       <c r="DG135" s="148" t="s">
@@ -51769,19 +51776,19 @@
       <c r="DO135" s="149">
         <v>234</v>
       </c>
-      <c r="DP135" s="154">
+      <c r="DP135" s="152">
         <v>8.8360000000000003</v>
       </c>
       <c r="DQ135" s="149" t="s">
         <v>287</v>
       </c>
-      <c r="DR135" s="154">
+      <c r="DR135" s="152">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="DS135" s="156">
+      <c r="DS135" s="154">
         <v>2.4100000000000002E-16</v>
       </c>
-      <c r="DT135" s="156">
+      <c r="DT135" s="154">
         <v>2.4100000000000002E-16</v>
       </c>
       <c r="DU135" s="90"/>
@@ -51795,11 +51802,11 @@
       <c r="DY135" s="29" t="s">
         <v>2395</v>
       </c>
-      <c r="EA135" s="165">
+      <c r="EA135" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB135" s="165">
+      <c r="EB135" s="163">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -52180,11 +52187,11 @@
       <c r="DY136" s="29" t="s">
         <v>2415</v>
       </c>
-      <c r="EA136" s="165">
+      <c r="EA136" s="163">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="EB136" s="165">
+      <c r="EB136" s="163">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -52463,10 +52470,10 @@
       <c r="CO137" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="CP137" s="151" t="s">
+      <c r="CP137" s="172" t="s">
         <v>2435</v>
       </c>
-      <c r="CQ137" s="152"/>
+      <c r="CQ137" s="173"/>
       <c r="CR137" s="37" t="s">
         <v>382</v>
       </c>
@@ -52563,11 +52570,11 @@
       <c r="DY137" s="29" t="s">
         <v>797</v>
       </c>
-      <c r="EA137" s="165">
+      <c r="EA137" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB137" s="165">
+      <c r="EB137" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -53252,7 +53259,7 @@
       <c r="DG140" s="20">
         <v>5.4252270000000003E-3</v>
       </c>
-      <c r="DH140" s="157">
+      <c r="DH140" s="155">
         <f>0.005425227/2</f>
         <v>2.7126135000000002E-3</v>
       </c>
@@ -53287,7 +53294,7 @@
       <c r="DS140" s="90">
         <v>4.3546399999999999E-4</v>
       </c>
-      <c r="DT140" s="157">
+      <c r="DT140" s="155">
         <f>0.000435464/2</f>
         <v>2.1773199999999999E-4</v>
       </c>
@@ -53302,11 +53309,11 @@
       <c r="DY140" s="29" t="s">
         <v>2472</v>
       </c>
-      <c r="EA140" s="165">
+      <c r="EA140" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB140" s="165">
+      <c r="EB140" s="163">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -53685,11 +53692,11 @@
       <c r="DY141" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA141" s="165">
+      <c r="EA141" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB141" s="165">
+      <c r="EB141" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -54344,11 +54351,11 @@
       <c r="DY143" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="EA143" s="165">
+      <c r="EA143" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB143" s="165">
+      <c r="EB143" s="163">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -54727,11 +54734,11 @@
       <c r="DY144" s="29" t="s">
         <v>2543</v>
       </c>
-      <c r="EA144" s="165">
+      <c r="EA144" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB144" s="165">
+      <c r="EB144" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -55261,11 +55268,11 @@
       <c r="DY146" s="29" t="s">
         <v>2563</v>
       </c>
-      <c r="EA146" s="165">
+      <c r="EA146" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB146" s="165">
+      <c r="EB146" s="163">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -55650,11 +55657,11 @@
       <c r="DY147" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="EA147" s="165">
+      <c r="EA147" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB147" s="165">
+      <c r="EB147" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -56287,7 +56294,7 @@
         <v>0.62752089600000005</v>
       </c>
       <c r="DU149" s="90"/>
-      <c r="DV149" s="153">
+      <c r="DV149" s="151">
         <f>-0.030172295</f>
         <v>-3.0172294999999998E-2</v>
       </c>
@@ -56298,11 +56305,11 @@
       <c r="DY149" s="29" t="s">
         <v>2611</v>
       </c>
-      <c r="EA149" s="165">
+      <c r="EA149" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB149" s="165">
+      <c r="EB149" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -56679,11 +56686,11 @@
       <c r="DY150" s="29" t="s">
         <v>2615</v>
       </c>
-      <c r="EA150" s="165">
+      <c r="EA150" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB150" s="165">
+      <c r="EB150" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -57060,11 +57067,11 @@
       <c r="DY151" s="29" t="s">
         <v>2635</v>
       </c>
-      <c r="EA151" s="165">
+      <c r="EA151" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB151" s="165">
+      <c r="EB151" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -57443,11 +57450,11 @@
       <c r="DY152" s="29" t="s">
         <v>1727</v>
       </c>
-      <c r="EA152" s="165">
+      <c r="EA152" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB152" s="165">
+      <c r="EB152" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -58005,11 +58012,11 @@
       <c r="DY154" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="EA154" s="165">
+      <c r="EA154" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB154" s="165">
+      <c r="EB154" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -58376,11 +58383,11 @@
       <c r="DY155" s="29" t="s">
         <v>2696</v>
       </c>
-      <c r="EA155" s="165">
+      <c r="EA155" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB155" s="165">
+      <c r="EB155" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -58743,7 +58750,7 @@
         <v>0.77753399199999995</v>
       </c>
       <c r="DU156" s="90"/>
-      <c r="DV156" s="169">
+      <c r="DV156" s="167">
         <v>-3.4000000000000002E-2</v>
       </c>
       <c r="DW156" s="148"/>
@@ -58753,11 +58760,11 @@
       <c r="DY156" s="29" t="s">
         <v>1013</v>
       </c>
-      <c r="EA156" s="165">
+      <c r="EA156" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB156" s="165">
+      <c r="EB156" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -59496,11 +59503,11 @@
       <c r="DY159" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="EA159" s="165">
+      <c r="EA159" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB159" s="165">
+      <c r="EB159" s="163">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -59934,11 +59941,11 @@
       <c r="CO161" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="CP161" s="151" t="s">
+      <c r="CP161" s="172" t="s">
         <v>2764</v>
       </c>
-      <c r="CQ161" s="152"/>
-      <c r="CR161" s="152"/>
+      <c r="CQ161" s="173"/>
+      <c r="CR161" s="173"/>
       <c r="CS161" s="37" t="s">
         <v>278</v>
       </c>
@@ -60380,11 +60387,11 @@
       <c r="DY162" s="29" t="s">
         <v>2784</v>
       </c>
-      <c r="EA162" s="165">
+      <c r="EA162" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB162" s="165">
+      <c r="EB162" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -60991,11 +60998,11 @@
       <c r="CO165" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="CP165" s="151" t="s">
+      <c r="CP165" s="172" t="s">
         <v>2815</v>
       </c>
-      <c r="CQ165" s="152"/>
-      <c r="CR165" s="152"/>
+      <c r="CQ165" s="173"/>
+      <c r="CR165" s="173"/>
       <c r="CS165" s="37" t="s">
         <v>681</v>
       </c>
@@ -61421,7 +61428,7 @@
         <v>0.210207014</v>
       </c>
       <c r="DU166" s="90"/>
-      <c r="DV166" s="153">
+      <c r="DV166" s="151">
         <f>-0.175454592</f>
         <v>-0.17545459199999999</v>
       </c>
@@ -61432,11 +61439,11 @@
       <c r="DY166" s="29" t="s">
         <v>2838</v>
       </c>
-      <c r="EA166" s="165">
+      <c r="EA166" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB166" s="165">
+      <c r="EB166" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -61986,11 +61993,11 @@
       <c r="DY168" s="29" t="s">
         <v>2862</v>
       </c>
-      <c r="EA168" s="165">
+      <c r="EA168" s="163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="EB168" s="165">
+      <c r="EB168" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -62212,11 +62219,11 @@
       <c r="DS170" s="90"/>
       <c r="DT170" s="147"/>
       <c r="DU170" s="45"/>
-      <c r="DV170" s="165"/>
+      <c r="DV170" s="163"/>
       <c r="DW170" s="90"/>
       <c r="DX170" s="45"/>
       <c r="DY170" s="45"/>
-      <c r="EC170" s="165"/>
+      <c r="EC170" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/tilburg data.xlsx
+++ b/tilburg data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chjh\Dropbox\projects\2014rpp\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\reproducibility project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7969" uniqueCount="2866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7971" uniqueCount="2868">
   <si>
     <t>Variable</t>
   </si>
@@ -8620,6 +8620,12 @@
   </si>
   <si>
     <t>T_O_larger</t>
+  </si>
+  <si>
+    <t>T_N_O_for_tables</t>
+  </si>
+  <si>
+    <t>T_N_R_for_tables</t>
   </si>
 </sst>
 </file>
@@ -8629,7 +8635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8743,6 +8749,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -8864,7 +8876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9297,8 +9309,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9627,13 +9641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EC170"/>
+  <dimension ref="A1:EE170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DN9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="CV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EC1" sqref="EC1"/>
+      <selection pane="bottomRight" activeCell="DV34" sqref="DV34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9679,27 +9693,26 @@
     <col min="69" max="69" width="19.42578125" customWidth="1"/>
     <col min="70" max="77" width="12.7109375" customWidth="1"/>
     <col min="78" max="78" width="15.5703125" customWidth="1"/>
-    <col min="79" max="113" width="12.7109375" customWidth="1"/>
-    <col min="114" max="114" width="7.140625" customWidth="1"/>
-    <col min="115" max="115" width="7.5703125" style="146" customWidth="1"/>
-    <col min="116" max="116" width="18.28515625" customWidth="1"/>
-    <col min="117" max="117" width="22.140625" customWidth="1"/>
-    <col min="118" max="119" width="9" customWidth="1"/>
-    <col min="120" max="120" width="15.85546875" customWidth="1"/>
-    <col min="121" max="121" width="19.140625" customWidth="1"/>
-    <col min="122" max="122" width="10.140625" customWidth="1"/>
-    <col min="123" max="123" width="16.5703125" customWidth="1"/>
-    <col min="124" max="124" width="15.140625" customWidth="1"/>
-    <col min="125" max="125" width="10" customWidth="1"/>
-    <col min="126" max="126" width="7" customWidth="1"/>
-    <col min="127" max="127" width="26.5703125" customWidth="1"/>
-    <col min="128" max="128" width="19.42578125" customWidth="1"/>
-    <col min="129" max="130" width="8.7109375" customWidth="1"/>
-    <col min="131" max="132" width="8.7109375" style="163" customWidth="1"/>
-    <col min="133" max="133" width="8.7109375" customWidth="1"/>
+    <col min="79" max="103" width="12.7109375" customWidth="1"/>
+    <col min="104" max="104" width="0.7109375" customWidth="1"/>
+    <col min="105" max="106" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="12.7109375" customWidth="1"/>
+    <col min="108" max="108" width="0.42578125" customWidth="1"/>
+    <col min="109" max="114" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="3.7109375" style="146" customWidth="1"/>
+    <col min="116" max="119" width="3.7109375" customWidth="1"/>
+    <col min="120" max="120" width="1.140625" customWidth="1"/>
+    <col min="121" max="125" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="126" max="126" width="12.7109375" customWidth="1"/>
+    <col min="127" max="127" width="1" customWidth="1"/>
+    <col min="128" max="130" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="131" max="132" width="8.7109375" style="163" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="134" max="134" width="17.42578125" customWidth="1"/>
+    <col min="135" max="135" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -10096,8 +10109,14 @@
       <c r="EC1" s="162" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="2" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED1" s="162" t="s">
+        <v>2866</v>
+      </c>
+      <c r="EE1" s="162" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="2" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -10477,8 +10496,16 @@
         <f>IF(DJ2&gt;DV2,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED2">
+        <f>DC2</f>
+        <v>13</v>
+      </c>
+      <c r="EE2" s="172">
+        <f>DO2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -10864,8 +10891,16 @@
         <f t="shared" ref="EC3:EC66" si="2">IF(DJ3&gt;DV3,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED3" s="172">
+        <f t="shared" ref="ED3:ED66" si="3">DC3</f>
+        <v>23</v>
+      </c>
+      <c r="EE3" s="172">
+        <f t="shared" ref="EE3:EE66" si="4">DO3</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -11252,8 +11287,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED4" s="172">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="EE4" s="172">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -11634,8 +11677,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED5" s="172">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="EE5" s="172">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -12017,8 +12068,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED6" s="172">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="EE6" s="172">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -12402,8 +12461,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED7" s="172">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="EE7" s="172">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -12789,8 +12856,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED8" s="172">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="EE8" s="172">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -13173,8 +13248,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:133" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED9" s="172">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="EE9" s="172">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:135" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54">
         <v>9</v>
       </c>
@@ -13463,8 +13546,10 @@
       <c r="DX10" s="20"/>
       <c r="DY10" s="20"/>
       <c r="EC10" s="147"/>
-    </row>
-    <row r="11" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED10" s="172"/>
+      <c r="EE10" s="172"/>
+    </row>
+    <row r="11" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -13848,8 +13933,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED11" s="172">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="EE11" s="172">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -14229,8 +14322,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED12" s="172">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="EE12" s="172">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -14610,8 +14711,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED13" s="172">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="EE13" s="172">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -14991,8 +15100,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED14" s="172">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="EE14" s="172">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -15255,8 +15372,10 @@
       <c r="DX15" s="20"/>
       <c r="DY15" s="20"/>
       <c r="EC15" s="147"/>
-    </row>
-    <row r="16" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED15" s="172"/>
+      <c r="EE15" s="172"/>
+    </row>
+    <row r="16" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -15644,8 +15763,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED16" s="172">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="EE16" s="172">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -15837,8 +15964,10 @@
       <c r="DX17" s="44"/>
       <c r="DY17" s="44"/>
       <c r="EC17" s="147"/>
-    </row>
-    <row r="18" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED17" s="172"/>
+      <c r="EE17" s="172"/>
+    </row>
+    <row r="18" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -16218,8 +16347,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED18" s="172">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="EE18" s="172">
+        <f t="shared" si="4"/>
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -16398,8 +16535,10 @@
       <c r="DX19" s="44"/>
       <c r="DY19" s="44"/>
       <c r="EC19" s="147"/>
-    </row>
-    <row r="20" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED19" s="172"/>
+      <c r="EE19" s="172"/>
+    </row>
+    <row r="20" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -16783,8 +16922,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED20" s="172">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="EE20" s="172">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -17166,8 +17313,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED21" s="172">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="EE21" s="172">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -17345,8 +17500,10 @@
       <c r="DX22" s="44"/>
       <c r="DY22" s="44"/>
       <c r="EC22" s="147"/>
-    </row>
-    <row r="23" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED22" s="172"/>
+      <c r="EE22" s="172"/>
+    </row>
+    <row r="23" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -17728,8 +17885,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED23" s="172">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="EE23" s="172">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -17875,8 +18040,10 @@
       <c r="DX24" s="44"/>
       <c r="DY24" s="44"/>
       <c r="EC24" s="147"/>
-    </row>
-    <row r="25" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED24" s="172"/>
+      <c r="EE24" s="172"/>
+    </row>
+    <row r="25" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -18262,8 +18429,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED25" s="172">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="EE25" s="172">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -18637,8 +18812,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED26" s="172">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="EE26" s="172">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -19021,8 +19204,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED27" s="172">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="EE27" s="172">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -19402,8 +19593,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED28" s="172">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="EE28" s="172">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -19786,8 +19985,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED29" s="172">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="EE29" s="172">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -20169,8 +20376,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED30" s="172">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="EE30" s="172">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -20350,8 +20565,10 @@
       <c r="DX31" s="44"/>
       <c r="DY31" s="44"/>
       <c r="EC31" s="147"/>
-    </row>
-    <row r="32" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED31" s="172"/>
+      <c r="EE31" s="172"/>
+    </row>
+    <row r="32" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -20590,8 +20807,10 @@
       <c r="DX32" s="20"/>
       <c r="DY32" s="20"/>
       <c r="EC32" s="147"/>
-    </row>
-    <row r="33" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED32" s="172"/>
+      <c r="EE32" s="172"/>
+    </row>
+    <row r="33" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -20973,8 +21192,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED33" s="172">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="EE33" s="172">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -21358,8 +21585,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED34" s="172">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="EE34" s="172">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -21526,8 +21761,10 @@
       <c r="DX35" s="44"/>
       <c r="DY35" s="44"/>
       <c r="EC35" s="147"/>
-    </row>
-    <row r="36" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED35" s="172"/>
+      <c r="EE35" s="172"/>
+    </row>
+    <row r="36" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -21760,10 +21997,10 @@
       <c r="CL36" s="39">
         <v>4723</v>
       </c>
-      <c r="CM36" s="172" t="s">
+      <c r="CM36" s="173" t="s">
         <v>549</v>
       </c>
-      <c r="CN36" s="173"/>
+      <c r="CN36" s="174"/>
       <c r="CO36" s="67"/>
       <c r="CP36" s="67"/>
       <c r="CQ36" s="67"/>
@@ -21832,8 +22069,10 @@
       <c r="DX36" s="20"/>
       <c r="DY36" s="20"/>
       <c r="EC36" s="147"/>
-    </row>
-    <row r="37" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED36" s="172"/>
+      <c r="EE36" s="172"/>
+    </row>
+    <row r="37" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -22213,8 +22452,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED37" s="172">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="EE37" s="172">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -22593,8 +22840,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED38" s="172">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="EE38" s="172">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -22763,8 +23018,10 @@
       <c r="DX39" s="44"/>
       <c r="DY39" s="44"/>
       <c r="EC39" s="147"/>
-    </row>
-    <row r="40" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED39" s="172"/>
+      <c r="EE39" s="172"/>
+    </row>
+    <row r="40" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -23138,8 +23395,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED40" s="172">
+        <v>68</v>
+      </c>
+      <c r="EE40" s="172">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -23321,8 +23584,10 @@
       <c r="DX41" s="44"/>
       <c r="DY41" s="44"/>
       <c r="EC41" s="147"/>
-    </row>
-    <row r="42" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED41" s="172"/>
+      <c r="EE41" s="172"/>
+    </row>
+    <row r="42" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -23603,8 +23868,10 @@
       <c r="DX42" s="20"/>
       <c r="DY42" s="20"/>
       <c r="EC42" s="147"/>
-    </row>
-    <row r="43" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED42" s="172"/>
+      <c r="EE42" s="172"/>
+    </row>
+    <row r="43" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -23778,8 +24045,10 @@
       <c r="DX43" s="44"/>
       <c r="DY43" s="44"/>
       <c r="EC43" s="147"/>
-    </row>
-    <row r="44" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED43" s="172"/>
+      <c r="EE43" s="172"/>
+    </row>
+    <row r="44" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -24163,8 +24432,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED44" s="172">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="EE44" s="172">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -24548,8 +24825,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED45" s="172">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="EE45" s="172">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -24730,8 +25015,10 @@
       <c r="DX46" s="44"/>
       <c r="DY46" s="44"/>
       <c r="EC46" s="147"/>
-    </row>
-    <row r="47" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED46" s="172"/>
+      <c r="EE46" s="172"/>
+    </row>
+    <row r="47" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -25111,8 +25398,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED47" s="172">
+        <f t="shared" si="3"/>
+        <v>230025</v>
+      </c>
+      <c r="EE47" s="172">
+        <f t="shared" si="4"/>
+        <v>455304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -25352,8 +25647,10 @@
       <c r="DX48" s="44"/>
       <c r="DY48" s="44"/>
       <c r="EC48" s="147"/>
-    </row>
-    <row r="49" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED48" s="172"/>
+      <c r="EE48" s="172"/>
+    </row>
+    <row r="49" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -25735,8 +26032,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED49" s="172">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="EE49" s="172">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -26121,8 +26426,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED50" s="172">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="EE50" s="172">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -26502,8 +26815,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED51" s="172">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="EE51" s="172">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -26816,8 +27137,10 @@
       <c r="DX52" s="20"/>
       <c r="DY52" s="20"/>
       <c r="EC52" s="147"/>
-    </row>
-    <row r="53" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED52" s="172"/>
+      <c r="EE52" s="172"/>
+    </row>
+    <row r="53" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -27199,8 +27522,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED53" s="172">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="EE53" s="172">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -27580,8 +27911,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED54" s="172">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="EE54" s="172">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -27763,8 +28102,10 @@
       <c r="DX55" s="44"/>
       <c r="DY55" s="44"/>
       <c r="EC55" s="147"/>
-    </row>
-    <row r="56" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED55" s="172"/>
+      <c r="EE55" s="172"/>
+    </row>
+    <row r="56" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -28146,8 +28487,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED56" s="172">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="EE56" s="172">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -28530,8 +28879,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED57" s="172">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="EE57" s="172">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -28796,8 +29153,10 @@
       <c r="DX58" s="20"/>
       <c r="DY58" s="20"/>
       <c r="EC58" s="147"/>
-    </row>
-    <row r="59" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED58" s="172"/>
+      <c r="EE58" s="172"/>
+    </row>
+    <row r="59" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -29177,8 +29536,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED59" s="172">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="EE59" s="172">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -29545,8 +29912,14 @@
       <c r="EC60" s="170">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED60" s="172">
+        <v>153</v>
+      </c>
+      <c r="EE60" s="172">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -29722,8 +30095,10 @@
       <c r="DX61" s="44"/>
       <c r="DY61" s="44"/>
       <c r="EC61" s="147"/>
-    </row>
-    <row r="62" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED61" s="172"/>
+      <c r="EE61" s="172"/>
+    </row>
+    <row r="62" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -30110,8 +30485,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED62" s="172">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="EE62" s="172">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -30291,8 +30674,10 @@
       <c r="DX63" s="44"/>
       <c r="DY63" s="44"/>
       <c r="EC63" s="147"/>
-    </row>
-    <row r="64" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED63" s="172"/>
+      <c r="EE63" s="172"/>
+    </row>
+    <row r="64" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -30674,8 +31059,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED64" s="172">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="EE64" s="172">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -31057,8 +31450,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED65" s="172">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="EE65" s="172">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -31440,8 +31841,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED66" s="172">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="EE66" s="172">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -31601,8 +32010,10 @@
       <c r="DX67" s="44"/>
       <c r="DY67" s="44"/>
       <c r="EC67" s="147"/>
-    </row>
-    <row r="68" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED67" s="172"/>
+      <c r="EE67" s="172"/>
+    </row>
+    <row r="68" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -31780,8 +32191,10 @@
       <c r="DX68" s="44"/>
       <c r="DY68" s="44"/>
       <c r="EC68" s="147"/>
-    </row>
-    <row r="69" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED68" s="172"/>
+      <c r="EE68" s="172"/>
+    </row>
+    <row r="69" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -32150,19 +32563,27 @@
         <v>291</v>
       </c>
       <c r="EA69" s="163">
-        <f t="shared" ref="EA69:EA128" si="3">IF(DH69 &lt; 0.05,1,0)</f>
+        <f t="shared" ref="EA69:EA128" si="5">IF(DH69 &lt; 0.05,1,0)</f>
         <v>1</v>
       </c>
       <c r="EB69" s="163">
-        <f t="shared" ref="EB69:EB130" si="4">IF(DT69 &lt; 0.05,1,0)</f>
+        <f t="shared" ref="EB69:EB130" si="6">IF(DT69 &lt; 0.05,1,0)</f>
         <v>0</v>
       </c>
       <c r="EC69" s="147">
-        <f t="shared" ref="EC69:EC130" si="5">IF(DJ69&gt;DV69,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="EC69:EC130" si="7">IF(DJ69&gt;DV69,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="ED69" s="172">
+        <f t="shared" ref="ED67:ED130" si="8">DC69</f>
+        <v>116</v>
+      </c>
+      <c r="EE69" s="172">
+        <f t="shared" ref="EE67:EE130" si="9">DO69</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -32521,19 +32942,25 @@
         <v>1496</v>
       </c>
       <c r="EA70" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB70" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC70" s="170">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED70" s="172">
+        <v>211</v>
+      </c>
+      <c r="EE70" s="172">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -32715,8 +33142,10 @@
       <c r="DX71" s="44"/>
       <c r="DY71" s="44"/>
       <c r="EC71" s="147"/>
-    </row>
-    <row r="72" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED71" s="172"/>
+      <c r="EE71" s="172"/>
+    </row>
+    <row r="72" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -33089,19 +33518,27 @@
         <v>797</v>
       </c>
       <c r="EA72" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB72" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC72" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED72" s="172">
+        <f t="shared" si="8"/>
+        <v>373</v>
+      </c>
+      <c r="EE72" s="172">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -33474,19 +33911,27 @@
         <v>1457</v>
       </c>
       <c r="EA73" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB73" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC73" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED73" s="172">
+        <f t="shared" si="8"/>
+        <v>257</v>
+      </c>
+      <c r="EE73" s="172">
+        <f t="shared" si="9"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -33855,19 +34300,25 @@
         <v>1564</v>
       </c>
       <c r="EA74" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB74" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC74" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED74" s="172">
+        <v>37</v>
+      </c>
+      <c r="EE74" s="172">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -34035,8 +34486,10 @@
       <c r="DX75" s="44"/>
       <c r="DY75" s="44"/>
       <c r="EC75" s="147"/>
-    </row>
-    <row r="76" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED75" s="172"/>
+      <c r="EE75" s="172"/>
+    </row>
+    <row r="76" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -34214,8 +34667,10 @@
       <c r="DX76" s="44"/>
       <c r="DY76" s="44"/>
       <c r="EC76" s="147"/>
-    </row>
-    <row r="77" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED76" s="172"/>
+      <c r="EE76" s="172"/>
+    </row>
+    <row r="77" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -34394,8 +34849,10 @@
       <c r="DX77" s="44"/>
       <c r="DY77" s="44"/>
       <c r="EC77" s="147"/>
-    </row>
-    <row r="78" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED77" s="172"/>
+      <c r="EE77" s="172"/>
+    </row>
+    <row r="78" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -34749,16 +35206,21 @@
         <v>1608</v>
       </c>
       <c r="EA78" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB78" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC78" s="171"/>
-    </row>
-    <row r="79" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED78" s="172">
+        <f t="shared" si="8"/>
+        <v>242</v>
+      </c>
+      <c r="EE78" s="175"/>
+    </row>
+    <row r="79" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -34959,8 +35421,10 @@
       <c r="DX79" s="44"/>
       <c r="DY79" s="44"/>
       <c r="EC79" s="147"/>
-    </row>
-    <row r="80" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED79" s="172"/>
+      <c r="EE79" s="172"/>
+    </row>
+    <row r="80" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>79</v>
       </c>
@@ -35233,8 +35697,10 @@
       <c r="DX80" s="96"/>
       <c r="DY80" s="96"/>
       <c r="EC80" s="147"/>
-    </row>
-    <row r="81" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED80" s="172"/>
+      <c r="EE80" s="172"/>
+    </row>
+    <row r="81" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -35607,19 +36073,27 @@
         <v>1651</v>
       </c>
       <c r="EA81" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB81" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC81" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED81" s="172">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="EE81" s="172">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -35991,19 +36465,27 @@
         <v>1670</v>
       </c>
       <c r="EA82" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB82" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC82" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED82" s="172">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="EE82" s="172">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -36374,19 +36856,25 @@
         <v>1689</v>
       </c>
       <c r="EA83" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB83" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC83" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED83" s="172">
+        <v>47</v>
+      </c>
+      <c r="EE83" s="172">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -36532,8 +37020,10 @@
       <c r="DX84" s="44"/>
       <c r="DY84" s="44"/>
       <c r="EC84" s="147"/>
-    </row>
-    <row r="85" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED84" s="172"/>
+      <c r="EE84" s="172"/>
+    </row>
+    <row r="85" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -36902,19 +37392,25 @@
         <v>1711</v>
       </c>
       <c r="EA85" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB85" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC85" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED85" s="172">
+        <v>52</v>
+      </c>
+      <c r="EE85" s="172">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -37095,8 +37591,10 @@
       <c r="DX86" s="44"/>
       <c r="DY86" s="44"/>
       <c r="EC86" s="147"/>
-    </row>
-    <row r="87" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED86" s="172"/>
+      <c r="EE86" s="172"/>
+    </row>
+    <row r="87" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -37467,19 +37965,27 @@
         <v>1727</v>
       </c>
       <c r="EA87" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB87" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC87" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED87" s="172">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="EE87" s="172">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -37848,19 +38354,27 @@
         <v>1457</v>
       </c>
       <c r="EA88" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB88" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC88" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED88" s="172">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="EE88" s="172">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -38061,8 +38575,10 @@
       <c r="DX89" s="44"/>
       <c r="DY89" s="44"/>
       <c r="EC89" s="147"/>
-    </row>
-    <row r="90" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED89" s="172"/>
+      <c r="EE89" s="172"/>
+    </row>
+    <row r="90" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -38431,19 +38947,27 @@
         <v>1764</v>
       </c>
       <c r="EA90" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="EB90" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC90" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED90" s="172">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="EE90" s="172">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -38640,8 +39164,10 @@
       <c r="DX91" s="44"/>
       <c r="DY91" s="44"/>
       <c r="EC91" s="147"/>
-    </row>
-    <row r="92" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED91" s="172"/>
+      <c r="EE91" s="172"/>
+    </row>
+    <row r="92" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -38826,8 +39352,10 @@
       <c r="DX92" s="44"/>
       <c r="DY92" s="44"/>
       <c r="EC92" s="147"/>
-    </row>
-    <row r="93" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED92" s="172"/>
+      <c r="EE92" s="172"/>
+    </row>
+    <row r="93" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -39010,8 +39538,10 @@
       <c r="DX93" s="44"/>
       <c r="DY93" s="44"/>
       <c r="EC93" s="147"/>
-    </row>
-    <row r="94" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED93" s="172"/>
+      <c r="EE93" s="172"/>
+    </row>
+    <row r="94" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -39378,19 +39908,27 @@
         <v>1811</v>
       </c>
       <c r="EA94" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB94" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC94" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED94" s="172">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="EE94" s="172">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -39763,19 +40301,27 @@
         <v>1832</v>
       </c>
       <c r="EA95" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB95" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC95" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED95" s="172">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="EE95" s="172">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -40080,8 +40626,10 @@
       <c r="DX96" s="20"/>
       <c r="DY96" s="20"/>
       <c r="EC96" s="147"/>
-    </row>
-    <row r="97" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED96" s="172"/>
+      <c r="EE96" s="172"/>
+    </row>
+    <row r="97" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -40264,8 +40812,10 @@
       <c r="DX97" s="44"/>
       <c r="DY97" s="44"/>
       <c r="EC97" s="147"/>
-    </row>
-    <row r="98" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED97" s="172"/>
+      <c r="EE97" s="172"/>
+    </row>
+    <row r="98" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>97</v>
       </c>
@@ -40639,19 +41189,27 @@
         <v>1872</v>
       </c>
       <c r="EA98" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB98" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC98" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED98" s="172">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="EE98" s="172">
+        <f t="shared" si="9"/>
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14">
         <v>98</v>
       </c>
@@ -40832,8 +41390,10 @@
       <c r="DX99" s="44"/>
       <c r="DY99" s="44"/>
       <c r="EC99" s="147"/>
-    </row>
-    <row r="100" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED99" s="172"/>
+      <c r="EE99" s="172"/>
+    </row>
+    <row r="100" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>99</v>
       </c>
@@ -41015,8 +41575,10 @@
       <c r="DX100" s="44"/>
       <c r="DY100" s="44"/>
       <c r="EC100" s="147"/>
-    </row>
-    <row r="101" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED100" s="172"/>
+      <c r="EE100" s="172"/>
+    </row>
+    <row r="101" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <v>100</v>
       </c>
@@ -41199,8 +41761,10 @@
       <c r="DX101" s="44"/>
       <c r="DY101" s="44"/>
       <c r="EC101" s="147"/>
-    </row>
-    <row r="102" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED101" s="172"/>
+      <c r="EE101" s="172"/>
+    </row>
+    <row r="102" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>101</v>
       </c>
@@ -41384,8 +41948,10 @@
       <c r="DX102" s="44"/>
       <c r="DY102" s="44"/>
       <c r="EC102" s="147"/>
-    </row>
-    <row r="103" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED102" s="172"/>
+      <c r="EE102" s="172"/>
+    </row>
+    <row r="103" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
         <v>102</v>
       </c>
@@ -41568,8 +42134,10 @@
       <c r="DX103" s="44"/>
       <c r="DY103" s="44"/>
       <c r="EC103" s="147"/>
-    </row>
-    <row r="104" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED103" s="172"/>
+      <c r="EE103" s="172"/>
+    </row>
+    <row r="104" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>103</v>
       </c>
@@ -41752,8 +42320,10 @@
       <c r="DX104" s="44"/>
       <c r="DY104" s="44"/>
       <c r="EC104" s="147"/>
-    </row>
-    <row r="105" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED104" s="172"/>
+      <c r="EE104" s="172"/>
+    </row>
+    <row r="105" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14">
         <v>104</v>
       </c>
@@ -42123,15 +42693,21 @@
         <v>1</v>
       </c>
       <c r="EB105" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC105" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED105" s="172">
+        <v>236</v>
+      </c>
+      <c r="EE105" s="172">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
         <v>105</v>
       </c>
@@ -42410,8 +42986,10 @@
       <c r="DX106" s="20"/>
       <c r="DY106" s="20"/>
       <c r="EC106" s="147"/>
-    </row>
-    <row r="107" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED106" s="172"/>
+      <c r="EE106" s="172"/>
+    </row>
+    <row r="107" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14">
         <v>106</v>
       </c>
@@ -42787,19 +43365,27 @@
         <v>1970</v>
       </c>
       <c r="EA107" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB107" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC107" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED107" s="172">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="EE107" s="172">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14">
         <v>107</v>
       </c>
@@ -43174,19 +43760,27 @@
         <v>1995</v>
       </c>
       <c r="EA108" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB108" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC108" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED108" s="172">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="EE108" s="172">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>108</v>
       </c>
@@ -43379,8 +43973,10 @@
       <c r="DX109" s="44"/>
       <c r="DY109" s="44"/>
       <c r="EC109" s="147"/>
-    </row>
-    <row r="110" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED109" s="172"/>
+      <c r="EE109" s="172"/>
+    </row>
+    <row r="110" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14">
         <v>109</v>
       </c>
@@ -43581,8 +44177,10 @@
       <c r="DX110" s="44"/>
       <c r="DY110" s="44"/>
       <c r="EC110" s="147"/>
-    </row>
-    <row r="111" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED110" s="172"/>
+      <c r="EE110" s="172"/>
+    </row>
+    <row r="111" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
         <v>110</v>
       </c>
@@ -43953,19 +44551,27 @@
         <v>292</v>
       </c>
       <c r="EA111" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB111" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC111" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED111" s="172">
+        <f t="shared" si="8"/>
+        <v>278</v>
+      </c>
+      <c r="EE111" s="172">
+        <f t="shared" si="9"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
         <v>111</v>
       </c>
@@ -44336,19 +44942,27 @@
         <v>1457</v>
       </c>
       <c r="EA112" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB112" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC112" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED112" s="172">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="EE112" s="172">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -44717,19 +45331,27 @@
         <v>291</v>
       </c>
       <c r="EA113" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB113" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC113" s="147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="ED113" s="172">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="EE113" s="172">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <v>113</v>
       </c>
@@ -45100,19 +45722,27 @@
         <v>2098</v>
       </c>
       <c r="EA114" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB114" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC114" s="147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="ED114" s="172">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="EE114" s="172">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -45483,19 +46113,27 @@
         <v>710</v>
       </c>
       <c r="EA115" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB115" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC115" s="147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="ED115" s="172">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="EE115" s="172">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14">
         <v>115</v>
       </c>
@@ -45867,19 +46505,27 @@
         <v>1172</v>
       </c>
       <c r="EA116" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB116" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC116" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED116" s="172">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="EE116" s="172">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -46252,19 +46898,27 @@
         <v>2153</v>
       </c>
       <c r="EA117" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB117" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC117" s="147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="ED117" s="172">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+      <c r="EE117" s="172">
+        <f t="shared" si="9"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14">
         <v>117</v>
       </c>
@@ -46635,19 +47289,27 @@
         <v>291</v>
       </c>
       <c r="EA118" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB118" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC118" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED118" s="172">
+        <f t="shared" si="8"/>
+        <v>660</v>
+      </c>
+      <c r="EE118" s="172">
+        <f t="shared" si="9"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="119" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -47015,19 +47677,27 @@
         <v>2189</v>
       </c>
       <c r="EA119" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB119" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC119" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED119" s="172">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="EE119" s="172">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14">
         <v>119</v>
       </c>
@@ -47205,8 +47875,10 @@
       <c r="DX120" s="44"/>
       <c r="DY120" s="44"/>
       <c r="EC120" s="147"/>
-    </row>
-    <row r="121" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED120" s="172"/>
+      <c r="EE120" s="172"/>
+    </row>
+    <row r="121" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -47575,19 +48247,25 @@
         <v>2217</v>
       </c>
       <c r="EA121" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB121" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC121" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED121" s="172">
+        <v>28</v>
+      </c>
+      <c r="EE121" s="172">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14">
         <v>121</v>
       </c>
@@ -47954,19 +48632,26 @@
         <v>2232</v>
       </c>
       <c r="EA122" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB122" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC122" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED122" s="172">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="EE122" s="172">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <v>122</v>
       </c>
@@ -48341,19 +49026,27 @@
         <v>491</v>
       </c>
       <c r="EA123" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB123" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC123" s="147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="ED123" s="172">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="EE123" s="172">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14">
         <v>123</v>
       </c>
@@ -48554,8 +49247,10 @@
       <c r="DX124" s="44"/>
       <c r="DY124" s="44"/>
       <c r="EC124" s="147"/>
-    </row>
-    <row r="125" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED124" s="172"/>
+      <c r="EE124" s="172"/>
+    </row>
+    <row r="125" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14">
         <v>124</v>
       </c>
@@ -48925,19 +49620,27 @@
         <v>291</v>
       </c>
       <c r="EA125" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB125" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC125" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED125" s="172">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="EE125" s="172">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14">
         <v>125</v>
       </c>
@@ -49120,8 +49823,10 @@
       <c r="DX126" s="44"/>
       <c r="DY126" s="44"/>
       <c r="EC126" s="147"/>
-    </row>
-    <row r="127" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED126" s="172"/>
+      <c r="EE126" s="172"/>
+    </row>
+    <row r="127" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14">
         <v>126</v>
       </c>
@@ -49299,8 +50004,10 @@
       <c r="DX127" s="44"/>
       <c r="DY127" s="44"/>
       <c r="EC127" s="147"/>
-    </row>
-    <row r="128" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED127" s="172"/>
+      <c r="EE127" s="172"/>
+    </row>
+    <row r="128" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14">
         <v>127</v>
       </c>
@@ -49667,19 +50374,27 @@
         <v>491</v>
       </c>
       <c r="EA128" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EB128" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="EC128" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED128" s="172">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="EE128" s="172">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14">
         <v>128</v>
       </c>
@@ -49921,10 +50636,10 @@
       <c r="CO129" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="CP129" s="172" t="s">
+      <c r="CP129" s="173" t="s">
         <v>2317</v>
       </c>
-      <c r="CQ129" s="173"/>
+      <c r="CQ129" s="174"/>
       <c r="CR129" s="67"/>
       <c r="CS129" s="37" t="s">
         <v>332</v>
@@ -49988,8 +50703,10 @@
       <c r="DX129" s="20"/>
       <c r="DY129" s="20"/>
       <c r="EC129" s="147"/>
-    </row>
-    <row r="130" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED129" s="172"/>
+      <c r="EE129" s="172"/>
+    </row>
+    <row r="130" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14">
         <v>129</v>
       </c>
@@ -50363,15 +51080,23 @@
         <v>1</v>
       </c>
       <c r="EB130" s="163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="EC130" s="147">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="ED130" s="172">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="EE130" s="172">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14">
         <v>130</v>
       </c>
@@ -50516,8 +51241,10 @@
       <c r="DX131" s="44"/>
       <c r="DY131" s="44"/>
       <c r="EC131" s="147"/>
-    </row>
-    <row r="132" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED131" s="172"/>
+      <c r="EE131" s="172"/>
+    </row>
+    <row r="132" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14">
         <v>131</v>
       </c>
@@ -50667,8 +51394,10 @@
       <c r="DX132" s="44"/>
       <c r="DY132" s="44"/>
       <c r="EC132" s="147"/>
-    </row>
-    <row r="133" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED132" s="172"/>
+      <c r="EE132" s="172"/>
+    </row>
+    <row r="133" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14">
         <v>132</v>
       </c>
@@ -51037,19 +51766,27 @@
         <v>2362</v>
       </c>
       <c r="EA133" s="163">
-        <f t="shared" ref="EA133:EA168" si="6">IF(DH133 &lt; 0.05,1,0)</f>
+        <f t="shared" ref="EA133:EA168" si="10">IF(DH133 &lt; 0.05,1,0)</f>
         <v>1</v>
       </c>
       <c r="EB133" s="163">
-        <f t="shared" ref="EB133:EB168" si="7">IF(DT133 &lt; 0.05,1,0)</f>
+        <f t="shared" ref="EB133:EB168" si="11">IF(DT133 &lt; 0.05,1,0)</f>
         <v>0</v>
       </c>
       <c r="EC133" s="147">
-        <f t="shared" ref="EC133:EC168" si="8">IF(DJ133&gt;DV133,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="EC133:EC168" si="12">IF(DJ133&gt;DV133,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="ED133" s="172">
+        <f t="shared" ref="ED131:ED168" si="13">DC133</f>
+        <v>69</v>
+      </c>
+      <c r="EE133" s="172">
+        <f t="shared" ref="EE131:EE168" si="14">DO133</f>
+        <v>41.457999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14">
         <v>133</v>
       </c>
@@ -51418,19 +52155,27 @@
         <v>291</v>
       </c>
       <c r="EA134" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB134" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="EC134" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED134" s="172">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="EE134" s="172">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14">
         <v>134</v>
       </c>
@@ -51803,19 +52548,27 @@
         <v>2395</v>
       </c>
       <c r="EA135" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB135" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="EC135" s="147">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ED135" s="172">
+        <f t="shared" si="13"/>
+        <v>115</v>
+      </c>
+      <c r="EE135" s="172">
+        <f t="shared" si="14"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14">
         <v>135</v>
       </c>
@@ -52188,19 +52941,27 @@
         <v>2415</v>
       </c>
       <c r="EA136" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="EB136" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="EC136" s="147">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ED136" s="172">
+        <f t="shared" si="13"/>
+        <v>562</v>
+      </c>
+      <c r="EE136" s="172">
+        <f t="shared" si="14"/>
+        <v>3511.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14">
         <v>136</v>
       </c>
@@ -52470,10 +53231,10 @@
       <c r="CO137" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="CP137" s="172" t="s">
+      <c r="CP137" s="173" t="s">
         <v>2435</v>
       </c>
-      <c r="CQ137" s="173"/>
+      <c r="CQ137" s="174"/>
       <c r="CR137" s="37" t="s">
         <v>382</v>
       </c>
@@ -52571,19 +53332,27 @@
         <v>797</v>
       </c>
       <c r="EA137" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB137" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC137" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED137" s="172">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="EE137" s="172">
+        <f t="shared" si="14"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14">
         <v>137</v>
       </c>
@@ -52751,8 +53520,10 @@
       <c r="DX138" s="44"/>
       <c r="DY138" s="44"/>
       <c r="EC138" s="147"/>
-    </row>
-    <row r="139" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED138" s="172"/>
+      <c r="EE138" s="172"/>
+    </row>
+    <row r="139" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14">
         <v>138</v>
       </c>
@@ -52936,8 +53707,10 @@
       <c r="DX139" s="44"/>
       <c r="DY139" s="44"/>
       <c r="EC139" s="147"/>
-    </row>
-    <row r="140" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED139" s="172"/>
+      <c r="EE139" s="172"/>
+    </row>
+    <row r="140" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14">
         <v>139</v>
       </c>
@@ -53310,19 +54083,27 @@
         <v>2472</v>
       </c>
       <c r="EA140" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB140" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="EC140" s="147">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ED140" s="172">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="EE140" s="172">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14">
         <v>140</v>
       </c>
@@ -53693,19 +54474,27 @@
         <v>291</v>
       </c>
       <c r="EA141" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB141" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC141" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED141" s="172">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="EE141" s="172">
+        <f t="shared" si="14"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14">
         <v>141</v>
       </c>
@@ -53982,8 +54771,10 @@
       <c r="DX142" s="20"/>
       <c r="DY142" s="20"/>
       <c r="EC142" s="147"/>
-    </row>
-    <row r="143" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED142" s="172"/>
+      <c r="EE142" s="172"/>
+    </row>
+    <row r="143" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14">
         <v>142</v>
       </c>
@@ -54352,19 +55143,27 @@
         <v>292</v>
       </c>
       <c r="EA143" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB143" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="EC143" s="147">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ED143" s="172">
+        <f t="shared" si="13"/>
+        <v>162</v>
+      </c>
+      <c r="EE143" s="172">
+        <f t="shared" si="14"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14">
         <v>143</v>
       </c>
@@ -54735,19 +55534,27 @@
         <v>2543</v>
       </c>
       <c r="EA144" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB144" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC144" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED144" s="172">
+        <f t="shared" si="13"/>
+        <v>108</v>
+      </c>
+      <c r="EE144" s="172">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14">
         <v>144</v>
       </c>
@@ -54895,8 +55702,10 @@
       <c r="DX145" s="44"/>
       <c r="DY145" s="44"/>
       <c r="EC145" s="147"/>
-    </row>
-    <row r="146" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED145" s="172"/>
+      <c r="EE145" s="172"/>
+    </row>
+    <row r="146" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14">
         <v>145</v>
       </c>
@@ -55269,19 +56078,27 @@
         <v>2563</v>
       </c>
       <c r="EA146" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB146" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="EC146" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED146" s="172">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="EE146" s="172">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14">
         <v>146</v>
       </c>
@@ -55658,19 +56475,27 @@
         <v>491</v>
       </c>
       <c r="EA147" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB147" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC147" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED147" s="172">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="EE147" s="172">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14">
         <v>147</v>
       </c>
@@ -55935,8 +56760,10 @@
       <c r="DX148" s="20"/>
       <c r="DY148" s="20"/>
       <c r="EC148" s="147"/>
-    </row>
-    <row r="149" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED148" s="172"/>
+      <c r="EE148" s="172"/>
+    </row>
+    <row r="149" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14">
         <v>148</v>
       </c>
@@ -56306,19 +57133,27 @@
         <v>2611</v>
       </c>
       <c r="EA149" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB149" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC149" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED149" s="172">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="EE149" s="172">
+        <f t="shared" si="14"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="150" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14">
         <v>149</v>
       </c>
@@ -56687,19 +57522,27 @@
         <v>2615</v>
       </c>
       <c r="EA150" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB150" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC150" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED150" s="172">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="EE150" s="172">
+        <f t="shared" si="14"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="151" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14">
         <v>150</v>
       </c>
@@ -57068,19 +57911,27 @@
         <v>2635</v>
       </c>
       <c r="EA151" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB151" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC151" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED151" s="172">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="EE151" s="172">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14">
         <v>151</v>
       </c>
@@ -57451,19 +58302,27 @@
         <v>1727</v>
       </c>
       <c r="EA152" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB152" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC152" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED152" s="172">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="EE152" s="172">
+        <f t="shared" si="14"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14">
         <v>152</v>
       </c>
@@ -57641,8 +58500,10 @@
       <c r="DX153" s="44"/>
       <c r="DY153" s="44"/>
       <c r="EC153" s="147"/>
-    </row>
-    <row r="154" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED153" s="172"/>
+      <c r="EE153" s="172"/>
+    </row>
+    <row r="154" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14">
         <v>153</v>
       </c>
@@ -58013,19 +58874,27 @@
         <v>491</v>
       </c>
       <c r="EA154" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB154" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC154" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED154" s="172">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="EE154" s="172">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14">
         <v>154</v>
       </c>
@@ -58384,19 +59253,25 @@
         <v>2696</v>
       </c>
       <c r="EA155" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB155" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC155" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED155" s="172">
+        <v>67</v>
+      </c>
+      <c r="EE155" s="172">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14">
         <v>155</v>
       </c>
@@ -58761,19 +59636,25 @@
         <v>1013</v>
       </c>
       <c r="EA156" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB156" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC156" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED156" s="172">
+        <v>50</v>
+      </c>
+      <c r="EE156" s="172">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14">
         <v>156</v>
       </c>
@@ -58953,8 +59834,10 @@
       <c r="DX157" s="44"/>
       <c r="DY157" s="44"/>
       <c r="EC157" s="147"/>
-    </row>
-    <row r="158" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED157" s="172"/>
+      <c r="EE157" s="172"/>
+    </row>
+    <row r="158" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14">
         <v>157</v>
       </c>
@@ -59134,8 +60017,10 @@
       <c r="DX158" s="44"/>
       <c r="DY158" s="44"/>
       <c r="EC158" s="147"/>
-    </row>
-    <row r="159" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED158" s="172"/>
+      <c r="EE158" s="172"/>
+    </row>
+    <row r="159" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14">
         <v>158</v>
       </c>
@@ -59504,19 +60389,27 @@
         <v>291</v>
       </c>
       <c r="EA159" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB159" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="EC159" s="147">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ED159" s="172">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="EE159" s="172">
+        <f t="shared" si="14"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14">
         <v>159</v>
       </c>
@@ -59696,8 +60589,10 @@
       <c r="DX160" s="44"/>
       <c r="DY160" s="44"/>
       <c r="EC160" s="147"/>
-    </row>
-    <row r="161" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED160" s="172"/>
+      <c r="EE160" s="172"/>
+    </row>
+    <row r="161" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14">
         <v>160</v>
       </c>
@@ -59941,11 +60836,11 @@
       <c r="CO161" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="CP161" s="172" t="s">
+      <c r="CP161" s="173" t="s">
         <v>2764</v>
       </c>
-      <c r="CQ161" s="173"/>
-      <c r="CR161" s="173"/>
+      <c r="CQ161" s="174"/>
+      <c r="CR161" s="174"/>
       <c r="CS161" s="37" t="s">
         <v>278</v>
       </c>
@@ -60012,8 +60907,10 @@
       <c r="DX161" s="20"/>
       <c r="DY161" s="20"/>
       <c r="EC161" s="147"/>
-    </row>
-    <row r="162" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED161" s="172"/>
+      <c r="EE161" s="172"/>
+    </row>
+    <row r="162" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14">
         <v>161</v>
       </c>
@@ -60388,19 +61285,27 @@
         <v>2784</v>
       </c>
       <c r="EA162" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB162" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC162" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED162" s="172">
+        <f t="shared" si="13"/>
+        <v>44</v>
+      </c>
+      <c r="EE162" s="172">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14">
         <v>162</v>
       </c>
@@ -60580,8 +61485,10 @@
       <c r="DX163" s="44"/>
       <c r="DY163" s="44"/>
       <c r="EC163" s="147"/>
-    </row>
-    <row r="164" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED163" s="172"/>
+      <c r="EE163" s="172"/>
+    </row>
+    <row r="164" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14">
         <v>163</v>
       </c>
@@ -60753,8 +61660,10 @@
       <c r="DX164" s="44"/>
       <c r="DY164" s="44"/>
       <c r="EC164" s="147"/>
-    </row>
-    <row r="165" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED164" s="172"/>
+      <c r="EE164" s="172"/>
+    </row>
+    <row r="165" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14">
         <v>164</v>
       </c>
@@ -60998,11 +61907,11 @@
       <c r="CO165" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="CP165" s="172" t="s">
+      <c r="CP165" s="173" t="s">
         <v>2815</v>
       </c>
-      <c r="CQ165" s="173"/>
-      <c r="CR165" s="173"/>
+      <c r="CQ165" s="174"/>
+      <c r="CR165" s="174"/>
       <c r="CS165" s="37" t="s">
         <v>681</v>
       </c>
@@ -61069,8 +61978,10 @@
       <c r="DX165" s="20"/>
       <c r="DY165" s="20"/>
       <c r="EC165" s="147"/>
-    </row>
-    <row r="166" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED165" s="172"/>
+      <c r="EE165" s="172"/>
+    </row>
+    <row r="166" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14">
         <v>165</v>
       </c>
@@ -61440,19 +62351,25 @@
         <v>2838</v>
       </c>
       <c r="EA166" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB166" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC166" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED166" s="172">
+        <v>56</v>
+      </c>
+      <c r="EE166" s="172">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14">
         <v>166</v>
       </c>
@@ -61618,8 +62535,10 @@
       <c r="DX167" s="44"/>
       <c r="DY167" s="44"/>
       <c r="EC167" s="147"/>
-    </row>
-    <row r="168" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ED167" s="172"/>
+      <c r="EE167" s="172"/>
+    </row>
+    <row r="168" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14">
         <v>167</v>
       </c>
@@ -61994,19 +62913,27 @@
         <v>2862</v>
       </c>
       <c r="EA168" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="EB168" s="163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="EC168" s="147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="ED168" s="172">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="EE168" s="172">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="45"/>
       <c r="D169" s="45"/>
       <c r="E169" s="45"/>
@@ -62115,7 +63042,7 @@
       <c r="DX169" s="45"/>
       <c r="DY169" s="45"/>
     </row>
-    <row r="170" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:135" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="45"/>
       <c r="D170" s="45"/>
       <c r="E170" s="45"/>
@@ -62212,18 +63139,36 @@
       <c r="DL170" s="90"/>
       <c r="DM170" s="90"/>
       <c r="DN170" s="90"/>
-      <c r="DO170" s="90"/>
+      <c r="DO170" s="163"/>
       <c r="DP170" s="90"/>
       <c r="DQ170" s="90"/>
       <c r="DR170" s="90"/>
       <c r="DS170" s="90"/>
       <c r="DT170" s="147"/>
       <c r="DU170" s="45"/>
-      <c r="DV170" s="163"/>
+      <c r="DV170" s="163">
+        <f>COUNT(DV2:DV168)</f>
+        <v>97</v>
+      </c>
       <c r="DW170" s="90"/>
       <c r="DX170" s="45"/>
       <c r="DY170" s="45"/>
-      <c r="EC170" s="163"/>
+      <c r="EA170" s="163">
+        <f>SUM(EA2:EA168)</f>
+        <v>97</v>
+      </c>
+      <c r="EC170" s="163">
+        <f>SUM(EC2:EC168)</f>
+        <v>82</v>
+      </c>
+      <c r="ED170" s="163">
+        <f>COUNT(ED2:ED168)</f>
+        <v>100</v>
+      </c>
+      <c r="EE170" s="163">
+        <f>COUNT(EE2:EE168)</f>
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
